--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -540,37 +540,37 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[81, 93, 103, 114, 148, 194]</t>
+          <t>[81, 93, 103, 114, 148, 194, 197, 197, 197, 197, 218, 220, 222, 240, 242, 293, 319, 319, 319, 319, 342]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[0.086, 0.086, 0.098, 0.096, 0.094, 0.092]</t>
+          <t>[0.086, 0.086, 0.098, 0.096, 0.094, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.09, 0.09, 0.09, 0.1, 0.1, 0.1, 0.1, 0.1]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0, 16.097865295410166, 38.60830733776093, 61.87577478885649, 83.7264050245285, 106.24110400676727]</t>
+          <t>[0, 16.097865295410166, 38.60830733776093, 61.87577478885649, 83.7264050245285, 106.24110400676727, 113.78760421276093, 138.82562291622162, 151.63454074859618, 151.63454074859618, 160.57704050540923, 182.825630068779, 197.69045696258544, 219.51761140823365, 241.83314867019655, 267.2845475196839, 276.6690353274346, 303.59656013250355, 315.9621186614037, 315.9621186614037, 325.26231840848925]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0, 0.36, 0.86, 1.36, 1.93, 2.48]</t>
+          <t>[0, 0.36, 0.86, 1.36, 1.93, 2.48, 3.06, 3.49, 3.98, 4.68, 5.11, 5.64, 6.21, 6.7, 7.61, 8.55, 9.45, 10.34, 11.35, 12.34, 13.03]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, 0, 0, 0, -10, -10, -10, -10, -20, -20, 0, -20, 0, -20, 0, -20, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, -20, -20, -20, -10, -20, 0, -10, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, 0, -10, 0, 0, 0, -10, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0, 0, -20]</t>
+          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, 0, 0, 0, -10, -10, -20, 0, -20, -20, 0, -20, 0, -20, 0, -20, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, 0, -20, -20, -10, -20, 0, -10, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, 0, 0, 0, -10, -10, 0, -10, -10, 0, 0, -10, 0, -10, 0, 0, -10, 0, 0, 0, -20]</t>
         </is>
       </c>
     </row>
@@ -609,37 +609,37 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[81, 85, 100, 113, 143, 192]</t>
+          <t>[81, 85, 100, 113, 143, 192, 213, 213, 213, 213, 237, 241, 244, 250, 275, 324, 347, 347, 347, 347, 393]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.342, 0.352, 0.374, 0.37, 0.382, 0.382]</t>
+          <t>[0.342, 0.352, 0.374, 0.37, 0.382, 0.382, 0.397, 0.397, 0.397, 0.397, 0.393, 0.398, 0.4, 0.4, 0.404, 0.404, 0.402, 0.402, 0.402, 0.402, 0.4]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0, 14.544830417633067, 38.229873919487005, 60.96841380596162, 81.42432296276094, 105.40737187862398]</t>
+          <t>[0, 14.544830417633067, 38.229873919487005, 60.96841380596162, 81.42432296276094, 105.40737187862398, 113.79237210750581, 134.84594135284428, 148.3509757995606, 148.3509757995606, 157.65117554664616, 178.0573615074158, 194.24799129962923, 219.1670227766037, 241.4825600385666, 266.9339588880539, 275.9897591352463, 302.9174396276474, 315.51484246253966, 315.51484246253966, 322.91660974025723]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0, 0.03, 0.08, 0.11, 0.16, 0.23]</t>
+          <t>[0, 0.03, 0.08, 0.11, 0.16, 0.23, 0.28, 0.34, 0.39, 0.44, 0.5, 0.56, 0.63, 0.68, 0.75, 0.81, 0.9, 0.95, 1.01, 1.08, 1.14]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -10, -10, -10, -10, -10, -10, 0, 0, 0, -10, -10, -10, -20, -20, -20, 0, 0, 0, -20, 0, -20, -20, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, -20, -20, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, 0, -10, 0, -10, 0, -10, 0, 0, -10, 0, 0, 0, 0, 0, -20]</t>
+          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, 0, 0, 0, -10, -10, -20, 0, -20, -20, 0, 0, 0, -20, 0, -20, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, 0, -20, -20, -20, -10, 0, -20, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, -10, -10, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, -10, 0, 0, 0, -20]</t>
         </is>
       </c>
     </row>
@@ -678,37 +678,37 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[81, 84, 94, 102, 142, 189]</t>
+          <t>[81, 84, 94, 102, 142, 189, 190, 190, 190, 190, 210, 210, 210, 210, 210, 215, 218, 259, 306, 306, 329]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.086, 0.086, 0.092, 0.092, 0.094, 0.103]</t>
+          <t>[0.086, 0.086, 0.092, 0.092, 0.094, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.109, 0.107, 0.107, 0.105]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0, 15.530802631378185, 37.09476878643035, 57.24029161930084, 77.69620077610017, 100.7003497362137]</t>
+          <t>[0, 15.530802631378185, 37.09476878643035, 57.24029161930084, 77.69620077610017, 100.7003497362137, 107.74374992847444, 132.30935318470003, 145.43205032348635, 145.43205032348635, 154.19570008516314, 175.495841896534, 192.57426539659502, 211.8608514428139, 235.58418039083483, 258.6813417553902, 275.4413020730019, 292.6162026047707, 307.3982270836831, 307.8179270863534, 328.02542659044275]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0, 0.31, 0.67, 1.23, 2.04, 2.73]</t>
+          <t>[0, 0.31, 0.67, 1.23, 2.04, 2.73, 3.32, 3.81, 4.39, 4.78, 5.2, 5.58, 6.0, 6.52, 7.09, 7.61, 8.33, 9.29, 10.2, 11.25, 12.3]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[0, 0, 0, -10, -10, 0, 0, 0, 0, -10, -20, 0, 0, 0, -10, -10, 0, -10, 0, 0, -20, -10, -20, 0, 0, 0, -20, -20, -20, -10, 0, 0, -10, -20, -10, -10, -20, 0, -20, 0, -20, -20, -10, 0, -20, 0, 0, 0, -20, -20, 0, -10, -20, 0, 0, -20, 0, 0, 0, -20, 0, 0, 0, -10, 0, 0, 0, -10, 0, 0, -10, -20, -10, -10, 0, 0, 0, -20, -10, -20, -10]</t>
+          <t>[-10, 0, 0, -10, -20, 0, 0, -10, -20, 0, -10, 0, -20, -20, 0, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, 0, -20, -10, -10, 0, -10, -20, 0, 0, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, -20, 0, -20, -10, 0, -20, 0, 0, -10, 0, 0, 0, 0, -20, -20, 0, -20, -20, -10, 0, -20, 0, 0, -10, -10, -20, -10, -10, 0, 0, -20, -20, -10, -10, -20, -10, 0]</t>
         </is>
       </c>
     </row>
@@ -747,37 +747,37 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[81, 87, 98, 104, 144, 192]</t>
+          <t>[81, 87, 98, 104, 144, 192, 214, 214, 214, 214, 223, 223, 227, 250, 252, 252, 252, 252, 252, 252, 252]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.342, 0.365, 0.389, 0.385, 0.383, 0.383]</t>
+          <t>[0.342, 0.365, 0.389, 0.385, 0.383, 0.383, 0.393, 0.393, 0.393, 0.393, 0.397, 0.397, 0.404, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0, 16.67876248359681, 38.05118577480316, 60.16182434558867, 80.61773350238799, 104.11133244037627]</t>
+          <t>[0, 16.67876248359681, 38.05118577480316, 60.16182434558867, 80.61773350238799, 104.11133244037627, 112.49633266925811, 138.0067668199539, 151.75726034641264, 151.75726034641264, 173.77884027361867, 201.77658314108845, 213.1931896626949, 237.1615375936031, 250.92134079337117, 273.1265073239803, 299.4534540593624, 320.50671071410176, 340.2187743127346, 361.99377297759054, 368.4016011893749]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0, 0.04, 0.07, 0.1, 0.13, 0.18]</t>
+          <t>[0, 0.04, 0.07, 0.1, 0.13, 0.18, 0.23, 0.29, 0.35, 0.42, 0.46, 0.51, 0.6, 0.69, 0.75, 0.81, 0.86, 0.91, 0.97, 1.06, 1.13]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[0, 0, 0, -10, -10, 0, 0, 0, 0, -10, -20, 0, 0, 0, -10, -10, 0, -10, 0, 0, -20, -10, -20, 0, 0, 0, -20, -20, -20, -10, 0, 0, -10, -20, -10, -10, -20, 0, -20, 0, -20, -20, -10, 0, -20, 0, 0, 0, -20, -20, 0, -10, -20, 0, 0, -20, 0, 0, 0, -20, 0, 0, 0, -10, 0, 0, 0, -10, 0, 0, -10, -20, -10, -10, 0, 0, 0, -20, -10, -20, -10]</t>
+          <t>[-10, 0, -10, -20, -10, 0, -20, 0, 0, -10, -20, 0, 0, 0, -10, 0, 0, 0, 0, 0, -20, 0, -20, 0, -20, 0, 0, -20, -20, 0, 0, -20, 0, 0, 0, -10, -10, -20, 0, 0, 0, -10, -10, -20, 0, -20, 0, -20, 0, 0, -10, -10, 0, 0, -20, 0, -10, 0, 0, 0, 0, -10, -20, 0, -20, -10, -10, -10, -10, -20, 0, 0, 0, -10, -10, 0, -20, -20, -20, 0, -10]</t>
         </is>
       </c>
     </row>

--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -540,37 +540,37 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[81, 93, 103, 114, 148, 194, 197, 197, 197, 197, 218, 220, 222, 240, 242, 293, 319, 319, 319, 319, 342]</t>
+          <t>[81, 93, 103, 114, 148, 194, 197, 197, 197, 197, 218, 220, 222, 240, 242, 293, 319, 319, 319, 319, 342, 342, 342, 342, 367, 368, 368, 372, 389, 389, 392, 435, 435, 443, 443, 469, 506, 559, 560, 572, 572, 572, 608, 608, 608, 650, 650, 650, 684, 684, 684, 684, 710, 711, 711, 711, 711, 711, 735, 735, 735, 738, 740, 747, 750, 776, 806, 806, 806, 806, 813, 813, 848, 848, 848, 853, 853, 896, 943, 943, 966, 986, 989, 989, 993, 997, 1015, 1015, 1015, 1015, 1015, 1015, 1015, 1027, 1027, 1029, 1029, 1029, 1030, 1033, 1035, 1035, 1035, 1052, 1052, 1052, 1052, 1090, 1101, 1101, 1101, 1101, 1101, 1101, 1101, 1126, 1126, 1126, 1127, 1145, 1145]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[0.086, 0.086, 0.098, 0.096, 0.094, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.09, 0.09, 0.09, 0.1, 0.1, 0.1, 0.1, 0.1]</t>
+          <t>[0.086, 0.086, 0.098, 0.096, 0.094, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.09, 0.09, 0.09, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.103, 0.103, 0.103, 0.103, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.113, 0.113, 0.113, 0.115, 0.115, 0.115, 0.115, 0.111, 0.111, 0.111, 0.109, 0.109, 0.109, 0.115, 0.115, 0.115, 0.115, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.111, 0.105, 0.105, 0.105, 0.105, 0.102, 0.102, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.126, 0.126, 0.126, 0.126, 0.126, 0.126, 0.126, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.126, 0.126]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0, 16.097865295410166, 38.60830733776093, 61.87577478885649, 83.7264050245285, 106.24110400676727, 113.78760421276093, 138.82562291622162, 151.63454074859618, 151.63454074859618, 160.57704050540923, 182.825630068779, 197.69045696258544, 219.51761140823365, 241.83314867019655, 267.2845475196839, 276.6690353274346, 303.59656013250355, 315.9621186614037, 315.9621186614037, 325.26231840848925]</t>
+          <t>[0, 16.097865295410166, 38.60830733776093, 61.87577478885649, 83.7264050245285, 106.24110400676727, 113.78760421276093, 138.82562291622162, 151.63454074859618, 151.63454074859618, 160.57704050540923, 182.825630068779, 197.69045696258544, 219.51761140823365, 241.83314867019655, 267.2845475196839, 276.6690353274346, 303.59656013250355, 315.9621186614037, 315.9621186614037, 325.26231840848925, 341.6749031186104, 364.0942864060402, 386.598593890667, 408.8596516013146, 425.50935934782035, 432.8658711194993, 445.8320693969727, 466.3834649562836, 474.41188330650334, 479.90337737798694, 504.76876419782644, 518.3052086412907, 531.8957420408726, 548.7454952299595, 574.6863440573215, 584.4343415796757, 610.595579200983, 624.801557713747, 645.4291497051715, 659.8410017073154, 688.0824453413486, 705.2149065077305, 728.5272542536259, 740.2577149927616, 762.4628855288029, 789.5447821676731, 811.0099832594395, 833.4865846455098, 857.5879833042621, 864.4794313848018, 883.2089762866497, 903.8113812625407, 924.4910115659236, 939.3404891192912, 962.4905800044536, 995.156575936079, 1019.1847219645977, 1044.3929084718227, 1068.967306703329, 1075.858764976263, 1099.9523440301418, 1117.0932084739209, 1138.762059992552, 1161.5425042808058, 1186.9939031302931, 1196.720503395796, 1221.3034187018873, 1234.2965358436109, 1234.2965358436109, 1243.0519914925098, 1264.778136140108, 1287.6549610912798, 1306.8438269436358, 1330.5222463667392, 1353.1508631765842, 1371.4517641127109, 1389.4644646704196, 1404.7638863623142, 1405.1835863649844, 1425.3446514189243, 1446.7646264135838, 1461.6294520199299, 1486.682997304201, 1509.463441592455, 1534.4253904640675, 1543.4811907112598, 1570.408871203661, 1583.6954383432865, 1583.6954383432865, 1593.5321880757808, 1617.4323915421962, 1632.9036948919295, 1644.9180322647094, 1661.6039410352705, 1687.5447898626326, 1696.9781384825706, 1722.654678761959, 1736.571455347538, 1737.9696076512337, 1752.3324326634406, 1770.482197010517, 1792.128098833561, 1814.892968571186, 1838.4610882878303, 1855.048903286457, 1862.2950120568275, 1877.732782280445, 1896.276650607586, 1925.5567645907402, 1930.798429751396, 1953.726536488533, 1966.7133737325667, 1973.6909948408602, 1990.1237473070619, 2015.5751461565492, 2024.1278463900087, 2055.1337576448914, 2071.7815620481965, 2087.918250674009, 2098.6463561236856]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0, 0.36, 0.86, 1.36, 1.93, 2.48, 3.06, 3.49, 3.98, 4.68, 5.11, 5.64, 6.21, 6.7, 7.61, 8.55, 9.45, 10.34, 11.35, 12.34, 13.03]</t>
+          <t>[0, 0.36, 0.86, 1.36, 1.93, 2.48, 3.06, 3.49, 3.98, 4.68, 5.11, 5.64, 6.21, 6.7, 7.61, 8.55, 9.45, 10.34, 11.35, 12.34, 13.03, 13.94, 14.77, 15.79, 16.76, 17.7, 18.69, 19.48, 20.56, 21.56, 22.51, 23.61, 24.59, 25.5, 26.54, 27.54, 28.55, 29.67, 30.72, 31.8, 32.91, 34.0, 34.97, 35.94, 37.47, 38.16, 38.88, 39.7, 40.5, 41.87, 43.24, 44.53, 45.53, 46.6, 47.57, 48.83, 49.96, 50.94, 52.12, 53.39, 54.78, 56.15, 57.42, 58.47, 59.53, 60.94, 62.74, 64.05, 65.44, 66.44, 67.62, 68.64, 69.83, 71.0, 72.2, 73.57, 74.52, 75.82, 76.75, 77.96, 78.79, 79.77, 81.1, 82.6, 84.22, 86.14, 88.23, 89.87, 91.36, 92.87, 94.68, 96.46, 98.08, 99.48, 100.99, 102.68, 104.39, 106.06, 107.44, 108.64, 109.99, 111.47, 112.67, 114.14, 115.37, 117.0, 119.3, 121.16, 122.69, 124.24, 126.01, 127.62, 129.41, 131.02, 132.64, 134.43, 136.38, 137.89, 139.69, 141.58, 142.68]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, 0, 0, 0, -10, -10, -20, 0, -20, -20, 0, -20, 0, -20, 0, -20, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, 0, -20, -20, -10, -20, 0, -10, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, 0, 0, 0, -10, -10, 0, -10, -10, 0, 0, -10, 0, -10, 0, 0, -10, 0, 0, 0, -20]</t>
+          <t>[0, -10, 0, 0, 0, -20, 0, -20, 0, -10, -10, 0, -10, -20, 0, -20, 0, -20, -20, 0, -20, 0, -20, 0, -20, 0, -10, 0, -10, 0, -10, -10, -20, -20, -20, -10, -20, 0, 0, 0, -20, -20, -10, 0, 0, -10, 0, 0, 0, 0, -20, -20, 0, -20, 0, -10, 0, 0, -20, 0, -20, -10, 0, 0, -10, -10, 0, -10, -10, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -609,37 +609,37 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[81, 85, 100, 113, 143, 192, 213, 213, 213, 213, 237, 241, 244, 250, 275, 324, 347, 347, 347, 347, 393]</t>
+          <t>[81, 85, 100, 113, 143, 192, 213, 213, 213, 213, 237, 241, 244, 250, 275, 324, 347, 347, 347, 347, 393, 436, 438, 444, 485, 510, 516, 516, 516, 516, 530, 542, 545, 549, 566, 573, 585, 585, 585, 585, 596, 596, 600, 638, 638, 638, 638, 638, 688, 688, 688, 699, 705, 707, 737, 738, 759, 759, 759, 759, 759, 769, 780, 791, 795, 817, 825, 825, 825, 825, 825, 844, 848, 851, 853, 857, 862, 862, 862, 862, 862, 867, 867, 892, 892, 913, 943, 996, 998, 1054, 1054, 1054, 1054, 1054, 1054, 1054, 1061, 1061, 1061, 1061, 1061, 1063, 1064, 1064, 1064, 1103, 1103, 1104, 1104, 1104, 1123, 1131, 1134, 1150, 1160, 1160, 1177, 1177, 1177, 1177, 1177]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.342, 0.352, 0.374, 0.37, 0.382, 0.382, 0.397, 0.397, 0.397, 0.397, 0.393, 0.398, 0.4, 0.4, 0.404, 0.404, 0.402, 0.402, 0.402, 0.402, 0.4]</t>
+          <t>[0.342, 0.352, 0.374, 0.37, 0.382, 0.382, 0.397, 0.397, 0.397, 0.397, 0.393, 0.398, 0.4, 0.4, 0.404, 0.404, 0.402, 0.402, 0.402, 0.402, 0.4, 0.417, 0.417, 0.417, 0.421, 0.423, 0.421, 0.421, 0.421, 0.421, 0.421, 0.43, 0.43, 0.43, 0.434, 0.434, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.436, 0.444, 0.444, 0.444, 0.444, 0.444, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.449, 0.449, 0.449, 0.449, 0.449, 0.449, 0.449, 0.451, 0.449, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.445, 0.445, 0.445, 0.447, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.444, 0.445, 0.449, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.459, 0.459, 0.459, 0.464, 0.464, 0.468, 0.468, 0.468, 0.47, 0.468, 0.468, 0.468, 0.476, 0.476, 0.476, 0.476, 0.476, 0.476, 0.476]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0, 14.544830417633067, 38.229873919487005, 60.96841380596162, 81.42432296276094, 105.40737187862398, 113.79237210750581, 134.84594135284428, 148.3509757995606, 148.3509757995606, 157.65117554664616, 178.0573615074158, 194.24799129962923, 219.1670227766037, 241.4825600385666, 266.9339588880539, 275.9897591352463, 302.9174396276474, 315.51484246253966, 315.51484246253966, 322.91660974025723]</t>
+          <t>[0, 14.544830417633067, 38.229873919487005, 60.96841380596162, 81.42432296276094, 105.40737187862398, 113.79237210750581, 134.84594135284428, 148.3509757995606, 148.3509757995606, 157.65117554664616, 178.0573615074158, 194.24799129962923, 219.1670227766037, 241.4825600385666, 266.9339588880539, 275.9897591352463, 302.9174396276474, 315.51484246253966, 315.51484246253966, 322.91660974025723, 336.58976995944977, 352.84676575660706, 375.6698457241058, 396.590661907196, 421.0631608009338, 429.1321083784103, 456.05965898036953, 470.33910803794856, 470.33910803794856, 480.625443470478, 498.82815853357306, 514.4006196856498, 538.591753566265, 561.3721978545187, 586.823596704006, 595.5439969420431, 622.4716774344442, 635.4650004982947, 635.4650004982947, 643.8200047850607, 669.6037485957145, 671.9832570910453, 694.9651938319205, 707.9594090580939, 731.1094996094703, 762.8514956593513, 785.198996412754, 810.7085737347602, 835.0657711148261, 841.982572710514, 863.7270668625831, 881.0888984084129, 903.6812110781669, 925.531841313839, 950.0043402075768, 959.0601404547691, 987.8774827361107, 1001.9727324843407, 1001.9727324843407, 1011.809482216835, 1028.2562283277512, 1046.9770457744598, 1070.547294664383, 1093.3277389526368, 1119.2685877799988, 1127.988988018036, 1156.8063302993776, 1167.9950829982758, 1167.9950829982758, 1184.2720499515535, 1200.6263053655625, 1215.3051104545593, 1237.8314777374267, 1259.6821079730987, 1284.6440568447113, 1295.2929042577744, 1321.7481693029404, 1335.1782771348953, 1335.1782771348953, 1344.6573268771172, 1368.609326684475, 1384.539324963093, 1391.6235386490823, 1406.403608942032, 1432.344457769394, 1441.9937555909157, 1468.1549932122232, 1482.8317199349406, 1508.9305629372598, 1519.938471889496, 1542.8665977954865, 1557.5157050549985, 1571.1496268987657, 1587.5823793649674, 1613.0337782144547, 1621.9218784570694, 1647.5986487150192, 1663.4075754642486, 1668.248233962059, 1677.896377658844, 1693.7895969629287, 1710.756401914358, 1733.043935149908, 1757.5164340436459, 1777.9098646104335, 1792.2909696042536, 1806.2059710919855, 1831.1528196036813, 1852.1860963761803, 1867.4556170642372, 1887.8500645816323, 1904.328027528524, 1927.6251449525353, 1949.0108681619163, 1974.4622670114036, 1982.3441672265526, 2008.8313424527641, 2022.2783242881294, 2022.2783242881294, 2032.1150740206238]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0, 0.03, 0.08, 0.11, 0.16, 0.23, 0.28, 0.34, 0.39, 0.44, 0.5, 0.56, 0.63, 0.68, 0.75, 0.81, 0.9, 0.95, 1.01, 1.08, 1.14]</t>
+          <t>[0, 0.03, 0.08, 0.11, 0.16, 0.23, 0.28, 0.34, 0.39, 0.44, 0.5, 0.56, 0.63, 0.68, 0.75, 0.81, 0.9, 0.95, 1.01, 1.08, 1.14, 1.2, 1.27, 1.34, 1.42, 1.51, 1.58, 1.65, 1.71, 1.81, 1.86, 1.95, 2.01, 2.05, 2.1, 2.15, 2.2, 2.27, 2.31, 2.38, 2.44, 2.48, 2.55, 2.6, 2.66, 2.73, 2.79, 2.87, 2.97, 3.04, 3.14, 3.21, 3.28, 3.34, 3.41, 3.49, 3.57, 3.68, 3.76, 3.82, 3.91, 3.97, 4.05, 4.1, 4.21, 4.3, 4.39, 4.47, 4.53, 4.62, 4.68, 4.77, 4.86, 4.93, 5.0, 5.08, 5.17, 5.25, 5.33, 5.45, 5.54, 5.68, 5.78, 5.87, 5.93, 6.04, 6.09, 6.19, 6.28, 6.37, 6.47, 6.56, 6.64, 6.72, 6.82, 6.89, 6.99, 7.05, 7.1, 7.2, 7.26, 7.38, 7.46, 7.54, 7.64, 7.76, 7.84, 7.94, 8.02, 8.1, 8.2, 8.28, 8.37, 8.47, 8.53, 8.61, 8.73, 8.87, 8.97, 9.09, 9.18]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, 0, 0, 0, -10, -10, -20, 0, -20, -20, 0, 0, 0, -20, 0, -20, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, 0, -20, -20, -20, -10, 0, -20, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, -10, -10, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, -10, 0, 0, 0, -20]</t>
+          <t>[0, 0, -20, 0, -20, -20, -20, 0, 0, -10, 0, 0, -10, -10, -10, -10, 0, -20, -20, 0, 0, 0, -10, -10, -20, -20, -10, 0, -10, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, 0, -20, -20, -20, -20, 0, -10, -20, -20, 0, 0, -20, -10, 0, -20, 0, 0, 0, 0, -10, 0, -10, -10, 0, 0, -10, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -678,37 +678,37 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[81, 84, 94, 102, 142, 189, 190, 190, 190, 190, 210, 210, 210, 210, 210, 215, 218, 259, 306, 306, 329]</t>
+          <t>[81, 84, 94, 102, 142, 189, 190, 190, 190, 190, 210, 210, 210, 210, 210, 215, 218, 259, 306, 306, 329, 329, 333, 352, 352, 352, 352, 352, 366, 366, 366, 373, 382, 385, 429, 479, 505, 505, 505, 505, 526, 526, 557, 557, 557, 557, 557, 582, 585, 585, 608, 608, 608, 608, 608, 608, 608, 630, 633, 633, 655, 664, 684, 684, 684, 717, 728, 731, 738, 738, 752, 760, 765, 776, 779, 794, 822, 822, 822, 822, 822, 835, 842, 842, 842, 877, 877, 878, 878, 878, 906, 906, 906, 906, 906, 911, 911, 919, 921, 921, 924, 924, 924, 924, 924, 924, 924, 936, 941, 941, 948, 962, 964, 967, 986, 992, 993, 993, 993, 993, 1020]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.086, 0.086, 0.092, 0.092, 0.094, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.109, 0.107, 0.107, 0.105]</t>
+          <t>[0.086, 0.086, 0.092, 0.092, 0.094, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.109, 0.107, 0.107, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.105, 0.103, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.102, 0.102, 0.1, 0.1, 0.1, 0.088, 0.088, 0.088, 0.086, 0.086, 0.085, 0.086, 0.086, 0.086, 0.086, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0, 15.530802631378185, 37.09476878643035, 57.24029161930084, 77.69620077610017, 100.7003497362137, 107.74374992847444, 132.30935318470003, 145.43205032348635, 145.43205032348635, 154.19570008516314, 175.495841896534, 192.57426539659502, 211.8608514428139, 235.58418039083483, 258.6813417553902, 275.4413020730019, 292.6162026047707, 307.3982270836831, 307.8179270863534, 328.02542659044275]</t>
+          <t>[0, 15.530802631378185, 37.09476878643035, 57.24029161930084, 77.69620077610017, 100.7003497362137, 107.74374992847444, 132.30935318470003, 145.43205032348635, 145.43205032348635, 154.19570008516314, 175.495841896534, 192.57426539659502, 211.8608514428139, 235.58418039083483, 258.6813417553902, 275.4413020730019, 292.6162026047707, 307.3982270836831, 307.8179270863534, 328.02542659044275, 333.77383996248255, 345.32567032575616, 366.01958228349696, 377.4649223923684, 400.14256793260586, 425.88916460275664, 447.7968892693521, 468.67260071039215, 483.9889479517938, 490.69578653574007, 512.1112002491952, 536.8406274676324, 557.8598783850671, 579.7105086207391, 605.1619074702264, 613.7078952550889, 641.5804066419603, 655.3990803956987, 655.3990803956987, 665.0569801330568, 685.9311191082002, 707.7229402542115, 729.8588322877885, 753.9268400669099, 776.9288054943086, 796.0430798053742, 814.4746803760529, 830.169552063942, 830.5892520666123, 852.8245030164719, 875.402653336525, 892.8226453065872, 915.6333984375, 940.9323959827423, 965.670358800888, 983.5645730495453, 1002.415073633194, 1018.109945321083, 1018.5296453237534, 1039.9595469236374, 1048.001937186718, 1073.4602835059165, 1091.226575243473, 1116.6779740929603, 1129.8062728762627, 1141.3574543058874, 1154.200163704157, 1172.7101219236852, 1193.7433979570867, 1202.9223736941815, 1223.5761274039746, 1246.186118453741, 1268.4146609723568, 1290.2652912080289, 1314.7377901017667, 1324.1265902459622, 1350.109347766638, 1363.4435758292677, 1363.4435758292677, 1372.564925581217, 1380.7881621778013, 1393.8958366334439, 1414.2605222165585, 1440.6908210217953, 1455.9143591821194, 1477.865371721983, 1489.4082822859286, 1511.2359145224093, 1532.5166414558885, 1541.4740246117112, 1563.626172095537, 1586.443196517229, 1608.2957175314425, 1633.6835506021976, 1658.183164602518, 1674.5606462538242, 1692.992246824503, 1702.7380624353884, 1703.1577624380586, 1724.1090838491914, 1745.4092256605622, 1766.6016256868836, 1789.9541789829727, 1815.0119692146775, 1838.447933989763, 1857.9688949882982, 1877.2382955849168, 1893.4760685265062, 1893.8957685291764, 1915.3181685268876, 1933.499191766977, 1948.3640186607834, 1971.502316409349, 1993.817853671312, 2019.2692525207992, 2026.9834527313706, 2059.1075433075425, 2073.74882851243, 2073.74882851243, 2082.4316443264483]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0, 0.31, 0.67, 1.23, 2.04, 2.73, 3.32, 3.81, 4.39, 4.78, 5.2, 5.58, 6.0, 6.52, 7.09, 7.61, 8.33, 9.29, 10.2, 11.25, 12.3]</t>
+          <t>[0, 0.31, 0.67, 1.23, 2.04, 2.73, 3.32, 3.81, 4.39, 4.78, 5.2, 5.58, 6.0, 6.52, 7.09, 7.61, 8.33, 9.29, 10.2, 11.25, 12.3, 13.37, 14.19, 14.95, 16.07, 17.14, 18.41, 19.41, 20.4, 21.22, 22.23, 23.0, 24.09, 24.94, 25.77, 26.83, 28.06, 29.02, 30.15, 31.22, 32.35, 33.32, 34.62, 35.74, 36.78, 37.52, 38.2, 38.81, 39.61, 40.8, 42.07, 43.09, 44.02, 45.23, 46.48, 47.83, 48.94, 50.19, 51.35, 52.62, 53.76, 55.2, 56.63, 58.09, 59.75, 60.92, 62.54, 63.82, 65.08, 66.46, 67.81, 69.15, 70.19, 71.18, 72.53, 73.43, 74.72, 76.14, 76.99, 77.87, 78.56, 79.48, 80.49, 82.05, 83.52, 85.07, 86.67, 88.15, 89.77, 91.23, 92.6, 93.82, 95.3, 96.87, 98.37, 99.73, 101.16, 102.64, 104.09, 105.47, 107.01, 108.05, 110.05, 111.39, 112.79, 113.75, 115.24, 116.95, 118.23, 119.68, 121.27, 122.98, 124.6, 126.26, 128.04, 129.7, 131.14, 132.16, 133.67, 135.64, 137.07]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[-10, 0, 0, -10, -20, 0, 0, -10, -20, 0, -10, 0, -20, -20, 0, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, 0, -20, -10, -10, 0, -10, -20, 0, 0, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, -20, 0, -20, -10, 0, -20, 0, 0, -10, 0, 0, 0, 0, -20, -20, 0, -20, -20, -10, 0, -20, 0, 0, -10, -10, -20, -10, -10, 0, 0, -20, -20, -10, -10, -20, -10, 0]</t>
+          <t>[-20, -20, -20, 0, 0, 0, 0, -20, 0, -20, 0, 0, 0, 0, 0, -20, 0, 0, 0, 0, -10, 0, 0, -20, -10, 0, -10, -20, 0, -10, 0, 0, -10, 0, 0, 0, 0, -20, -10, 0, -20, -20, -20, -10, -20, 0, -20, -20, 0, -20, -10, 0, -10, -20, -10, 0, 0, 0, 0, 0, -10, 0, 0, -20, -10, -10, 0, -10, 0, -20, 0, -10, -10, -10, 0, -10, 0, -10, -10, -20, 0]</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -747,37 +747,37 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[81, 87, 98, 104, 144, 192, 214, 214, 214, 214, 223, 223, 227, 250, 252, 252, 252, 252, 252, 252, 252]</t>
+          <t>[81, 87, 98, 104, 144, 192, 214, 214, 214, 214, 223, 223, 227, 250, 252, 252, 252, 252, 252, 252, 252, 258, 264, 266, 276, 326, 343, 343, 343, 343, 365, 373, 373, 383, 383, 417, 454, 506, 507, 521, 524, 527, 578, 578, 578, 618, 618, 619, 619, 619, 639, 641, 641, 641, 641, 643, 643, 646, 676, 676, 694, 699, 717, 717, 717, 750, 760, 764, 764, 764, 764, 771, 771, 786, 786, 811, 811, 812, 848, 855, 855, 855, 857, 857, 857, 857, 857, 857, 868, 868, 868, 868, 868, 868, 868, 875, 875, 908, 914, 914, 915, 915, 915, 933, 933, 964, 964, 964, 964, 964, 964, 972, 1010, 1019, 1038, 1055, 1055, 1055, 1055, 1055, 1096]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.342, 0.365, 0.389, 0.385, 0.383, 0.383, 0.393, 0.393, 0.393, 0.393, 0.397, 0.397, 0.404, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41]</t>
+          <t>[0.342, 0.365, 0.389, 0.385, 0.383, 0.383, 0.393, 0.393, 0.393, 0.393, 0.397, 0.397, 0.404, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.414, 0.417, 0.417, 0.421, 0.419, 0.421, 0.421, 0.421, 0.421, 0.423, 0.423, 0.423, 0.425, 0.425, 0.423, 0.421, 0.421, 0.425, 0.429, 0.429, 0.427, 0.427, 0.427, 0.427, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.436, 0.436, 0.44, 0.447, 0.447, 0.457, 0.459, 0.481, 0.481, 0.481, 0.487, 0.489, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.492, 0.492, 0.485, 0.485, 0.485, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.502, 0.502, 0.502, 0.502, 0.502, 0.502, 0.502, 0.502, 0.508, 0.508, 0.508, 0.508, 0.508, 0.508, 0.519, 0.509, 0.509, 0.508, 0.508, 0.508, 0.508, 0.508, 0.508, 0.509]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0, 16.67876248359681, 38.05118577480316, 60.16182434558867, 80.61773350238799, 104.11133244037627, 112.49633266925811, 138.0067668199539, 151.75726034641264, 151.75726034641264, 173.77884027361867, 201.77658314108845, 213.1931896626949, 237.1615375936031, 250.92134079337117, 273.1265073239803, 299.4534540593624, 320.50671071410176, 340.2187743127346, 361.99377297759054, 368.4016011893749]</t>
+          <t>[0, 16.67876248359681, 38.05118577480316, 60.16182434558867, 80.61773350238799, 104.11133244037627, 112.49633266925811, 138.0067668199539, 151.75726034641264, 151.75726034641264, 173.77884027361867, 201.77658314108845, 213.1931896626949, 237.1615375936031, 250.92134079337117, 273.1265073239803, 299.4534540593624, 320.50671071410176, 340.2187743127346, 361.99377297759054, 368.4016011893749, 389.2156914412975, 407.7155417859554, 428.7532924115657, 450.13901562094685, 474.61151451468464, 482.9965147435665, 509.9241952359676, 523.6543435275554, 523.6543435275554, 533.1333932697772, 553.1178356945514, 565.0579701125622, 578.1125098884106, 594.7984186589719, 620.7392674863339, 630.1304677426816, 655.3225449979307, 669.8177254378796, 694.0096665799618, 725.4660280764103, 741.4413865268231, 766.4282831370831, 785.702042144537, 810.6639910161496, 828.0889454782009, 850.2107903242111, 863.8050360798835, 885.4974887967109, 906.53076556921, 915.1152194619178, 931.5780190348625, 957.9792682051658, 979.6008283495902, 1006.031127154827, 1027.7107909083365, 1039.6278876245021, 1054.2410572111605, 1074.6776830494402, 1095.4635093748568, 1105.7190733015536, 1121.9179038941859, 1141.6050114512443, 1161.3707981705666, 1186.332747042179, 1200.734891474247, 1213.0448680222034, 1224.5770055234432, 1246.276339739561, 1267.0621660649776, 1275.1779445827008, 1297.6201649844647, 1311.272395581007, 1323.9526855409144, 1339.5025817096232, 1363.975080603361, 1373.7016808688638, 1398.8939837634562, 1421.7369865834712, 1447.8358295857906, 1461.9382488310337, 1470.1216062366962, 1471.5493113338946, 1492.4865577518938, 1503.751848131418, 1526.90194311738, 1558.1819392263887, 1580.501608330011, 1604.3451701700685, 1636.5091411173341, 1643.521491795778, 1660.5731296598908, 1681.4231411278245, 1703.1259258091447, 1725.9210986912249, 1744.0805311501024, 1752.422813671827, 1769.1850875079629, 1791.533727830648, 1816.0912427842613, 1821.4566142380233, 1845.4086922466752, 1858.5552846729752, 1870.4968313515183, 1886.6147338211533, 1911.5766826927659, 1920.8904313027856, 1947.051668924093, 1964.3538425862787, 1970.41250256896, 1980.2426720201968, 2000.2373452246188, 2021.5172655642032, 2045.5955810129642, 2066.9813042223454, 2093.4116030275823, 2102.6074029505253, 2130.9523297846317, 2144.511811691523, 2144.511811691523, 2152.9570227682593]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0, 0.04, 0.07, 0.1, 0.13, 0.18, 0.23, 0.29, 0.35, 0.42, 0.46, 0.51, 0.6, 0.69, 0.75, 0.81, 0.86, 0.91, 0.97, 1.06, 1.13]</t>
+          <t>[0, 0.04, 0.07, 0.1, 0.13, 0.18, 0.23, 0.29, 0.35, 0.42, 0.46, 0.51, 0.6, 0.69, 0.75, 0.81, 0.86, 0.91, 0.97, 1.06, 1.13, 1.17, 1.22, 1.27, 1.33, 1.44, 1.49, 1.54, 1.64, 1.68, 1.78, 1.84, 1.93, 1.98, 2.04, 2.08, 2.14, 2.22, 2.29, 2.34, 2.43, 2.51, 2.59, 2.66, 2.73, 2.81, 2.86, 2.94, 2.99, 3.05, 3.12, 3.2, 3.28, 3.34, 3.42, 3.48, 3.57, 3.64, 3.73, 3.81, 3.89, 3.98, 4.12, 4.2, 4.3, 4.38, 4.52, 4.61, 4.68, 4.78, 4.84, 4.9, 4.97, 5.06, 5.2, 5.28, 5.36, 5.5, 5.57, 5.66, 5.75, 5.84, 5.93, 6.05, 6.15, 6.28, 6.38, 6.5, 6.6, 6.69, 6.76, 6.84, 6.95, 7.04, 7.12, 7.2, 7.3, 7.37, 7.45, 7.55, 7.61, 7.67, 7.78, 7.88, 7.99, 8.07, 8.16, 8.26, 8.35, 8.43, 8.57, 8.69, 8.79, 8.88, 9.02, 9.1, 9.2, 9.3, 9.41, 9.52, 9.68]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[-10, 0, -10, -20, -10, 0, -20, 0, 0, -10, -20, 0, 0, 0, -10, 0, 0, 0, 0, 0, -20, 0, -20, 0, -20, 0, 0, -20, -20, 0, 0, -20, 0, 0, 0, -10, -10, -20, 0, 0, 0, -10, -10, -20, 0, -20, 0, -20, 0, 0, -10, -10, 0, 0, -20, 0, -10, 0, 0, 0, 0, -10, -20, 0, -20, -10, -10, -10, -10, -20, 0, 0, 0, -10, -10, 0, -20, -20, -20, 0, -10]</t>
+          <t>[-20, 0, -20, 0, -10, 0, 0, 0, 0, -20, 0, -10, 0, -20, -10, 0, 0, -10, 0, 0, 0, 0, -20, 0, 0, -20, -10, 0, 0, 0, -10, -20, -20, 0, -20, 0, -10, 0, -10, 0, 0, -10, -20, -20, 0, 0, -10, -10, -10, -20, -20, -20, -20, 0, 0, -10, 0, -20, 0, 0, 0, 0, -10, 0, 0, 0, 0, -20, -10, 0, -20, -10, -10, 0, -10, -10, 0, -10, -20, -20, 0]</t>
         </is>
       </c>
     </row>
@@ -785,115 +785,415 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>classWt</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WVS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[100, 110, 117, 127, 167, 214, 233, 233, 233, 233, 272, 272, 272, 272, 306, 324, 324, 356, 381, 381, 381, 381, 418, 433, 433, 433, 433, 433, 433, 433, 433, 443, 445, 445, 447, 493, 516, 516, 516, 516, 528, 555, 555, 555, 555, 555, 555, 598, 655, 655, 680, 680, 680, 680, 680, 710, 710, 723, 751, 751, 751, 751, 754, 780, 780, 780, 780, 780, 826, 843, 843, 881, 881, 887, 887, 931, 993, 1047, 1089, 1098, 1104, 1115, 1161, 1163, 1163, 1200, 1200, 1200, 1204, 1204, 1237, 1237, 1237, 1238, 1238, 1241, 1241, 1259, 1307, 1307, 1307, 1308, 1308, 1308, 1334, 1353, 1357, 1371, 1404, 1404, 1405, 1444, 1444, 1450, 1453, 1497, 1553, 1601, 1602, 1616, 1625, 1647, 1647, 1666, 1669, 1714, 1767, 1820, 1821, 1831, 1840, 1862, 1862, 1862, 1862, 1862, 1875, 1919, 1978, 1978, 2000, 2004, 2008, 2008, 2023, 2069, 2093, 2093, 2093, 2093, 2096, 2111, 2154, 2156, 2156, 2193, 2193, 2193, 2204, 2204, 2222, 2222, 2222, 2222, 2222, 2224, 2224, 2266, 2294, 2294, 2294, 2297, 2301, 2301, 2340, 2383, 2406, 2406, 2406, 2406, 2428, 2429, 2429, 2429, 2447, 2448, 2448, 2496, 2524, 2524, 2524, 2524, 2528, 2558, 2563, 2602, 2602, 2602, 2604, 2604, 2604, 2604, 2641, 2650, 2650, 2650, 2650]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[0.012, 0.011, 0.011, 0.008, 0.008, 0.009, 0.009, 0.009, 0.009, 0.009, 0.038, 0.038, 0.038, 0.038, 0.043, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.037, 0.037, 0.037, 0.037, 0.038, 0.038, 0.038, 0.038, 0.038, 0.038, 0.043, 0.043, 0.043, 0.043, 0.043, 0.043, 0.038, 0.036, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.033, 0.033, 0.033, 0.033, 0.033, 0.033, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.088, 0.087, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.09, 0.09, 0.09, 0.09, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[0, 20.94838137626647, 37.86827862262725, 68.84434530735011, 88.3769857645034, 111.38113472461693, 120.26923496723168, 151.44865448474877, 165.68899009227746, 165.68899009227746, 173.1965965151786, 190.07912498712534, 210.56480461359018, 234.53328498601908, 258.24021219015117, 278.0261492609977, 285.6531633138656, 301.53262031078333, 319.3243479490279, 323.57468707561486, 328.8373303890228, 330.0661803007125, 347.6745431661605, 368.45238251686084, 380.44088864326466, 403.5909836769103, 430.25708055496204, 452.4888862609862, 470.9557453393935, 504.06571543216694, 511.44077390432346, 533.002044570446, 550.1760919690131, 575.7720352292059, 598.5524795174597, 621.0671784996985, 629.116778719425, 657.9341210007666, 671.329938828945, 671.329938828945, 680.2326883912085, 702.1969492793082, 710.4299257755279, 734.791520667076, 757.1053204298018, 780.1072858572005, 798.0015001058578, 816.0142006635665, 831.1916751384734, 831.6113751411438, 852.9892364501952, 869.969591641426, 890.053591275215, 915.137187719345, 937.8175618648528, 959.2839057683943, 966.3952809095381, 988.5223430156706, 1007.8021259546277, 1016.7750641107557, 1022.2834043622015, 1028.7689185798167, 1041.4303469359875, 1060.4999218404294, 1074.1493154466152, 1097.2933992803096, 1129.4973952710627, 1150.3574513375759, 1175.5532232463358, 1191.103638356924, 1198.097789210081, 1222.0049897849558, 1236.1576389968393, 1249.646829551458, 1266.5339320123192, 1288.0697310388084, 1298.467131322622, 1324.6283689439294, 1348.041295355558, 1352.7018030345437, 1364.4532529532905, 1377.2860516965386, 1400.2378447949884, 1417.166729325056, 1443.107578152418, 1459.1133173406122, 1473.3949964165686, 1485.8883960962294, 1510.8325513362884, 1532.8556291818618, 1543.5104196667671, 1566.7556317448616, 1587.2413113713264, 1610.8146250367165, 1633.9078453183174, 1648.7331379294396, 1655.9760522007944, 1669.595164191723, 1692.7338927865028, 1715.8746280312537, 1721.5854018330572, 1741.4888986229894, 1758.7428303360937, 1780.4298200964924, 1803.2805759787557, 1821.8414904952047, 1829.384497606754, 1842.8361958861346, 1863.4321860909458, 1890.8232604622838, 1896.1736346364019, 1920.590983355045, 1934.5915146231648, 1946.3211920857427, 1961.836307263374, 1983.3721062898633, 1992.7215057611463, 2019.2736495733259, 2034.8020498037336, 2050.1321751117703, 2061.714764344692, 2080.545077061653, 2090.0839441776275, 2101.0756527662274, 2114.9996343016624, 2137.0248833060264, 2146.018483066559, 2171.695253324509, 2187.2984606266023, 2202.6357926368714, 2213.6514168977737, 2234.2649420022963, 2245.9708020687103, 2267.039430642128, 2289.7003558397296, 2312.2920226335527, 2329.217069888115, 2347.6486704587937, 2363.2067907571795, 2363.6264907598497, 2384.6455909490587, 2402.5189052820206, 2419.1514694213865, 2436.992452216148, 2457.4483613729476, 2479.9630603551864, 2488.851160597801, 2516.7236719846724, 2530.6790741205214, 2530.6790741205214, 2539.6215738773344, 2552.988441908359, 2577.5038859486576, 2595.8768394112585, 2621.328238260746, 2635.0502817273136, 2653.438048869371, 2669.0467810213563, 2691.252425819635, 2712.5331527531143, 2720.998829132318, 2739.2113985359665, 2758.892844229936, 2784.0227156460282, 2806.75547016263, 2820.9776100456716, 2828.5042167961597, 2841.2134296953677, 2859.2865359842776, 2882.290008884668, 2887.642730718851, 2901.19847176671, 2917.3891015589234, 2939.687564474344, 2960.6083806574343, 2981.654729706049, 2990.375129944086, 3017.302810436487, 3030.095259910822, 3030.095259910822, 3039.932009643316, 3057.5088177144526, 3077.191137355566, 3100.3453096091744, 3123.3785753905768, 3139.356833809614, 3147.5357822358606, 3166.220611685514, 3185.1811392962927, 3208.3218745410436, 3213.5161012828344, 3221.844010227918, 3234.5035788714877, 3257.757969802617, 3271.052690857648, 3293.7303117930883, 3323.1623081386083, 3345.6107776343815, 3365.0028963029376, 3380.7382735013953, 3387.5088189840308, 3395.10243051052, 3412.710793375968, 3432.6903927087774, 3443.3430585622777, 3465.5482423067083, 3493.0991887807836]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[0, 7.95, 15.84, 21.21, 29.81, 37.63, 45.43, 54.63, 63.52, 71.21, 78.72, 87.67, 96.79, 106.28, 115.54, 124.09, 134.24, 144.33, 154.95, 164.15, 175.1, 185.88, 195.86, 204.91, 215.02, 225.37, 235.32, 245.07, 255.22, 266.26, 276.25, 285.41, 295.41, 306.57, 316.74, 325.67, 335.52, 346.01, 355.32, 364.14, 374.97, 385.83, 395.72, 405.09, 414.99, 425.24, 434.51, 443.64, 452.92, 463.83, 473.99, 484.51, 495.62, 507.69, 519.26, 530.15, 541.63, 554.53, 566.85, 578.09, 590.56, 603.23, 615.03, 627.65, 641.53, 653.84, 666.39, 679.3, 692.18, 703.85, 716.77, 730.84, 744.07, 756.77, 771.04, 783.18, 797.52, 811.33, 825.76, 839.68, 853.89, 867.32, 881.76, 897.2, 910.85, 924.26, 940.78, 954.92, 970.86, 984.94, 999.15, 1013.36, 1027.88, 1042.13, 1057.36, 1072.97, 1085.74, 1101.76, 1116.26, 1130.1, 1144.98, 1160.48, 1176.3, 1191.79, 1206.03, 1220.52, 1236.1, 1250.07, 1265.29, 1279.47, 1295.93, 1311.16, 1326.1, 1340.36, 1355.7, 1370.36, 1385.59, 1401.53, 1417.01, 1431.89, 1447.8, 1461.17, 1476.9, 1491.42, 1507.08, 1522.5, 1536.52, 1551.37, 1566.78, 1581.72, 1594.85, 1609.85, 1623.14, 1637.47, 1652.26, 1664.95, 1678.45, 1692.67, 1706.16, 1720.92, 1734.93, 1750.18, 1764.29, 1777.9, 1792.63, 1807.85, 1823.21, 1838.34, 1853.52, 1868.82, 1884.1, 1898.77, 1913.29, 1931.16, 1945.61, 1959.57, 1974.97, 1990.41, 2005.3, 2020.58, 2036.05, 2050.5, 2066.68, 2081.93, 2098.69, 2113.2, 2128.19, 2145.16, 2160.59, 2175.89, 2191.47, 2206.84, 2223.09, 2239.57, 2253.37, 2269.09, 2286.65, 2303.51, 2318.95, 2335.67, 2353.39, 2370.31, 2388.67, 2407.32, 2426.21, 2444.57, 2464.68, 2483.82, 2504.03, 2523.45, 2542.97, 2564.36, 2585.04, 2605.23, 2623.83, 2646.26, 2666.44, 2686.07, 2708.09, 2728.48, 2749.14, 2768.9, 2790.93, 2811.97, 2833.05, 2853.57, 2873.33]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, -10, 0, 0, -10, 0, -10, 0, -10, -20, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, -10, 0, -20, -20, 0, -20, 0, 0, 0, -10, 0, 0, -20, -20, -20, 0, -20, -10, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, 0, -10, -20, -20, -10, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, 0, -20, -20, -20, -20, -20, -10, -10, -10, -10, 0, 0, -10, -10, 0, -10, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -10, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>classWt</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[100, 109, 115, 148, 197, 244, 245, 245, 245, 245, 254, 266, 266, 266, 266, 277, 277, 323, 380, 380, 405, 414, 414, 414, 414, 414, 414, 463, 525, 525, 551, 595, 595, 614, 614, 658, 720, 777, 778, 801, 813, 819, 824, 824, 858, 905, 935, 935, 935, 935, 946, 987, 987, 999, 1003, 1049, 1107, 1164, 1191, 1204, 1210, 1210, 1220, 1226, 1226, 1249, 1249, 1249, 1249, 1249, 1249, 1261, 1261, 1261, 1261, 1261, 1261, 1306, 1368, 1368, 1394, 1394, 1399, 1427, 1429, 1429, 1429, 1429, 1429, 1429, 1429, 1429, 1469, 1497, 1497, 1518, 1518, 1518, 1518, 1518, 1518, 1518, 1556, 1591, 1591, 1591, 1591, 1591, 1627, 1627, 1627, 1636, 1695, 1713, 1713, 1750, 1750, 1754, 1773, 1773, 1809, 1838, 1838, 1876, 1880, 1930, 1987, 2044, 2048, 2108, 2116, 2159, 2159, 2165, 2170, 2220, 2284, 2338, 2361, 2374, 2378, 2400, 2420, 2459, 2459, 2500, 2500, 2507, 2509, 2509, 2533, 2542, 2600, 2600, 2600, 2642, 2642, 2644, 2663, 2663, 2668, 2668, 2668, 2668, 2668, 2669, 2669, 2673, 2700, 2700, 2700, 2700, 2737, 2766, 2768, 2768, 2768, 2768, 2768, 2792, 2792, 2809, 2809, 2809, 2809, 2809, 2809, 2859, 2887, 2887, 2905, 2911, 2918, 2918, 2921, 2971, 2985, 2985, 2985, 2985, 2990, 2992, 3036, 3076, 3076, 3116, 3128, 3150, 3188, 3188, 3211, 3217, 3217, 3217, 3217, 3217, 3217, 3267, 3329, 3329, 3333, 3335, 3385, 3385, 3385, 3423, 3423, 3430, 3433, 3433, 3439, 3439, 3439, 3456, 3508, 3509, 3509, 3561, 3585, 3585, 3585]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[0.198, 0.196, 0.196, 0.185, 0.181, 0.186, 0.188, 0.188, 0.188, 0.188, 0.198, 0.198, 0.198, 0.198, 0.198, 0.204, 0.204, 0.205, 0.207, 0.207, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.215, 0.215, 0.215, 0.214, 0.217, 0.217, 0.224, 0.226, 0.225, 0.226, 0.226, 0.235, 0.233, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.242, 0.242, 0.242, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.256, 0.257, 0.257, 0.258, 0.258, 0.257, 0.257, 0.258, 0.258, 0.258, 0.258, 0.258, 0.258, 0.258, 0.258, 0.259, 0.259, 0.259, 0.26, 0.26, 0.26, 0.26, 0.26, 0.26, 0.26, 0.259, 0.26, 0.26, 0.26, 0.26, 0.26, 0.262, 0.262, 0.262, 0.266, 0.268, 0.273, 0.273, 0.283, 0.283, 0.284, 0.284, 0.284, 0.285, 0.284, 0.284, 0.284, 0.285, 0.287, 0.287, 0.286, 0.287, 0.287, 0.287, 0.287, 0.287, 0.287, 0.288, 0.288, 0.288, 0.287, 0.288, 0.288, 0.288, 0.288, 0.289, 0.291, 0.291, 0.292, 0.292, 0.292, 0.292, 0.292, 0.293, 0.293, 0.294, 0.294, 0.294, 0.294, 0.294, 0.294, 0.293, 0.293, 0.297, 0.297, 0.297, 0.297, 0.297, 0.296, 0.296, 0.298, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.303, 0.303, 0.303, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.303, 0.303, 0.303, 0.302, 0.308, 0.308, 0.312, 0.312, 0.313, 0.313, 0.313, 0.313, 0.313, 0.313, 0.313, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.318, 0.318, 0.318, 0.318, 0.318, 0.318, 0.319, 0.324, 0.324, 0.324, 0.334, 0.334, 0.334, 0.334]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[0, 19.851722431182875, 41.86516726017, 67.06764404773713, 94.03225157260898, 117.03640053272251, 125.13367618322377, 153.95088561773304, 167.65370229482653, 167.65370229482653, 177.31160203218462, 198.86353749036792, 216.6250979304314, 238.16524511575702, 262.94071282148366, 288.3218811869622, 307.8428421854973, 327.11224278211597, 342.2897172570229, 342.7094172596932, 364.50627280473714, 386.10061186552053, 403.17903536558157, 423.35381659269336, 446.5289892315865, 470.8329527020455, 491.1672870755196, 511.69338771104816, 528.0276038289071, 528.4473038315774, 551.0253199219704, 576.897262632847, 578.7002112627031, 590.930007338524, 607.5797124385834, 629.1155114650727, 639.5129117488862, 667.1275514602662, 681.82017660141, 708.7379229307176, 722.3984356284143, 743.8502886652948, 762.4496879696848, 785.1968250393869, 807.6059982419016, 830.6101472020151, 840.839847481251, 870.601876652241, 884.0488425612452, 884.0488425612452, 905.4471397638324, 932.2669197797778, 946.9304267168048, 959.331942367554, 975.906967544556, 998.4216665267948, 1008.1482667922977, 1035.7626591682438, 1057.412105250359, 1073.7234842777257, 1088.4368018388752, 1111.6896003961567, 1126.2258671045308, 1143.2239989042287, 1156.7321008920674, 1181.299525713921, 1216.2755213499072, 1238.5498850107197, 1258.3602281093602, 1291.4701982021336, 1298.4780091166501, 1320.4221970677381, 1338.2798393368726, 1362.8186445117, 1384.8888084053997, 1408.0577260136608, 1428.7986741185193, 1447.649174702168, 1464.1201422095303, 1464.5398422122005, 1487.5481490015986, 1493.2206018567088, 1505.377360069752, 1527.4817518115046, 1546.462516510487, 1570.083556568623, 1601.825552618504, 1626.3797171711926, 1648.6671287894253, 1666.6294555544857, 1673.883611428738, 1679.7195250391965, 1698.755593001843, 1725.9553903460508, 1737.878436172009, 1761.399547040463, 1788.9941434741024, 1813.151548993588, 1831.1778957962995, 1846.326624834538, 1853.0971703171735, 1880.7249708533293, 1898.8092354178434, 1922.5622346282012, 1934.4198201537138, 1960.4046183466917, 1993.0706142783172, 2020.5828618407256, 2045.115963232518, 2079.644932043553, 2086.657272350789, 2101.414345824719, 2123.7827017664913, 2139.4534588158135, 2164.415407687426, 2178.943814450503, 2196.1865702927116, 2212.1608761370185, 2237.7961599648, 2259.0768868982796, 2269.1037780821325, 2294.41016817689, 2308.062398773432, 2315.8388677239423, 2328.9133498787883, 2353.385848772526, 2362.9447490334514, 2390.5593887448313, 2407.7273471951485, 2435.690393269062, 2446.758218562603, 2473.0921299815177, 2486.1614607691763, 2499.0352598845957, 2509.244352644682, 2533.7168515384196, 2544.6069016397, 2570.7681392610075, 2590.2958337724212, 2599.330949181319, 2611.810099154711, 2620.778953492642, 2636.2846205532555, 2651.824445635081, 2678.7441944181924, 2696.501058918238, 2724.251555937529, 2738.157973212004, 2760.627095526457, 2781.9078224599366, 2791.057043987513, 2807.34040439725, 2829.479372769595, 2849.0191790163526, 2874.9600278437147, 2892.912276393176, 2906.505329644681, 2918.78836747408, 2942.19563971758, 2965.208518779279, 2974.027163398267, 2993.1310860514654, 3014.6500041604054, 3041.0630717873587, 3063.8166324257863, 3081.1725644230855, 3089.7170078635227, 3104.3824561476717, 3123.835396397115, 3128.0857355237017, 3134.2481741070756, 3140.6395380854615, 3158.2479009509093, 3181.9129400372512, 3198.8019067883497, 3224.314254057408, 3253.158850443364, 3279.1383478760727, 3300.902255952359, 3319.9578473448764, 3326.970187652112, 3348.2584587454808, 3367.044724595548, 3394.481433928014, 3417.115234768392, 3439.6832008481038, 3461.6442819714557, 3482.5892826199542, 3494.8352326333534, 3495.2549326360236, 3519.919984573127, 3540.9933283269415, 3560.6643804252158, 3583.745836752654, 3609.3157231986534, 3633.788222092391, 3642.785971659423, 3671.6033139407646, 3687.2651745259773, 3687.2651745259773, 3699.192214924098, 3716.7941750347627, 3740.949083787204, 3752.9261613428603, 3778.3775601923476, 3794.5777831852447, 3809.5887206733237, 3829.40087144971, 3847.8005212366593, 3871.3083009064208, 3881.5391331851492, 3902.5835096538076, 3920.6866385638723, 3945.197686833144, 3973.556149524451, 3995.6901162564764, 4016.8378240048896, 4037.782824653388, 4054.117040771247, 4054.5367407739172, 4077.996894353629, 4096.7380150020135, 4117.213513821364, 4138.4215853154665, 4167.788583987952, 4183.518433254958, 4202.858987414837, 4215.953475368024, 4240.967913615705, 4262.7435405612005, 4279.526803112031, 4299.917195987703, 4320.790170431139, 4342.3324625015275, 4368.380578899385, 4384.774762558938, 4392.26121621132, 4405.7914602041255, 4426.840448474885, 4433.924347019197, 4438.935334050657]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[0, 0.34, 0.8, 1.11, 1.48, 1.79, 2.18, 2.53, 2.97, 3.33, 3.93, 4.34, 4.67, 5.05, 5.39, 5.76, 6.14, 6.52, 7.0, 7.39, 7.88, 8.31, 8.75, 9.08, 9.47, 10.04, 10.48, 10.86, 11.22, 11.6, 12.12, 12.5, 13.05, 13.58, 14.05, 14.63, 15.21, 15.63, 16.06, 16.48, 17.0, 17.41, 17.84, 18.38, 18.83, 19.47, 19.97, 20.47, 20.9, 21.38, 21.88, 22.49, 22.95, 23.45, 24.03, 24.59, 25.1, 25.65, 26.17, 26.81, 27.39, 27.87, 28.4, 28.98, 29.57, 30.14, 30.67, 31.16, 31.71, 32.36, 33.04, 33.67, 34.13, 34.8, 35.39, 35.9, 36.43, 36.97, 37.68, 38.18, 38.85, 39.38, 40.08, 40.71, 41.49, 42.16, 42.91, 43.55, 44.19, 44.72, 45.32, 46.06, 46.87, 47.43, 48.08, 48.68, 49.29, 50.08, 50.68, 51.27, 51.81, 52.36, 53.04, 53.61, 54.21, 54.94, 55.83, 56.38, 57.32, 57.96, 58.49, 59.19, 59.79, 60.3, 60.87, 61.59, 62.16, 62.62, 63.21, 63.83, 64.4, 65.04, 65.73, 66.41, 67.03, 67.83, 68.64, 69.37, 70.25, 70.99, 71.83, 72.64, 73.45, 74.31, 75.08, 75.89, 76.74, 77.57, 78.64, 79.35, 80.04, 80.91, 81.73, 82.6, 83.35, 84.2, 84.95, 85.62, 86.38, 87.36, 88.31, 89.15, 89.8, 90.63, 91.39, 92.24, 93.07, 93.99, 94.86, 95.58, 96.24, 97.13, 98.03, 98.98, 99.61, 100.46, 101.63, 102.31, 103.1, 103.88, 104.8, 105.55, 106.22, 107.29, 108.15, 108.87, 109.63, 110.39, 111.27, 112.0, 112.64, 113.48, 114.42, 115.11, 115.89, 116.68, 117.5, 118.24, 118.85, 119.66, 120.52, 121.33, 121.98, 122.82, 123.65, 124.48, 125.12, 125.84, 126.69, 127.41, 128.29, 129.27, 130.32, 130.96, 131.92, 132.78, 133.59, 134.21, 135.17, 136.2, 136.91, 137.59, 138.4, 139.35, 140.21, 141.15, 142.03, 142.95, 143.66, 144.56, 145.61, 146.63, 147.36, 148.34, 149.25, 150.1, 151.0, 151.92, 152.75, 153.63, 154.62, 155.56, 156.33, 157.1, 157.88, 158.88, 159.61, 160.52, 161.42, 162.35, 163.09]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, -20, 0, -10, 0, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -20, 0, 0, 0, -10, 0, -20, -20, 0, -20, 0, 0, 0, -10, 0, 0, -20, -20, -20, 0, -10, -10, 0, -10, -10, -20, 0, 0, 0, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, -10, -20, -10, 0, -20, -20, -20, -20, -20, -20, -10, -20, -20, 0, -10, -20, -10, 0, -10, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -20, -10, -10]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WVS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[100, 105, 107, 107, 117, 166, 171, 171, 171, 171, 219, 261, 261, 267, 268, 311, 369, 418, 419, 429, 434, 468, 468, 483, 486, 530, 584, 639, 662, 681, 684, 696, 700, 700, 720, 767, 799, 799, 799, 799, 810, 822, 843, 843, 843, 875, 875, 920, 925, 925, 937, 951, 955, 956, 959, 1002, 1027, 1027, 1027, 1027, 1054, 1054, 1058, 1058, 1110, 1114, 1114, 1145, 1156, 1156, 1156, 1156, 1160, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1218, 1218, 1218, 1218, 1218, 1236, 1281, 1341, 1341, 1348, 1367, 1367, 1377, 1377, 1424, 1484, 1540, 1544, 1551, 1557, 1557, 1593, 1610, 1610, 1610, 1610, 1610, 1612, 1612, 1612, 1647, 1647, 1647, 1647, 1647, 1663, 1710, 1770, 1770, 1795, 1833, 1833, 1861, 1861, 1905, 1958, 2010, 2011, 2017, 2028, 2060, 2061, 2069, 2070, 2113, 2171, 2224, 2235, 2271, 2276, 2307, 2307, 2310, 2317, 2360, 2419, 2473, 2521, 2524, 2528, 2566, 2566, 2595, 2598, 2639, 2694, 2741, 2742, 2752, 2759, 2764, 2818, 2848, 2848, 2882, 2882, 2884, 2887, 2887, 2903, 2915, 2920, 2920, 2950, 2998, 3026, 3026, 3026, 3026, 3052, 3093, 3093, 3129, 3131, 3172, 3228, 3282, 3284, 3287, 3292, 3324, 3324, 3324, 3324, 3335, 3335, 3375, 3435, 3435, 3459, 3459, 3459, 3459]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[0.012, 0.011, 0.011, 0.011, 0.014, 0.017, 0.017, 0.017, 0.017, 0.017, 0.032, 0.032, 0.032, 0.032, 0.07, 0.07, 0.058, 0.056, 0.054, 0.057, 0.058, 0.058, 0.058, 0.059, 0.059, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.057, 0.057, 0.057, 0.057, 0.057, 0.057, 0.058, 0.063, 0.062, 0.062, 0.062, 0.059, 0.059, 0.058, 0.058, 0.058, 0.057, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.069, 0.069, 0.069, 0.079, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.074, 0.074, 0.074, 0.074, 0.074, 0.074, 0.078, 0.075, 0.075, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.08, 0.08, 0.08, 0.079, 0.079, 0.079, 0.079, 0.079, 0.079, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.083, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.085, 0.085, 0.085, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[0, 21.16186676025392, 36.72277810573579, 56.94529085159304, 79.72573513984685, 103.70878405570988, 112.26148428916936, 138.71663265228275, 152.41597809791568, 152.41597809791568, 160.06300541162494, 184.973167192936, 197.96647180914886, 209.2832266092301, 223.27966049909597, 244.32600954771047, 254.0526098132134, 279.1009604811669, 294.66811519861227, 311.9207994103432, 326.9293015956879, 350.3675949573517, 364.2795100450516, 376.8464415431023, 393.5559995174408, 415.09179854393005, 424.14759879112245, 450.79330377578736, 471.3555914640427, 489.61807602643967, 502.33812617063523, 521.3382888197899, 536.678233063221, 556.3268146872521, 577.7125378966332, 600.7166868567467, 609.7657746553422, 637.6382860422135, 651.1261005640031, 651.1261005640031, 660.5256499171257, 674.2465579986573, 689.5033848226071, 712.2787541091443, 737.7301529586316, 752.5622446238996, 778.1277649462224, 797.4378912270071, 821.7501311123373, 843.278308349848, 852.7292621433737, 871.7888380587103, 890.7638057053091, 915.0096615612508, 937.7901058495046, 958.8364548981191, 968.2276551544668, 996.1001665413381, 1010.1814715206625, 1010.1814715206625, 1020.3759212434294, 1039.9954868972304, 1060.8305591046812, 1083.631165879965, 1109.026061910391, 1125.1711227118972, 1133.1886658608917, 1146.691684240103, 1164.7756079137328, 1189.8053827703002, 1195.2674369037154, 1201.308799928427, 1213.2539064347748, 1236.1549016892914, 1247.0678261697296, 1271.1628212392334, 1296.5385690629487, 1319.0601756513124, 1338.856477874518, 1372.9124471127993, 1380.1666137158877, 1401.6985900104053, 1413.0781632006176, 1435.9811740696439, 1460.7734295904645, 1484.6433937132367, 1502.0440962374219, 1520.8945968210705, 1536.7114157259473, 1537.1311157286175, 1558.1589677870281, 1582.5277974188336, 1599.5142960131177, 1612.4868573486813, 1628.443686753512, 1651.4478357136256, 1661.4157842218883, 1688.5459565699107, 1704.9358608782297, 1709.8124074518687, 1722.7487576186663, 1723.5971576392658, 1743.1091273009783, 1766.4362760007389, 1780.0190654218204, 1804.1140602529056, 1835.3940563619144, 1860.4742394387729, 1877.3417837440975, 1901.44318240285, 1908.0928252875813, 1930.2550711810597, 1946.8430572807797, 1968.717985779048, 1989.625202947856, 2012.6721683084975, 2029.996668201686, 2049.6849688112743, 2065.501787716151, 2065.921487718821, 2087.323537832499, 2111.2271080553537, 2123.5954993009573, 2133.373823982478, 2147.7210646450526, 2169.256863671542, 2178.1449639141565, 2203.3370411694054, 2218.651046544314, 2229.2213003933434, 2240.640740376711, 2263.1209444820884, 2277.403354007006, 2290.5267367661, 2307.604490226507, 2328.6508392751216, 2338.3774395406244, 2364.0542097985744, 2381.7841083467006, 2408.6155038058755, 2420.3895539343353, 2443.7829354345795, 2457.111530691385, 2469.3909273743625, 2479.9789607882494, 2501.025309836864, 2510.9196101069447, 2537.080847728252, 2560.108259832859, 2586.673153603077, 2596.6735713481903, 2622.066362285614, 2635.060991871357, 2649.133898437023, 2664.793541121483, 2684.860990214348, 2694.084490466118, 2718.9924993753434, 2735.427259874344, 2770.8471182346348, 2781.624965834618, 2797.5780378699305, 2818.187024486065, 2830.7813456416134, 2856.2327444911007, 2871.751000773907, 2886.125026547909, 2896.109538078308, 2918.45036239624, 2939.9785396337506, 2948.1529974937434, 2967.1179034948345, 2981.359488177299, 3003.9469164609905, 3024.40282561779, 3047.896424555778, 3057.3986247777934, 3077.7990578651425, 3092.361895227432, 3092.361895227432, 3102.1986449599262, 3126.633247220516, 3138.6881412148473, 3148.828865253925, 3165.7252097129817, 3185.7926588058467, 3195.0584567070005, 3221.219694328308, 3235.492852306366, 3236.8910046100614, 3256.993000745773, 3277.877238130569, 3294.95566163063, 3316.264074993133, 3341.7620636701577, 3365.8907305479042, 3385.00500485897, 3401.761005377769, 3417.5778242826455, 3417.9975242853156, 3439.3788348436346, 3453.5635355472555, 3472.844175195693, 3495.131491279601]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[0, 6.07, 12.81, 18.89, 25.59, 32.96, 40.58, 46.83, 53.38, 60.59, 69.27, 78.23, 86.85, 95.69, 105.25, 114.97, 124.99, 136.04, 146.36, 156.51, 167.47, 177.53, 187.88, 198.29, 208.36, 218.61, 229.96, 241.69, 252.83, 263.25, 274.5, 286.06, 297.03, 307.19, 318.58, 330.76, 342.05, 353.73, 364.73, 375.28, 386.82, 398.54, 409.32, 420.76, 430.92, 441.74, 453.06, 464.86, 475.98, 487.04, 499.49, 510.28, 520.94, 532.94, 545.56, 556.76, 569.14, 582.8, 594.12, 607.2, 620.33, 630.76, 642.27, 654.94, 666.87, 678.84, 690.89, 705.94, 718.33, 731.27, 745.18, 757.75, 771.24, 785.09, 797.88, 811.68, 826.05, 839.01, 852.59, 866.25, 878.16, 891.48, 906.02, 920.48, 934.42, 949.49, 961.94, 975.0, 989.46, 1001.44, 1015.38, 1030.41, 1044.16, 1058.57, 1072.63, 1085.74, 1100.65, 1115.27, 1128.77, 1144.46, 1158.92, 1172.12, 1186.13, 1202.61, 1215.79, 1230.64, 1245.42, 1259.34, 1274.53, 1288.02, 1302.5, 1317.23, 1330.69, 1344.43, 1359.1, 1372.43, 1387.4, 1401.71, 1414.84, 1428.69, 1444.05, 1458.21, 1473.49, 1487.65, 1501.94, 1516.32, 1529.38, 1543.52, 1558.48, 1572.29, 1586.1, 1599.64, 1613.88, 1627.58, 1640.66, 1654.14, 1667.86, 1682.99, 1696.94, 1711.91, 1726.32, 1740.0, 1755.62, 1770.29, 1784.76, 1799.76, 1814.48, 1829.26, 1844.03, 1858.51, 1873.7, 1890.08, 1905.17, 1921.24, 1936.21, 1952.45, 1967.39, 1983.57, 2000.04, 2014.26, 2029.94, 2045.98, 2060.43, 2075.13, 2091.72, 2106.67, 2123.53, 2139.26, 2154.72, 2171.5, 2187.46, 2202.85, 2220.42, 2238.07, 2257.09, 2274.6, 2291.52, 2310.39, 2330.02, 2348.29, 2366.08, 2387.14, 2407.77, 2426.96, 2445.07, 2466.03, 2487.2, 2507.62, 2526.41, 2546.88, 2567.26, 2587.31, 2607.08, 2628.27, 2649.39, 2669.73, 2691.52, 2712.7, 2735.05, 2754.89, 2776.13, 2797.12, 2818.74, 2841.44]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[0, -20, -20, -20, 0, 0, -10, -10, -20, -20, -20, 0, -10, -10, -20, 0, -20, -20, 0, -10, -10, 0, 0, -10, 0, -20, 0, 0, 0, 0, 0, -20, 0, -10, 0, 0, 0, -10, -20, -10, -20, 0, -20, 0, 0, 0, -10, -20, 0, 0, -20, 0, -10, 0, 0, 0, 0, -10, 0, -10, 0, -10, -10, -10, 0, 0, -10, -10, 0, -10, 0, -10, 0, -20, -20, 0, -20, 0, 0, -10, -10, 0, 0, -20, 0, 0, 0, -10, -20, -10, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>cifar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[100, 110, 114, 114, 117, 163, 192, 192, 192, 192, 198, 203, 248, 255, 255, 286, 286, 288, 318, 318, 341, 341, 346, 385, 385, 424, 424, 424, 470, 522, 522, 530, 530, 530, 530, 530, 556, 603, 665, 665, 670, 670, 670, 670, 670, 671, 671, 679, 702, 702, 702, 708, 714, 714, 739, 788, 810, 810, 810, 810, 838, 844, 848, 848, 851, 898, 904, 904, 904, 904, 923, 952, 958, 959, 959, 1002, 1004, 1010, 1021, 1021, 1033, 1039, 1098, 1108, 1108, 1148, 1148, 1162, 1222, 1222, 1254, 1272, 1280, 1286, 1326, 1374, 1398, 1398, 1398, 1398, 1428, 1428, 1432, 1458, 1458, 1458, 1458, 1458, 1486, 1486, 1486, 1486, 1489, 1516, 1516, 1526, 1526, 1526, 1526, 1526, 1526, 1534, 1594, 1594, 1594, 1632, 1632, 1632, 1645, 1645, 1664, 1675, 1681, 1692, 1696, 1747, 1771, 1771, 1771, 1771, 1812, 1812, 1816, 1836, 1837, 1837, 1837, 1837, 1869, 1869, 1869, 1900, 1900, 1900, 1900, 1903, 1903, 1954, 2020, 2020, 2032, 2037, 2041, 2041, 2055, 2103, 2133, 2133, 2133, 2133, 2153, 2153, 2192, 2198, 2198, 2198, 2198, 2198, 2235, 2235, 2238, 2246, 2296, 2303, 2303, 2353, 2353, 2357, 2362, 2362, 2388, 2388, 2430, 2458, 2458, 2458, 2458, 2458, 2458, 2458, 2458, 2476, 2530, 2530, 2530, 2570, 2570, 2577, 2579, 2579, 2599, 2613, 2613, 2613, 2613, 2613, 2616, 2662, 2727, 2727, 2752, 2759, 2810, 2810, 2810, 2848, 2848, 2853, 2905, 2905, 2919, 2925, 2969, 2995, 2995, 3024, 3024, 3030, 3056, 3056, 3072]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[0.198, 0.196, 0.195, 0.195, 0.198, 0.196, 0.201, 0.201, 0.201, 0.201, 0.21, 0.208, 0.209, 0.206, 0.206, 0.214, 0.214, 0.214, 0.223, 0.223, 0.222, 0.222, 0.23, 0.229, 0.229, 0.241, 0.241, 0.241, 0.24, 0.241, 0.241, 0.242, 0.242, 0.242, 0.242, 0.242, 0.244, 0.247, 0.251, 0.251, 0.255, 0.255, 0.255, 0.255, 0.255, 0.256, 0.256, 0.259, 0.259, 0.259, 0.259, 0.26, 0.26, 0.26, 0.265, 0.265, 0.265, 0.265, 0.265, 0.265, 0.265, 0.264, 0.264, 0.264, 0.263, 0.264, 0.264, 0.264, 0.264, 0.264, 0.264, 0.264, 0.265, 0.265, 0.265, 0.269, 0.269, 0.273, 0.273, 0.273, 0.276, 0.276, 0.276, 0.278, 0.278, 0.277, 0.277, 0.278, 0.278, 0.278, 0.278, 0.278, 0.277, 0.282, 0.284, 0.284, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.289, 0.289, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.291, 0.291, 0.291, 0.291, 0.291, 0.291, 0.292, 0.292, 0.292, 0.298, 0.299, 0.299, 0.299, 0.3, 0.3, 0.3, 0.3, 0.3, 0.3, 0.3, 0.3, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.304, 0.303, 0.302, 0.303, 0.303, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.302, 0.303, 0.303, 0.303, 0.303, 0.304, 0.304, 0.304, 0.303, 0.303, 0.303, 0.302, 0.302, 0.302, 0.302, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.303, 0.303, 0.304]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[0, 19.884428024292003, 36.837508273124705, 60.8735184431076, 85.51359083652497, 108.02828981876374, 118.09029009342194, 145.49038603305817, 158.52108647823334, 158.52108647823334, 168.17898621559144, 185.03960641622544, 207.02308539152148, 225.57887974977496, 250.05137864351275, 265.6599106907845, 281.9029305636883, 293.53224155306816, 311.57645520567894, 332.60973183512687, 340.7227723419666, 351.72602170109747, 363.61852992177006, 388.7605778992176, 399.8022530138492, 423.89722533822055, 451.0298218309879, 473.667582565546, 498.52060447335236, 515.7028830349445, 522.5943311154842, 543.2462585151195, 553.1950052022934, 576.0980160713195, 601.1668903350829, 625.470853805542, 644.8777461051941, 664.5660467147827, 680.9002628326416, 681.3199628353119, 704.3730658054352, 721.2400816202164, 741.7257612466813, 765.1511200189591, 787.935889840126, 805.2448437929154, 812.991553092003, 827.4142513751984, 845.7741450071336, 872.8604582548143, 889.8234971404077, 910.6730403304101, 928.5099892258645, 947.8488179326058, 969.6994481682779, 993.6824970841409, 1002.9059973359109, 1032.1957550644875, 1044.0175012528896, 1044.0175012528896, 1054.569650965929, 1075.5663994371891, 1092.839992839098, 1112.1167039215563, 1134.8971482098102, 1157.9012971699237, 1167.1247974216938, 1196.8869705975055, 1208.4650123417377, 1208.4650123417377, 1218.6594620645046, 1225.431052607298, 1249.9464983642101, 1267.7409225404263, 1294.171221345663, 1315.7673537194728, 1327.6822784900664, 1341.4643979191778, 1364.6826638817786, 1388.1904435515403, 1408.2723745584487, 1423.3873482942581, 1445.9048173189162, 1466.3558090448378, 1493.765007805824, 1508.41120223999, 1523.775095814466, 1538.9481337606903, 1560.207521897554, 1581.983149439096, 1592.4869249284263, 1609.4685331523415, 1628.5125666797157, 1651.74494792819, 1673.595578163862, 1697.0891771018503, 1705.6418773353098, 1733.0418532550334, 1747.1266294658183, 1747.1266294658183, 1757.1795319139956, 1771.0801336586474, 1773.4596421539782, 1795.3136642277238, 1809.624666959047, 1833.2472073376177, 1859.4558039486408, 1881.687609654665, 1905.4177866756916, 1919.5233849346637, 1926.6566382110118, 1932.0508472859858, 1946.1625520169735, 1966.3058966338633, 1979.813998621702, 2004.3693708121775, 2032.382317227125, 2055.3715315520762, 2072.0753479421137, 2095.8859466016293, 2103.381918758154, 2119.1037636220453, 2141.9571294724938, 2160.3695845544335, 2186.7998833596703, 2200.829977148771, 2224.35863571763, 2239.0049971401686, 2265.4100690901273, 2286.938246470689, 2296.272531205415, 2319.885180681943, 2336.1421764791003, 2362.9070720136156, 2388.4769584596147, 2413.4389073312273, 2422.1593075692645, 2450.031715673207, 2465.8529954135406, 2465.8529954135406, 2474.3385560214506, 2481.2587679922567, 2483.7663572132574, 2508.6112094461905, 2524.238300567864, 2548.333291441201, 2583.7712870180594, 2605.5927692472924, 2628.1769182026374, 2653.623716431855, 2661.482396918534, 2685.0337338268746, 2700.2559148252, 2723.109503740071, 2750.1273590028272, 2774.1929736554607, 2791.6805012166483, 2813.044401878117, 2830.41341242194, 2830.83311242461, 2853.074614709614, 2874.8966484487037, 2896.9764700114706, 2920.9029840171315, 2943.6834283053854, 2967.1770272433737, 2976.735927504299, 3004.1360234439353, 3018.221005576847, 3018.221005576847, 3031.7566384017446, 3046.5598886430244, 3065.1200549066048, 3088.046735996006, 3100.470081895588, 3123.1477242887004, 3153.9763203084453, 3178.5866072595104, 3204.807660597561, 3229.164857977627, 3236.4008140265923, 3244.0909711897357, 3266.6228794634326, 3284.900658255814, 3312.3098570168004, 3333.515886956452, 3361.944510680436, 3379.9606113016594, 3403.8272488415228, 3427.829929119347, 3436.9915434300883, 3443.9422043502313, 3463.93007571101, 3487.791328519581, 3501.0492804706078, 3524.199367350338, 3554.1143138587454, 3578.8343064486958, 3597.920234173534, 3623.8400319755056, 3630.9732852518537, 3637.7985826849917, 3658.4128942370394, 3683.9027851223923, 3712.290883839128, 3726.937078273294, 3741.210761106012, 3753.953981041906, 3778.651114988325, 3799.931840085981, 3808.5198160529117, 3832.6896024346333, 3851.1342998146993, 3872.8750823616965, 3899.159000861643, 3925.5517198681814, 3944.2525200486166, 3963.5219206452352, 3980.632232582567, 3981.0519325852374, 4003.2784316658954, 4018.942741727827, 4041.826382768152, 4059.0662903904895, 4084.517689239977, 4098.85583335161, 4114.563679939507, 4126.944039362667, 4145.030384486912, 4168.2907138526425, 4178.777445679902, 4194.560558396576, 4215.168626397846, 4232.177202790974, 4257.628601640461, 4271.822718948124, 4287.955002075432, 4302.060765868424, 4318.150876194237, 4338.689252358673, 4348.324072390793]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[0, 0.36, 0.78, 1.09, 1.41, 1.78, 2.12, 2.42, 2.81, 3.26, 3.64, 4.09, 4.56, 5.12, 5.52, 5.95, 6.42, 6.9, 7.32, 7.9, 8.42, 8.91, 9.36, 9.75, 10.14, 10.63, 11.08, 11.63, 12.1, 12.49, 13.12, 13.59, 14.13, 14.52, 15.11, 15.59, 16.13, 16.71, 17.1, 17.64, 18.16, 18.68, 19.17, 19.67, 20.13, 20.71, 21.19, 21.65, 22.12, 22.57, 23.16, 23.62, 24.06, 24.47, 25.09, 25.69, 26.26, 26.9, 27.38, 27.94, 28.56, 29.17, 29.63, 30.06, 30.77, 31.32, 32.03, 32.57, 33.08, 33.71, 34.34, 34.95, 35.56, 36.16, 36.8, 37.38, 38.04, 38.71, 39.26, 39.95, 40.6, 41.27, 41.97, 42.56, 43.22, 43.92, 44.81, 45.51, 46.09, 46.66, 47.38, 47.95, 48.58, 49.32, 49.83, 50.61, 51.25, 51.84, 52.48, 53.24, 53.9, 54.62, 55.26, 55.96, 56.75, 57.36, 58.06, 58.85, 59.49, 60.13, 60.88, 61.49, 62.05, 62.75, 63.42, 64.19, 64.89, 65.56, 66.14, 66.99, 67.6, 68.12, 69.09, 69.66, 70.21, 70.97, 71.55, 72.17, 72.86, 73.6, 74.3, 75.04, 75.78, 76.57, 77.33, 78.0, 78.79, 79.59, 80.33, 81.08, 81.82, 82.57, 83.38, 84.11, 84.85, 85.66, 86.46, 87.08, 87.82, 88.71, 89.49, 90.14, 90.87, 91.7, 92.27, 92.83, 93.56, 94.31, 94.95, 95.65, 96.43, 97.29, 98.05, 98.67, 99.53, 100.29, 101.05, 101.65, 102.54, 103.34, 104.05, 104.66, 105.42, 106.15, 106.84, 107.39, 108.5, 109.28, 110.1, 110.69, 111.45, 112.23, 112.93, 113.93, 114.68, 115.53, 116.26, 117.03, 117.84, 118.46, 119.2, 119.99, 120.77, 121.44, 122.13, 123.0, 123.94, 124.66, 125.32, 126.05, 126.83, 127.47, 128.32, 129.17, 129.83, 130.47, 131.28, 132.0, 132.72, 133.39, 134.14, 134.96, 135.84, 136.48, 137.33, 138.15, 138.81, 139.58, 140.65, 141.42, 142.02, 143.15, 144.02, 144.69, 145.28, 146.25, 147.1, 147.91, 148.83, 149.56, 150.19, 151.01, 151.9, 152.62, 153.55, 154.5, 155.43, 156.18, 156.96, 157.73, 158.41]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[-20, 0, 0, 0, -10, -10, 0, -20, -20, -10, 0, 0, 0, 0, -20, -20, -10, 0, -10, 0, 0, -10, 0, 0, -20, 0, -10, -10, 0, -10, 0, -20, -10, 0, 0, -20, -20, 0, 0, 0, 0, 0, 0, -10, -20, 0, -20, -20, 0, 0, 0, 0, 0, 0, -10, 0, 0, -20, 0, 0, -20, 0, 0, -10, -10, 0, -10, 0, -20, -20, -10, 0, -10, -10, 0, -10, -10, -20, -10, -20, 0, -20, -10, 0, 0, -10, -20, 0, -10, 0, 0, 0, 0, -20, -10, -20, -20, 0, -20, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>classWt</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>WVS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[-10, -10, -10, -10, -10, 0, -10, -10, 0, -10, -10, 0, -20, 0, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, -20, 0, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, 0, -20, 0, -20, -20, -20, 0, 0, -20, 0, 0, -20, -20, -10, -20, 0, -10, 0, 0, 0, -10, 0, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, -10, 0, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classWt</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[0, -10, -10, -10, -10, 0, -10, -10, 0, -10, -10, -20, 0, 0, 0, 0, -20, -20, -20, -20, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, 0, -20, 0, 0, -20, 0, -20, -20, -10, -20, -20, -20, 0, -20, 0, -10, 0, 0, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, -10, -10, 0, -10, -10, 0, -20]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">

--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -816,37 +816,37 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[100, 110, 117, 127, 167, 214, 233, 233, 233, 233, 272, 272, 272, 272, 306, 324, 324, 356, 381, 381, 381, 381, 418, 433, 433, 433, 433, 433, 433, 433, 433, 443, 445, 445, 447, 493, 516, 516, 516, 516, 528, 555, 555, 555, 555, 555, 555, 598, 655, 655, 680, 680, 680, 680, 680, 710, 710, 723, 751, 751, 751, 751, 754, 780, 780, 780, 780, 780, 826, 843, 843, 881, 881, 887, 887, 931, 993, 1047, 1089, 1098, 1104, 1115, 1161, 1163, 1163, 1200, 1200, 1200, 1204, 1204, 1237, 1237, 1237, 1238, 1238, 1241, 1241, 1259, 1307, 1307, 1307, 1308, 1308, 1308, 1334, 1353, 1357, 1371, 1404, 1404, 1405, 1444, 1444, 1450, 1453, 1497, 1553, 1601, 1602, 1616, 1625, 1647, 1647, 1666, 1669, 1714, 1767, 1820, 1821, 1831, 1840, 1862, 1862, 1862, 1862, 1862, 1875, 1919, 1978, 1978, 2000, 2004, 2008, 2008, 2023, 2069, 2093, 2093, 2093, 2093, 2096, 2111, 2154, 2156, 2156, 2193, 2193, 2193, 2204, 2204, 2222, 2222, 2222, 2222, 2222, 2224, 2224, 2266, 2294, 2294, 2294, 2297, 2301, 2301, 2340, 2383, 2406, 2406, 2406, 2406, 2428, 2429, 2429, 2429, 2447, 2448, 2448, 2496, 2524, 2524, 2524, 2524, 2528, 2558, 2563, 2602, 2602, 2602, 2604, 2604, 2604, 2604, 2641, 2650, 2650, 2650, 2650]</t>
+          <t>[100, 110, 117, 127, 167, 214, 233, 233, 233, 233, 272, 272, 272, 272, 306, 324, 324, 356, 381, 381, 381, 381, 418, 433, 433, 433, 433, 433, 433, 433, 433, 443, 445, 445, 447, 493, 516, 516, 516, 516, 528, 555, 555, 555, 555, 555, 555, 598, 655, 655, 680, 680, 680, 680, 680, 710, 710, 723, 751, 751, 751, 751, 754, 780, 780, 780, 780, 780, 826, 843, 843, 881, 881, 887, 887, 931, 993, 1047, 1089, 1098, 1104, 1115, 1161, 1163, 1163, 1200, 1200, 1200, 1204, 1204, 1237, 1237, 1237, 1238, 1238, 1241, 1241, 1259, 1307, 1307, 1307, 1308, 1308, 1308, 1334, 1353, 1357, 1371, 1404, 1404, 1405, 1444, 1444, 1450, 1453, 1497, 1553, 1601, 1602, 1616, 1625, 1647, 1647, 1666, 1669, 1714, 1767, 1820, 1821, 1831, 1840, 1862, 1862, 1862, 1862, 1862, 1875, 1919, 1978, 1978, 2000, 2004, 2008, 2008, 2023, 2069, 2093, 2093, 2093, 2093, 2096, 2111, 2154, 2156, 2156, 2193, 2193, 2193, 2204, 2204, 2222, 2222, 2222, 2222, 2222, 2224, 2224, 2266, 2294, 2294, 2294, 2297, 2301, 2301, 2340, 2383, 2406, 2406, 2406, 2406, 2428, 2429, 2429, 2429, 2447, 2448, 2448, 2496, 2524, 2524, 2524, 2524, 2528, 2558, 2563, 2602, 2602, 2602, 2604, 2604, 2604, 2604, 2641, 2650, 2650, 2650, 2650, 2650, 2693, 2693, 2693, 2708, 2712, 2712, 2712, 2743, 2743, 2745, 2761, 2761, 2774, 2778, 2778, 2778, 2778, 2778, 2778, 2813, 2840, 2840, 2840, 2855, 2863, 2863]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.012, 0.011, 0.011, 0.008, 0.008, 0.009, 0.009, 0.009, 0.009, 0.009, 0.038, 0.038, 0.038, 0.038, 0.043, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.037, 0.037, 0.037, 0.037, 0.038, 0.038, 0.038, 0.038, 0.038, 0.038, 0.043, 0.043, 0.043, 0.043, 0.043, 0.043, 0.038, 0.036, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.033, 0.033, 0.033, 0.033, 0.033, 0.033, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.088, 0.087, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.09, 0.09, 0.09, 0.09, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092]</t>
+          <t>[0.012, 0.011, 0.011, 0.008, 0.008, 0.009, 0.009, 0.009, 0.009, 0.009, 0.038, 0.038, 0.038, 0.038, 0.043, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.037, 0.037, 0.037, 0.037, 0.038, 0.038, 0.038, 0.038, 0.038, 0.038, 0.043, 0.043, 0.043, 0.043, 0.043, 0.043, 0.038, 0.036, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.033, 0.033, 0.033, 0.033, 0.033, 0.033, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.088, 0.087, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.09, 0.09, 0.09, 0.09, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0, 20.94838137626647, 37.86827862262725, 68.84434530735011, 88.3769857645034, 111.38113472461693, 120.26923496723168, 151.44865448474877, 165.68899009227746, 165.68899009227746, 173.1965965151786, 190.07912498712534, 210.56480461359018, 234.53328498601908, 258.24021219015117, 278.0261492609977, 285.6531633138656, 301.53262031078333, 319.3243479490279, 323.57468707561486, 328.8373303890228, 330.0661803007125, 347.6745431661605, 368.45238251686084, 380.44088864326466, 403.5909836769103, 430.25708055496204, 452.4888862609862, 470.9557453393935, 504.06571543216694, 511.44077390432346, 533.002044570446, 550.1760919690131, 575.7720352292059, 598.5524795174597, 621.0671784996985, 629.116778719425, 657.9341210007666, 671.329938828945, 671.329938828945, 680.2326883912085, 702.1969492793082, 710.4299257755279, 734.791520667076, 757.1053204298018, 780.1072858572005, 798.0015001058578, 816.0142006635665, 831.1916751384734, 831.6113751411438, 852.9892364501952, 869.969591641426, 890.053591275215, 915.137187719345, 937.8175618648528, 959.2839057683943, 966.3952809095381, 988.5223430156706, 1007.8021259546277, 1016.7750641107557, 1022.2834043622015, 1028.7689185798167, 1041.4303469359875, 1060.4999218404294, 1074.1493154466152, 1097.2933992803096, 1129.4973952710627, 1150.3574513375759, 1175.5532232463358, 1191.103638356924, 1198.097789210081, 1222.0049897849558, 1236.1576389968393, 1249.646829551458, 1266.5339320123192, 1288.0697310388084, 1298.467131322622, 1324.6283689439294, 1348.041295355558, 1352.7018030345437, 1364.4532529532905, 1377.2860516965386, 1400.2378447949884, 1417.166729325056, 1443.107578152418, 1459.1133173406122, 1473.3949964165686, 1485.8883960962294, 1510.8325513362884, 1532.8556291818618, 1543.5104196667671, 1566.7556317448616, 1587.2413113713264, 1610.8146250367165, 1633.9078453183174, 1648.7331379294396, 1655.9760522007944, 1669.595164191723, 1692.7338927865028, 1715.8746280312537, 1721.5854018330572, 1741.4888986229894, 1758.7428303360937, 1780.4298200964924, 1803.2805759787557, 1821.8414904952047, 1829.384497606754, 1842.8361958861346, 1863.4321860909458, 1890.8232604622838, 1896.1736346364019, 1920.590983355045, 1934.5915146231648, 1946.3211920857427, 1961.836307263374, 1983.3721062898633, 1992.7215057611463, 2019.2736495733259, 2034.8020498037336, 2050.1321751117703, 2061.714764344692, 2080.545077061653, 2090.0839441776275, 2101.0756527662274, 2114.9996343016624, 2137.0248833060264, 2146.018483066559, 2171.695253324509, 2187.2984606266023, 2202.6357926368714, 2213.6514168977737, 2234.2649420022963, 2245.9708020687103, 2267.039430642128, 2289.7003558397296, 2312.2920226335527, 2329.217069888115, 2347.6486704587937, 2363.2067907571795, 2363.6264907598497, 2384.6455909490587, 2402.5189052820206, 2419.1514694213865, 2436.992452216148, 2457.4483613729476, 2479.9630603551864, 2488.851160597801, 2516.7236719846724, 2530.6790741205214, 2530.6790741205214, 2539.6215738773344, 2552.988441908359, 2577.5038859486576, 2595.8768394112585, 2621.328238260746, 2635.0502817273136, 2653.438048869371, 2669.0467810213563, 2691.252425819635, 2712.5331527531143, 2720.998829132318, 2739.2113985359665, 2758.892844229936, 2784.0227156460282, 2806.75547016263, 2820.9776100456716, 2828.5042167961597, 2841.2134296953677, 2859.2865359842776, 2882.290008884668, 2887.642730718851, 2901.19847176671, 2917.3891015589234, 2939.687564474344, 2960.6083806574343, 2981.654729706049, 2990.375129944086, 3017.302810436487, 3030.095259910822, 3030.095259910822, 3039.932009643316, 3057.5088177144526, 3077.191137355566, 3100.3453096091744, 3123.3785753905768, 3139.356833809614, 3147.5357822358606, 3166.220611685514, 3185.1811392962927, 3208.3218745410436, 3213.5161012828344, 3221.844010227918, 3234.5035788714877, 3257.757969802617, 3271.052690857648, 3293.7303117930883, 3323.1623081386083, 3345.6107776343815, 3365.0028963029376, 3380.7382735013953, 3387.5088189840308, 3395.10243051052, 3412.710793375968, 3432.6903927087774, 3443.3430585622777, 3465.5482423067083, 3493.0991887807836]</t>
+          <t>[0, 20.94838137626647, 37.86827862262725, 68.84434530735011, 88.3769857645034, 111.38113472461693, 120.26923496723168, 151.44865448474877, 165.68899009227746, 165.68899009227746, 173.1965965151786, 190.07912498712534, 210.56480461359018, 234.53328498601908, 258.24021219015117, 278.0261492609977, 285.6531633138656, 301.53262031078333, 319.3243479490279, 323.57468707561486, 328.8373303890228, 330.0661803007125, 347.6745431661605, 368.45238251686084, 380.44088864326466, 403.5909836769103, 430.25708055496204, 452.4888862609862, 470.9557453393935, 504.06571543216694, 511.44077390432346, 533.002044570446, 550.1760919690131, 575.7720352292059, 598.5524795174597, 621.0671784996985, 629.116778719425, 657.9341210007666, 671.329938828945, 671.329938828945, 680.2326883912085, 702.1969492793082, 710.4299257755279, 734.791520667076, 757.1053204298018, 780.1072858572005, 798.0015001058578, 816.0142006635665, 831.1916751384734, 831.6113751411438, 852.9892364501952, 869.969591641426, 890.053591275215, 915.137187719345, 937.8175618648528, 959.2839057683943, 966.3952809095381, 988.5223430156706, 1007.8021259546277, 1016.7750641107557, 1022.2834043622015, 1028.7689185798167, 1041.4303469359875, 1060.4999218404294, 1074.1493154466152, 1097.2933992803096, 1129.4973952710627, 1150.3574513375759, 1175.5532232463358, 1191.103638356924, 1198.097789210081, 1222.0049897849558, 1236.1576389968393, 1249.646829551458, 1266.5339320123192, 1288.0697310388084, 1298.467131322622, 1324.6283689439294, 1348.041295355558, 1352.7018030345437, 1364.4532529532905, 1377.2860516965386, 1400.2378447949884, 1417.166729325056, 1443.107578152418, 1459.1133173406122, 1473.3949964165686, 1485.8883960962294, 1510.8325513362884, 1532.8556291818618, 1543.5104196667671, 1566.7556317448616, 1587.2413113713264, 1610.8146250367165, 1633.9078453183174, 1648.7331379294396, 1655.9760522007944, 1669.595164191723, 1692.7338927865028, 1715.8746280312537, 1721.5854018330572, 1741.4888986229894, 1758.7428303360937, 1780.4298200964924, 1803.2805759787557, 1821.8414904952047, 1829.384497606754, 1842.8361958861346, 1863.4321860909458, 1890.8232604622838, 1896.1736346364019, 1920.590983355045, 1934.5915146231648, 1946.3211920857427, 1961.836307263374, 1983.3721062898633, 1992.7215057611463, 2019.2736495733259, 2034.8020498037336, 2050.1321751117703, 2061.714764344692, 2080.545077061653, 2090.0839441776275, 2101.0756527662274, 2114.9996343016624, 2137.0248833060264, 2146.018483066559, 2171.695253324509, 2187.2984606266023, 2202.6357926368714, 2213.6514168977737, 2234.2649420022963, 2245.9708020687103, 2267.039430642128, 2289.7003558397296, 2312.2920226335527, 2329.217069888115, 2347.6486704587937, 2363.2067907571795, 2363.6264907598497, 2384.6455909490587, 2402.5189052820206, 2419.1514694213865, 2436.992452216148, 2457.4483613729476, 2479.9630603551864, 2488.851160597801, 2516.7236719846724, 2530.6790741205214, 2530.6790741205214, 2539.6215738773344, 2552.988441908359, 2577.5038859486576, 2595.8768394112585, 2621.328238260746, 2635.0502817273136, 2653.438048869371, 2669.0467810213563, 2691.252425819635, 2712.5331527531143, 2720.998829132318, 2739.2113985359665, 2758.892844229936, 2784.0227156460282, 2806.75547016263, 2820.9776100456716, 2828.5042167961597, 2841.2134296953677, 2859.2865359842776, 2882.290008884668, 2887.642730718851, 2901.19847176671, 2917.3891015589234, 2939.687564474344, 2960.6083806574343, 2981.654729706049, 2990.375129944086, 3017.302810436487, 3030.095259910822, 3030.095259910822, 3039.932009643316, 3057.5088177144526, 3077.191137355566, 3100.3453096091744, 3123.3785753905768, 3139.356833809614, 3147.5357822358606, 3166.220611685514, 3185.1811392962927, 3208.3218745410436, 3213.5161012828344, 3221.844010227918, 3234.5035788714877, 3257.757969802617, 3271.052690857648, 3293.7303117930883, 3323.1623081386083, 3345.6107776343815, 3365.0028963029376, 3380.7382735013953, 3387.5088189840308, 3395.10243051052, 3412.710793375968, 3432.6903927087774, 3443.3430585622777, 3465.5482423067083, 3493.0991887807836, 3514.9321553945533, 3539.3069040060036, 3563.846300959586, 3570.495934009551, 3583.4259964346875, 3606.998539340495, 3625.9034600138652, 3650.375958907603, 3664.233376777171, 3686.4520217597474, 3696.1008934795846, 3720.3386621057975, 3740.877038127183, 3749.3171520650376, 3766.534048885106, 3786.2163685262194, 3810.0084182918063, 3832.2558703124514, 3848.807432335614, 3856.467838603257, 3868.421506601571, 3886.992434221505, 3910.6458404123773, 3916.0364081084717, 3924.479542618989, 3948.052084952592, 3965.9731878101816]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[0, 7.95, 15.84, 21.21, 29.81, 37.63, 45.43, 54.63, 63.52, 71.21, 78.72, 87.67, 96.79, 106.28, 115.54, 124.09, 134.24, 144.33, 154.95, 164.15, 175.1, 185.88, 195.86, 204.91, 215.02, 225.37, 235.32, 245.07, 255.22, 266.26, 276.25, 285.41, 295.41, 306.57, 316.74, 325.67, 335.52, 346.01, 355.32, 364.14, 374.97, 385.83, 395.72, 405.09, 414.99, 425.24, 434.51, 443.64, 452.92, 463.83, 473.99, 484.51, 495.62, 507.69, 519.26, 530.15, 541.63, 554.53, 566.85, 578.09, 590.56, 603.23, 615.03, 627.65, 641.53, 653.84, 666.39, 679.3, 692.18, 703.85, 716.77, 730.84, 744.07, 756.77, 771.04, 783.18, 797.52, 811.33, 825.76, 839.68, 853.89, 867.32, 881.76, 897.2, 910.85, 924.26, 940.78, 954.92, 970.86, 984.94, 999.15, 1013.36, 1027.88, 1042.13, 1057.36, 1072.97, 1085.74, 1101.76, 1116.26, 1130.1, 1144.98, 1160.48, 1176.3, 1191.79, 1206.03, 1220.52, 1236.1, 1250.07, 1265.29, 1279.47, 1295.93, 1311.16, 1326.1, 1340.36, 1355.7, 1370.36, 1385.59, 1401.53, 1417.01, 1431.89, 1447.8, 1461.17, 1476.9, 1491.42, 1507.08, 1522.5, 1536.52, 1551.37, 1566.78, 1581.72, 1594.85, 1609.85, 1623.14, 1637.47, 1652.26, 1664.95, 1678.45, 1692.67, 1706.16, 1720.92, 1734.93, 1750.18, 1764.29, 1777.9, 1792.63, 1807.85, 1823.21, 1838.34, 1853.52, 1868.82, 1884.1, 1898.77, 1913.29, 1931.16, 1945.61, 1959.57, 1974.97, 1990.41, 2005.3, 2020.58, 2036.05, 2050.5, 2066.68, 2081.93, 2098.69, 2113.2, 2128.19, 2145.16, 2160.59, 2175.89, 2191.47, 2206.84, 2223.09, 2239.57, 2253.37, 2269.09, 2286.65, 2303.51, 2318.95, 2335.67, 2353.39, 2370.31, 2388.67, 2407.32, 2426.21, 2444.57, 2464.68, 2483.82, 2504.03, 2523.45, 2542.97, 2564.36, 2585.04, 2605.23, 2623.83, 2646.26, 2666.44, 2686.07, 2708.09, 2728.48, 2749.14, 2768.9, 2790.93, 2811.97, 2833.05, 2853.57, 2873.33]</t>
+          <t>[0, 7.95, 15.84, 21.21, 29.81, 37.63, 45.43, 54.63, 63.52, 71.21, 78.72, 87.67, 96.79, 106.28, 115.54, 124.09, 134.24, 144.33, 154.95, 164.15, 175.1, 185.88, 195.86, 204.91, 215.02, 225.37, 235.32, 245.07, 255.22, 266.26, 276.25, 285.41, 295.41, 306.57, 316.74, 325.67, 335.52, 346.01, 355.32, 364.14, 374.97, 385.83, 395.72, 405.09, 414.99, 425.24, 434.51, 443.64, 452.92, 463.83, 473.99, 484.51, 495.62, 507.69, 519.26, 530.15, 541.63, 554.53, 566.85, 578.09, 590.56, 603.23, 615.03, 627.65, 641.53, 653.84, 666.39, 679.3, 692.18, 703.85, 716.77, 730.84, 744.07, 756.77, 771.04, 783.18, 797.52, 811.33, 825.76, 839.68, 853.89, 867.32, 881.76, 897.2, 910.85, 924.26, 940.78, 954.92, 970.86, 984.94, 999.15, 1013.36, 1027.88, 1042.13, 1057.36, 1072.97, 1085.74, 1101.76, 1116.26, 1130.1, 1144.98, 1160.48, 1176.3, 1191.79, 1206.03, 1220.52, 1236.1, 1250.07, 1265.29, 1279.47, 1295.93, 1311.16, 1326.1, 1340.36, 1355.7, 1370.36, 1385.59, 1401.53, 1417.01, 1431.89, 1447.8, 1461.17, 1476.9, 1491.42, 1507.08, 1522.5, 1536.52, 1551.37, 1566.78, 1581.72, 1594.85, 1609.85, 1623.14, 1637.47, 1652.26, 1664.95, 1678.45, 1692.67, 1706.16, 1720.92, 1734.93, 1750.18, 1764.29, 1777.9, 1792.63, 1807.85, 1823.21, 1838.34, 1853.52, 1868.82, 1884.1, 1898.77, 1913.29, 1931.16, 1945.61, 1959.57, 1974.97, 1990.41, 2005.3, 2020.58, 2036.05, 2050.5, 2066.68, 2081.93, 2098.69, 2113.2, 2128.19, 2145.16, 2160.59, 2175.89, 2191.47, 2206.84, 2223.09, 2239.57, 2253.37, 2269.09, 2286.65, 2303.51, 2318.95, 2335.67, 2353.39, 2370.31, 2388.67, 2407.32, 2426.21, 2444.57, 2464.68, 2483.82, 2504.03, 2523.45, 2542.97, 2564.36, 2585.04, 2605.23, 2623.83, 2646.26, 2666.44, 2686.07, 2708.09, 2728.48, 2749.14, 2768.9, 2790.93, 2811.97, 2833.05, 2853.57, 2873.33, 2893.48, 2913.26, 2934.33, 2954.0, 2973.81, 2994.28, 3014.15, 3032.79, 3052.36, 3070.68, 3088.29, 3106.75, 3125.14, 3143.35, 3160.18, 3176.54, 3194.75, 3212.24, 3229.5, 3245.49, 3263.67, 3281.58, 3300.18, 3319.38, 3339.61, 3358.84, 3379.17]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[0, 0, 0, -10, 0, 0, -10, 0, -10, 0, -10, -20, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, -10, 0, -20, -20, 0, -20, 0, 0, 0, -10, 0, 0, -20, -20, -20, 0, -20, -10, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, 0, -10, -20, -20, -10, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, 0, -20, -20, -20, -20, -20, -10, -10, -10, -10, 0, 0, -10, -10, 0, -10, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -10, 0, 0]</t>
+          <t>[0, 0, 0, -10, 0, 0, -10, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, -10, 0, -20, -20, 0, -10, 0, 0, 0, -20, 0, 0, -10, -10, -10, 0, -10, -10, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, 0, -10, -20, -10, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, -10, 0, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, 0, -10, -10, 0, -10, -10, 0, -10, 0, 0, -20, 0, 0, 0, -10, -10, -10, 0, -20, 0, -10]</t>
         </is>
       </c>
     </row>
@@ -954,37 +954,37 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[100, 105, 107, 107, 117, 166, 171, 171, 171, 171, 219, 261, 261, 267, 268, 311, 369, 418, 419, 429, 434, 468, 468, 483, 486, 530, 584, 639, 662, 681, 684, 696, 700, 700, 720, 767, 799, 799, 799, 799, 810, 822, 843, 843, 843, 875, 875, 920, 925, 925, 937, 951, 955, 956, 959, 1002, 1027, 1027, 1027, 1027, 1054, 1054, 1058, 1058, 1110, 1114, 1114, 1145, 1156, 1156, 1156, 1156, 1160, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1218, 1218, 1218, 1218, 1218, 1236, 1281, 1341, 1341, 1348, 1367, 1367, 1377, 1377, 1424, 1484, 1540, 1544, 1551, 1557, 1557, 1593, 1610, 1610, 1610, 1610, 1610, 1612, 1612, 1612, 1647, 1647, 1647, 1647, 1647, 1663, 1710, 1770, 1770, 1795, 1833, 1833, 1861, 1861, 1905, 1958, 2010, 2011, 2017, 2028, 2060, 2061, 2069, 2070, 2113, 2171, 2224, 2235, 2271, 2276, 2307, 2307, 2310, 2317, 2360, 2419, 2473, 2521, 2524, 2528, 2566, 2566, 2595, 2598, 2639, 2694, 2741, 2742, 2752, 2759, 2764, 2818, 2848, 2848, 2882, 2882, 2884, 2887, 2887, 2903, 2915, 2920, 2920, 2950, 2998, 3026, 3026, 3026, 3026, 3052, 3093, 3093, 3129, 3131, 3172, 3228, 3282, 3284, 3287, 3292, 3324, 3324, 3324, 3324, 3335, 3335, 3375, 3435, 3435, 3459, 3459, 3459, 3459]</t>
+          <t>[100, 105, 107, 107, 117, 166, 171, 171, 171, 171, 219, 261, 261, 267, 268, 311, 369, 418, 419, 429, 434, 468, 468, 483, 486, 530, 584, 639, 662, 681, 684, 696, 700, 700, 720, 767, 799, 799, 799, 799, 810, 822, 843, 843, 843, 875, 875, 920, 925, 925, 937, 951, 955, 956, 959, 1002, 1027, 1027, 1027, 1027, 1054, 1054, 1058, 1058, 1110, 1114, 1114, 1145, 1156, 1156, 1156, 1156, 1160, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1218, 1218, 1218, 1218, 1218, 1236, 1281, 1341, 1341, 1348, 1367, 1367, 1377, 1377, 1424, 1484, 1540, 1544, 1551, 1557, 1557, 1593, 1610, 1610, 1610, 1610, 1610, 1612, 1612, 1612, 1647, 1647, 1647, 1647, 1647, 1663, 1710, 1770, 1770, 1795, 1833, 1833, 1861, 1861, 1905, 1958, 2010, 2011, 2017, 2028, 2060, 2061, 2069, 2070, 2113, 2171, 2224, 2235, 2271, 2276, 2307, 2307, 2310, 2317, 2360, 2419, 2473, 2521, 2524, 2528, 2566, 2566, 2595, 2598, 2639, 2694, 2741, 2742, 2752, 2759, 2764, 2818, 2848, 2848, 2882, 2882, 2884, 2887, 2887, 2903, 2915, 2920, 2920, 2950, 2998, 3026, 3026, 3026, 3026, 3052, 3093, 3093, 3129, 3131, 3172, 3228, 3282, 3284, 3287, 3292, 3324, 3324, 3324, 3324, 3335, 3335, 3375, 3435, 3435, 3459, 3459, 3459, 3459, 3459, 3460, 3466, 3476, 3506, 3506, 3506, 3541, 3546, 3549, 3587, 3629, 3659, 3659, 3659, 3659, 3685, 3686, 3686, 3692, 3731, 3732, 3732, 3759, 3786]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[0.012, 0.011, 0.011, 0.011, 0.014, 0.017, 0.017, 0.017, 0.017, 0.017, 0.032, 0.032, 0.032, 0.032, 0.07, 0.07, 0.058, 0.056, 0.054, 0.057, 0.058, 0.058, 0.058, 0.059, 0.059, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.057, 0.057, 0.057, 0.057, 0.057, 0.057, 0.058, 0.063, 0.062, 0.062, 0.062, 0.059, 0.059, 0.058, 0.058, 0.058, 0.057, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.069, 0.069, 0.069, 0.079, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.074, 0.074, 0.074, 0.074, 0.074, 0.074, 0.078, 0.075, 0.075, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.08, 0.08, 0.08, 0.079, 0.079, 0.079, 0.079, 0.079, 0.079, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.083, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.085, 0.085, 0.085, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086]</t>
+          <t>[0.012, 0.011, 0.011, 0.011, 0.014, 0.017, 0.017, 0.017, 0.017, 0.017, 0.032, 0.032, 0.032, 0.032, 0.07, 0.07, 0.058, 0.056, 0.054, 0.057, 0.058, 0.058, 0.058, 0.059, 0.059, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.057, 0.057, 0.057, 0.057, 0.057, 0.057, 0.058, 0.063, 0.062, 0.062, 0.062, 0.059, 0.059, 0.058, 0.058, 0.058, 0.057, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.069, 0.069, 0.069, 0.079, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.074, 0.074, 0.074, 0.074, 0.074, 0.074, 0.078, 0.075, 0.075, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.08, 0.08, 0.08, 0.079, 0.079, 0.079, 0.079, 0.079, 0.079, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.083, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.085, 0.085, 0.085, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.085, 0.085, 0.085, 0.086, 0.086, 0.087, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.094, 0.094]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0, 21.16186676025392, 36.72277810573579, 56.94529085159304, 79.72573513984685, 103.70878405570988, 112.26148428916936, 138.71663265228275, 152.41597809791568, 152.41597809791568, 160.06300541162494, 184.973167192936, 197.96647180914886, 209.2832266092301, 223.27966049909597, 244.32600954771047, 254.0526098132134, 279.1009604811669, 294.66811519861227, 311.9207994103432, 326.9293015956879, 350.3675949573517, 364.2795100450516, 376.8464415431023, 393.5559995174408, 415.09179854393005, 424.14759879112245, 450.79330377578736, 471.3555914640427, 489.61807602643967, 502.33812617063523, 521.3382888197899, 536.678233063221, 556.3268146872521, 577.7125378966332, 600.7166868567467, 609.7657746553422, 637.6382860422135, 651.1261005640031, 651.1261005640031, 660.5256499171257, 674.2465579986573, 689.5033848226071, 712.2787541091443, 737.7301529586316, 752.5622446238996, 778.1277649462224, 797.4378912270071, 821.7501311123373, 843.278308349848, 852.7292621433737, 871.7888380587103, 890.7638057053091, 915.0096615612508, 937.7901058495046, 958.8364548981191, 968.2276551544668, 996.1001665413381, 1010.1814715206625, 1010.1814715206625, 1020.3759212434294, 1039.9954868972304, 1060.8305591046812, 1083.631165879965, 1109.026061910391, 1125.1711227118972, 1133.1886658608917, 1146.691684240103, 1164.7756079137328, 1189.8053827703002, 1195.2674369037154, 1201.308799928427, 1213.2539064347748, 1236.1549016892914, 1247.0678261697296, 1271.1628212392334, 1296.5385690629487, 1319.0601756513124, 1338.856477874518, 1372.9124471127993, 1380.1666137158877, 1401.6985900104053, 1413.0781632006176, 1435.9811740696439, 1460.7734295904645, 1484.6433937132367, 1502.0440962374219, 1520.8945968210705, 1536.7114157259473, 1537.1311157286175, 1558.1589677870281, 1582.5277974188336, 1599.5142960131177, 1612.4868573486813, 1628.443686753512, 1651.4478357136256, 1661.4157842218883, 1688.5459565699107, 1704.9358608782297, 1709.8124074518687, 1722.7487576186663, 1723.5971576392658, 1743.1091273009783, 1766.4362760007389, 1780.0190654218204, 1804.1140602529056, 1835.3940563619144, 1860.4742394387729, 1877.3417837440975, 1901.44318240285, 1908.0928252875813, 1930.2550711810597, 1946.8430572807797, 1968.717985779048, 1989.625202947856, 2012.6721683084975, 2029.996668201686, 2049.6849688112743, 2065.501787716151, 2065.921487718821, 2087.323537832499, 2111.2271080553537, 2123.5954993009573, 2133.373823982478, 2147.7210646450526, 2169.256863671542, 2178.1449639141565, 2203.3370411694054, 2218.651046544314, 2229.2213003933434, 2240.640740376711, 2263.1209444820884, 2277.403354007006, 2290.5267367661, 2307.604490226507, 2328.6508392751216, 2338.3774395406244, 2364.0542097985744, 2381.7841083467006, 2408.6155038058755, 2420.3895539343353, 2443.7829354345795, 2457.111530691385, 2469.3909273743625, 2479.9789607882494, 2501.025309836864, 2510.9196101069447, 2537.080847728252, 2560.108259832859, 2586.673153603077, 2596.6735713481903, 2622.066362285614, 2635.060991871357, 2649.133898437023, 2664.793541121483, 2684.860990214348, 2694.084490466118, 2718.9924993753434, 2735.427259874344, 2770.8471182346348, 2781.624965834618, 2797.5780378699305, 2818.187024486065, 2830.7813456416134, 2856.2327444911007, 2871.751000773907, 2886.125026547909, 2896.109538078308, 2918.45036239624, 2939.9785396337506, 2948.1529974937434, 2967.1179034948345, 2981.359488177299, 3003.9469164609905, 3024.40282561779, 3047.896424555778, 3057.3986247777934, 3077.7990578651425, 3092.361895227432, 3092.361895227432, 3102.1986449599262, 3126.633247220516, 3138.6881412148473, 3148.828865253925, 3165.7252097129817, 3185.7926588058467, 3195.0584567070005, 3221.219694328308, 3235.492852306366, 3236.8910046100614, 3256.993000745773, 3277.877238130569, 3294.95566163063, 3316.264074993133, 3341.7620636701577, 3365.8907305479042, 3385.00500485897, 3401.761005377769, 3417.5778242826455, 3417.9975242853156, 3439.3788348436346, 3453.5635355472555, 3472.844175195693, 3495.131491279601]</t>
+          <t>[0, 21.16186676025392, 36.72277810573579, 56.94529085159304, 79.72573513984685, 103.70878405570988, 112.26148428916936, 138.71663265228275, 152.41597809791568, 152.41597809791568, 160.06300541162494, 184.973167192936, 197.96647180914886, 209.2832266092301, 223.27966049909597, 244.32600954771047, 254.0526098132134, 279.1009604811669, 294.66811519861227, 311.9207994103432, 326.9293015956879, 350.3675949573517, 364.2795100450516, 376.8464415431023, 393.5559995174408, 415.09179854393005, 424.14759879112245, 450.79330377578736, 471.3555914640427, 489.61807602643967, 502.33812617063523, 521.3382888197899, 536.678233063221, 556.3268146872521, 577.7125378966332, 600.7166868567467, 609.7657746553422, 637.6382860422135, 651.1261005640031, 651.1261005640031, 660.5256499171257, 674.2465579986573, 689.5033848226071, 712.2787541091443, 737.7301529586316, 752.5622446238996, 778.1277649462224, 797.4378912270071, 821.7501311123373, 843.278308349848, 852.7292621433737, 871.7888380587103, 890.7638057053091, 915.0096615612508, 937.7901058495046, 958.8364548981191, 968.2276551544668, 996.1001665413381, 1010.1814715206625, 1010.1814715206625, 1020.3759212434294, 1039.9954868972304, 1060.8305591046812, 1083.631165879965, 1109.026061910391, 1125.1711227118972, 1133.1886658608917, 1146.691684240103, 1164.7756079137328, 1189.8053827703002, 1195.2674369037154, 1201.308799928427, 1213.2539064347748, 1236.1549016892914, 1247.0678261697296, 1271.1628212392334, 1296.5385690629487, 1319.0601756513124, 1338.856477874518, 1372.9124471127993, 1380.1666137158877, 1401.6985900104053, 1413.0781632006176, 1435.9811740696439, 1460.7734295904645, 1484.6433937132367, 1502.0440962374219, 1520.8945968210705, 1536.7114157259473, 1537.1311157286175, 1558.1589677870281, 1582.5277974188336, 1599.5142960131177, 1612.4868573486813, 1628.443686753512, 1651.4478357136256, 1661.4157842218883, 1688.5459565699107, 1704.9358608782297, 1709.8124074518687, 1722.7487576186663, 1723.5971576392658, 1743.1091273009783, 1766.4362760007389, 1780.0190654218204, 1804.1140602529056, 1835.3940563619144, 1860.4742394387729, 1877.3417837440975, 1901.44318240285, 1908.0928252875813, 1930.2550711810597, 1946.8430572807797, 1968.717985779048, 1989.625202947856, 2012.6721683084975, 2029.996668201686, 2049.6849688112743, 2065.501787716151, 2065.921487718821, 2087.323537832499, 2111.2271080553537, 2123.5954993009573, 2133.373823982478, 2147.7210646450526, 2169.256863671542, 2178.1449639141565, 2203.3370411694054, 2218.651046544314, 2229.2213003933434, 2240.640740376711, 2263.1209444820884, 2277.403354007006, 2290.5267367661, 2307.604490226507, 2328.6508392751216, 2338.3774395406244, 2364.0542097985744, 2381.7841083467006, 2408.6155038058755, 2420.3895539343353, 2443.7829354345795, 2457.111530691385, 2469.3909273743625, 2479.9789607882494, 2501.025309836864, 2510.9196101069447, 2537.080847728252, 2560.108259832859, 2586.673153603077, 2596.6735713481903, 2622.066362285614, 2635.060991871357, 2649.133898437023, 2664.793541121483, 2684.860990214348, 2694.084490466118, 2718.9924993753434, 2735.427259874344, 2770.8471182346348, 2781.624965834618, 2797.5780378699305, 2818.187024486065, 2830.7813456416134, 2856.2327444911007, 2871.751000773907, 2886.125026547909, 2896.109538078308, 2918.45036239624, 2939.9785396337506, 2948.1529974937434, 2967.1179034948345, 2981.359488177299, 3003.9469164609905, 3024.40282561779, 3047.896424555778, 3057.3986247777934, 3077.7990578651425, 3092.361895227432, 3092.361895227432, 3102.1986449599262, 3126.633247220516, 3138.6881412148473, 3148.828865253925, 3165.7252097129817, 3185.7926588058467, 3195.0584567070005, 3221.219694328308, 3235.492852306366, 3236.8910046100614, 3256.993000745773, 3277.877238130569, 3294.95566163063, 3316.264074993133, 3341.7620636701577, 3365.8907305479042, 3385.00500485897, 3401.761005377769, 3417.5778242826455, 3417.9975242853156, 3439.3788348436346, 3453.5635355472555, 3472.844175195693, 3495.131491279601, 3518.8452538490287, 3534.1279953002922, 3542.256594169139, 3555.4990251898757, 3574.9194974541656, 3599.949272310733, 3605.796128129958, 3619.6636209487906, 3636.0752178907387, 3657.9082200288767, 3679.2939432382577, 3699.8508423089975, 3708.724317598342, 3736.1244135379784, 3748.650148987769, 3748.650148987769, 3758.3080487251273, 3777.4740511894215, 3797.5580508232106, 3819.7338001966464, 3843.1354709386815, 3860.657929444312, 3867.4394894480693, 3885.9671506524073, 3905.176588928698]</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>[0, 6.07, 12.81, 18.89, 25.59, 32.96, 40.58, 46.83, 53.38, 60.59, 69.27, 78.23, 86.85, 95.69, 105.25, 114.97, 124.99, 136.04, 146.36, 156.51, 167.47, 177.53, 187.88, 198.29, 208.36, 218.61, 229.96, 241.69, 252.83, 263.25, 274.5, 286.06, 297.03, 307.19, 318.58, 330.76, 342.05, 353.73, 364.73, 375.28, 386.82, 398.54, 409.32, 420.76, 430.92, 441.74, 453.06, 464.86, 475.98, 487.04, 499.49, 510.28, 520.94, 532.94, 545.56, 556.76, 569.14, 582.8, 594.12, 607.2, 620.33, 630.76, 642.27, 654.94, 666.87, 678.84, 690.89, 705.94, 718.33, 731.27, 745.18, 757.75, 771.24, 785.09, 797.88, 811.68, 826.05, 839.01, 852.59, 866.25, 878.16, 891.48, 906.02, 920.48, 934.42, 949.49, 961.94, 975.0, 989.46, 1001.44, 1015.38, 1030.41, 1044.16, 1058.57, 1072.63, 1085.74, 1100.65, 1115.27, 1128.77, 1144.46, 1158.92, 1172.12, 1186.13, 1202.61, 1215.79, 1230.64, 1245.42, 1259.34, 1274.53, 1288.02, 1302.5, 1317.23, 1330.69, 1344.43, 1359.1, 1372.43, 1387.4, 1401.71, 1414.84, 1428.69, 1444.05, 1458.21, 1473.49, 1487.65, 1501.94, 1516.32, 1529.38, 1543.52, 1558.48, 1572.29, 1586.1, 1599.64, 1613.88, 1627.58, 1640.66, 1654.14, 1667.86, 1682.99, 1696.94, 1711.91, 1726.32, 1740.0, 1755.62, 1770.29, 1784.76, 1799.76, 1814.48, 1829.26, 1844.03, 1858.51, 1873.7, 1890.08, 1905.17, 1921.24, 1936.21, 1952.45, 1967.39, 1983.57, 2000.04, 2014.26, 2029.94, 2045.98, 2060.43, 2075.13, 2091.72, 2106.67, 2123.53, 2139.26, 2154.72, 2171.5, 2187.46, 2202.85, 2220.42, 2238.07, 2257.09, 2274.6, 2291.52, 2310.39, 2330.02, 2348.29, 2366.08, 2387.14, 2407.77, 2426.96, 2445.07, 2466.03, 2487.2, 2507.62, 2526.41, 2546.88, 2567.26, 2587.31, 2607.08, 2628.27, 2649.39, 2669.73, 2691.52, 2712.7, 2735.05, 2754.89, 2776.13, 2797.12, 2818.74, 2841.44]</t>
+          <t>[0, 6.07, 12.81, 18.89, 25.59, 32.96, 40.58, 46.83, 53.38, 60.59, 69.27, 78.23, 86.85, 95.69, 105.25, 114.97, 124.99, 136.04, 146.36, 156.51, 167.47, 177.53, 187.88, 198.29, 208.36, 218.61, 229.96, 241.69, 252.83, 263.25, 274.5, 286.06, 297.03, 307.19, 318.58, 330.76, 342.05, 353.73, 364.73, 375.28, 386.82, 398.54, 409.32, 420.76, 430.92, 441.74, 453.06, 464.86, 475.98, 487.04, 499.49, 510.28, 520.94, 532.94, 545.56, 556.76, 569.14, 582.8, 594.12, 607.2, 620.33, 630.76, 642.27, 654.94, 666.87, 678.84, 690.89, 705.94, 718.33, 731.27, 745.18, 757.75, 771.24, 785.09, 797.88, 811.68, 826.05, 839.01, 852.59, 866.25, 878.16, 891.48, 906.02, 920.48, 934.42, 949.49, 961.94, 975.0, 989.46, 1001.44, 1015.38, 1030.41, 1044.16, 1058.57, 1072.63, 1085.74, 1100.65, 1115.27, 1128.77, 1144.46, 1158.92, 1172.12, 1186.13, 1202.61, 1215.79, 1230.64, 1245.42, 1259.34, 1274.53, 1288.02, 1302.5, 1317.23, 1330.69, 1344.43, 1359.1, 1372.43, 1387.4, 1401.71, 1414.84, 1428.69, 1444.05, 1458.21, 1473.49, 1487.65, 1501.94, 1516.32, 1529.38, 1543.52, 1558.48, 1572.29, 1586.1, 1599.64, 1613.88, 1627.58, 1640.66, 1654.14, 1667.86, 1682.99, 1696.94, 1711.91, 1726.32, 1740.0, 1755.62, 1770.29, 1784.76, 1799.76, 1814.48, 1829.26, 1844.03, 1858.51, 1873.7, 1890.08, 1905.17, 1921.24, 1936.21, 1952.45, 1967.39, 1983.57, 2000.04, 2014.26, 2029.94, 2045.98, 2060.43, 2075.13, 2091.72, 2106.67, 2123.53, 2139.26, 2154.72, 2171.5, 2187.46, 2202.85, 2220.42, 2238.07, 2257.09, 2274.6, 2291.52, 2310.39, 2330.02, 2348.29, 2366.08, 2387.14, 2407.77, 2426.96, 2445.07, 2466.03, 2487.2, 2507.62, 2526.41, 2546.88, 2567.26, 2587.31, 2607.08, 2628.27, 2649.39, 2669.73, 2691.52, 2712.7, 2735.05, 2754.89, 2776.13, 2797.12, 2818.74, 2841.44, 2865.17, 2886.82, 2908.33, 2930.87, 2952.3, 2973.69, 2995.18, 3015.6, 3037.32, 3056.85, 3077.01, 3096.83, 3117.33, 3136.0, 3157.76, 3177.26, 3195.8, 3213.57, 3232.85, 3252.26, 3270.86, 3289.55, 3309.68, 3329.49, 3351.89]</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>[0, -20, -20, -20, 0, 0, -10, -10, -20, -20, -20, 0, -10, -10, -20, 0, -20, -20, 0, -10, -10, 0, 0, -10, 0, -20, 0, 0, 0, 0, 0, -20, 0, -10, 0, 0, 0, -10, -20, -10, -20, 0, -20, 0, 0, 0, -10, -20, 0, 0, -20, 0, -10, 0, 0, 0, 0, -10, 0, -10, 0, -10, -10, -10, 0, 0, -10, -10, 0, -10, 0, -10, 0, -20, -20, 0, -20, 0, 0, -10, -10, 0, 0, -20, 0, 0, 0, -10, -20, -10, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0]</t>
+          <t>[-20, -20, 0, 0, -20, 0, 0, 0, 0, 0, -10, -10, 0, -20, 0, -20, 0, -10, -20, -20, 0, 0, -10, -10, 0, 0, 0, -20, 0, -20, -20, -10, 0, -10, -10, -20, 0, -10, 0, -20, 0, 0, -20, -10, -20, -20, 0, 0, -10, -10, -20, -10, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, -20, -10, -10, 0, -10, 0, 0, 0, -20, 0, -20, 0, 0, 0, -10, -10, -10, 0, 0, -20, -10, 0, 0, -10, -10, -10, 0, 0, 0, -20, -20, -10, 0, -10, 0]</t>
         </is>
       </c>
     </row>
@@ -1092,37 +1092,37 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587]</t>
+          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009]</t>
+          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678]</t>
+          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63]</t>
+          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[-10, -10, -10, -10, -10, 0, -10, -10, 0, -10, -10, 0, -20, 0, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, -20, 0, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, 0, -20, 0, -20, -20, -20, 0, 0, -20, 0, 0, -20, -20, -10, -20, 0, -10, 0, 0, 0, -10, 0, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, -10, 0, 0, 0]</t>
+          <t>[-10, -10, -10, 0, -10, 0, -10, -10, 0, -20, -20, 0, 0, 0, 0, 0, 0, -20, -20, -20, -10, 0, -20, 0, -20, 0, -20, -20, -20, 0, 0, -20, 0, -20, -10, 0, -20, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, 0, 0, -20, -20, -10, 0, -20, 0, -10, 0, -10, 0, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, -10, 0, -10, 0, -10, 0, -10, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1161,37 +1161,37 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400]</t>
+          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400, 421, 424, 479, 479, 479, 479, 479, 493, 500, 501, 507, 507, 555, 592, 642, 643, 699, 706, 706, 706, 706, 706, 728, 728, 733, 751, 751, 751, 751, 755, 759, 759, 759, 759, 759, 805, 805, 805, 805, 841]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363]</t>
+          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363, 0.382, 0.38, 0.387, 0.387, 0.387, 0.387, 0.387, 0.38, 0.389, 0.387, 0.387, 0.387, 0.389, 0.395, 0.4, 0.406, 0.414, 0.419, 0.419, 0.419, 0.419, 0.419, 0.421, 0.421, 0.429, 0.43, 0.43, 0.43, 0.43, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.444, 0.444, 0.444, 0.444, 0.442]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643]</t>
+          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643, 602.1897409915923, 625.435092306137, 652.3548410892486, 660.7398413181304, 688.1398109436034, 702.1122611522674, 702.1122611522674, 711.7701608896255, 728.6085087299346, 742.128211545944, 756.5295929431913, 774.572093605995, 800.0234924554823, 810.2014386177061, 838.7850130558012, 854.3543200492857, 881.385264587402, 891.896761012077, 910.8810156822202, 921.7189058542249, 944.7476429224012, 967.0159010648724, 979.950374627113, 987.8648782014843, 1000.8310764789578, 1019.0124041080471, 1048.2925180912014, 1052.162108814716, 1067.9028018355366, 1082.8718317866321, 1104.7385104298587, 1118.2000647425648, 1143.7124028563496, 1177.3129985213277, 1199.2163547396658, 1225.8960048556326, 1251.7422035098073, 1258.8754462361333, 1266.270257747173, 1283.4027189135547]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99]</t>
+          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99, 2.09, 2.16, 2.21, 2.32, 2.39, 2.47, 2.55, 2.64, 2.7, 2.8, 2.88, 2.95, 3.06, 3.16, 3.26, 3.32, 3.41, 3.48, 3.58, 3.68, 3.75, 3.82, 3.93, 4.02, 4.09, 4.18, 4.29, 4.36, 4.5, 4.6, 4.68, 4.78, 4.87, 4.94, 5.06, 5.18, 5.25, 5.38, 5.52, 5.62]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[0, -10, -10, -10, -10, 0, -10, -10, 0, -10, -10, -20, 0, 0, 0, 0, -20, -20, -20, -20, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, 0, -20, 0, 0, -20, 0, -20, -20, -10, -20, -20, -20, 0, -20, 0, -10, 0, 0, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, -10, -10, 0, -10, -10, 0, -20]</t>
+          <t>[0, -10, -10, -20, -20, 0, -20, -10, 0, -10, -10, 0, 0, -10, 0, 0, 0, -10, -20, 0, -10, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, 0, -20, 0, 0, -20, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, 0, -10, -20, -10, 0, 0, -10, -10, -10, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0]</t>
         </is>
       </c>
     </row>

--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -787,7 +787,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -816,37 +816,37 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[100, 110, 117, 127, 167, 214, 233, 233, 233, 233, 272, 272, 272, 272, 306, 324, 324, 356, 381, 381, 381, 381, 418, 433, 433, 433, 433, 433, 433, 433, 433, 443, 445, 445, 447, 493, 516, 516, 516, 516, 528, 555, 555, 555, 555, 555, 555, 598, 655, 655, 680, 680, 680, 680, 680, 710, 710, 723, 751, 751, 751, 751, 754, 780, 780, 780, 780, 780, 826, 843, 843, 881, 881, 887, 887, 931, 993, 1047, 1089, 1098, 1104, 1115, 1161, 1163, 1163, 1200, 1200, 1200, 1204, 1204, 1237, 1237, 1237, 1238, 1238, 1241, 1241, 1259, 1307, 1307, 1307, 1308, 1308, 1308, 1334, 1353, 1357, 1371, 1404, 1404, 1405, 1444, 1444, 1450, 1453, 1497, 1553, 1601, 1602, 1616, 1625, 1647, 1647, 1666, 1669, 1714, 1767, 1820, 1821, 1831, 1840, 1862, 1862, 1862, 1862, 1862, 1875, 1919, 1978, 1978, 2000, 2004, 2008, 2008, 2023, 2069, 2093, 2093, 2093, 2093, 2096, 2111, 2154, 2156, 2156, 2193, 2193, 2193, 2204, 2204, 2222, 2222, 2222, 2222, 2222, 2224, 2224, 2266, 2294, 2294, 2294, 2297, 2301, 2301, 2340, 2383, 2406, 2406, 2406, 2406, 2428, 2429, 2429, 2429, 2447, 2448, 2448, 2496, 2524, 2524, 2524, 2524, 2528, 2558, 2563, 2602, 2602, 2602, 2604, 2604, 2604, 2604, 2641, 2650, 2650, 2650, 2650, 2650, 2693, 2693, 2693, 2708, 2712, 2712, 2712, 2743, 2743, 2745, 2761, 2761, 2774, 2778, 2778, 2778, 2778, 2778, 2778, 2813, 2840, 2840, 2840, 2855, 2863, 2863]</t>
+          <t>[100, 110, 117, 127, 167, 214, 233, 233, 233, 233, 272, 272, 272, 272, 306, 324, 324, 356, 381, 381, 381, 381, 418, 433, 433, 433, 433, 433, 433, 433, 433, 443, 445, 445, 447, 493, 516, 516, 516, 516, 528, 555, 555, 555, 555, 555, 555, 598, 655, 655, 680, 680, 680, 680, 680, 710, 710, 723, 751, 751, 751, 751, 754, 780, 780, 780, 780, 780, 826, 843, 843, 881, 881, 887, 887, 931, 993, 1047, 1089, 1098, 1104, 1115, 1161, 1163, 1163, 1200, 1200, 1200, 1204, 1204, 1237, 1237, 1237, 1238, 1238, 1241, 1241, 1259, 1307, 1307, 1307, 1308, 1308, 1308, 1334, 1353, 1357, 1371, 1404, 1404, 1405, 1444, 1444, 1450, 1453, 1497, 1553, 1601, 1602, 1616, 1625, 1647, 1647, 1666, 1669, 1714, 1767, 1820, 1821, 1831, 1840, 1862, 1862, 1862, 1862, 1862, 1875, 1919, 1978, 1978, 2000, 2004, 2008, 2008, 2023, 2069, 2093, 2093, 2093, 2093, 2096, 2111, 2154, 2156, 2156, 2193, 2193, 2193, 2204, 2204, 2222, 2222, 2222, 2222, 2222, 2224, 2224, 2266, 2294, 2294, 2294, 2297, 2301, 2301, 2340, 2383, 2406, 2406, 2406, 2406, 2428, 2429, 2429, 2429, 2447, 2448, 2448, 2496, 2524, 2524, 2524, 2524, 2528, 2558, 2563, 2602, 2602, 2602, 2604, 2604, 2604, 2604, 2641, 2650, 2650, 2650, 2650, 2650, 2693, 2693, 2693, 2708, 2712, 2712, 2712, 2743, 2743, 2745, 2761, 2761, 2774, 2778, 2778, 2778, 2778, 2778, 2778, 2813, 2840, 2840, 2840, 2855, 2863, 2863, 2863, 2904, 2925, 2940, 2945, 2945, 2947]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.012, 0.011, 0.011, 0.008, 0.008, 0.009, 0.009, 0.009, 0.009, 0.009, 0.038, 0.038, 0.038, 0.038, 0.043, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.037, 0.037, 0.037, 0.037, 0.038, 0.038, 0.038, 0.038, 0.038, 0.038, 0.043, 0.043, 0.043, 0.043, 0.043, 0.043, 0.038, 0.036, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.033, 0.033, 0.033, 0.033, 0.033, 0.033, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.088, 0.087, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.09, 0.09, 0.09, 0.09, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093]</t>
+          <t>[0.012, 0.011, 0.011, 0.008, 0.008, 0.009, 0.009, 0.009, 0.009, 0.009, 0.038, 0.038, 0.038, 0.038, 0.043, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.037, 0.037, 0.037, 0.037, 0.038, 0.038, 0.038, 0.038, 0.038, 0.038, 0.043, 0.043, 0.043, 0.043, 0.043, 0.043, 0.038, 0.036, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.033, 0.033, 0.033, 0.033, 0.033, 0.033, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.088, 0.087, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.09, 0.09, 0.09, 0.09, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0, 20.94838137626647, 37.86827862262725, 68.84434530735011, 88.3769857645034, 111.38113472461693, 120.26923496723168, 151.44865448474877, 165.68899009227746, 165.68899009227746, 173.1965965151786, 190.07912498712534, 210.56480461359018, 234.53328498601908, 258.24021219015117, 278.0261492609977, 285.6531633138656, 301.53262031078333, 319.3243479490279, 323.57468707561486, 328.8373303890228, 330.0661803007125, 347.6745431661605, 368.45238251686084, 380.44088864326466, 403.5909836769103, 430.25708055496204, 452.4888862609862, 470.9557453393935, 504.06571543216694, 511.44077390432346, 533.002044570446, 550.1760919690131, 575.7720352292059, 598.5524795174597, 621.0671784996985, 629.116778719425, 657.9341210007666, 671.329938828945, 671.329938828945, 680.2326883912085, 702.1969492793082, 710.4299257755279, 734.791520667076, 757.1053204298018, 780.1072858572005, 798.0015001058578, 816.0142006635665, 831.1916751384734, 831.6113751411438, 852.9892364501952, 869.969591641426, 890.053591275215, 915.137187719345, 937.8175618648528, 959.2839057683943, 966.3952809095381, 988.5223430156706, 1007.8021259546277, 1016.7750641107557, 1022.2834043622015, 1028.7689185798167, 1041.4303469359875, 1060.4999218404294, 1074.1493154466152, 1097.2933992803096, 1129.4973952710627, 1150.3574513375759, 1175.5532232463358, 1191.103638356924, 1198.097789210081, 1222.0049897849558, 1236.1576389968393, 1249.646829551458, 1266.5339320123192, 1288.0697310388084, 1298.467131322622, 1324.6283689439294, 1348.041295355558, 1352.7018030345437, 1364.4532529532905, 1377.2860516965386, 1400.2378447949884, 1417.166729325056, 1443.107578152418, 1459.1133173406122, 1473.3949964165686, 1485.8883960962294, 1510.8325513362884, 1532.8556291818618, 1543.5104196667671, 1566.7556317448616, 1587.2413113713264, 1610.8146250367165, 1633.9078453183174, 1648.7331379294396, 1655.9760522007944, 1669.595164191723, 1692.7338927865028, 1715.8746280312537, 1721.5854018330572, 1741.4888986229894, 1758.7428303360937, 1780.4298200964924, 1803.2805759787557, 1821.8414904952047, 1829.384497606754, 1842.8361958861346, 1863.4321860909458, 1890.8232604622838, 1896.1736346364019, 1920.590983355045, 1934.5915146231648, 1946.3211920857427, 1961.836307263374, 1983.3721062898633, 1992.7215057611463, 2019.2736495733259, 2034.8020498037336, 2050.1321751117703, 2061.714764344692, 2080.545077061653, 2090.0839441776275, 2101.0756527662274, 2114.9996343016624, 2137.0248833060264, 2146.018483066559, 2171.695253324509, 2187.2984606266023, 2202.6357926368714, 2213.6514168977737, 2234.2649420022963, 2245.9708020687103, 2267.039430642128, 2289.7003558397296, 2312.2920226335527, 2329.217069888115, 2347.6486704587937, 2363.2067907571795, 2363.6264907598497, 2384.6455909490587, 2402.5189052820206, 2419.1514694213865, 2436.992452216148, 2457.4483613729476, 2479.9630603551864, 2488.851160597801, 2516.7236719846724, 2530.6790741205214, 2530.6790741205214, 2539.6215738773344, 2552.988441908359, 2577.5038859486576, 2595.8768394112585, 2621.328238260746, 2635.0502817273136, 2653.438048869371, 2669.0467810213563, 2691.252425819635, 2712.5331527531143, 2720.998829132318, 2739.2113985359665, 2758.892844229936, 2784.0227156460282, 2806.75547016263, 2820.9776100456716, 2828.5042167961597, 2841.2134296953677, 2859.2865359842776, 2882.290008884668, 2887.642730718851, 2901.19847176671, 2917.3891015589234, 2939.687564474344, 2960.6083806574343, 2981.654729706049, 2990.375129944086, 3017.302810436487, 3030.095259910822, 3030.095259910822, 3039.932009643316, 3057.5088177144526, 3077.191137355566, 3100.3453096091744, 3123.3785753905768, 3139.356833809614, 3147.5357822358606, 3166.220611685514, 3185.1811392962927, 3208.3218745410436, 3213.5161012828344, 3221.844010227918, 3234.5035788714877, 3257.757969802617, 3271.052690857648, 3293.7303117930883, 3323.1623081386083, 3345.6107776343815, 3365.0028963029376, 3380.7382735013953, 3387.5088189840308, 3395.10243051052, 3412.710793375968, 3432.6903927087774, 3443.3430585622777, 3465.5482423067083, 3493.0991887807836, 3514.9321553945533, 3539.3069040060036, 3563.846300959586, 3570.495934009551, 3583.4259964346875, 3606.998539340495, 3625.9034600138652, 3650.375958907603, 3664.233376777171, 3686.4520217597474, 3696.1008934795846, 3720.3386621057975, 3740.877038127183, 3749.3171520650376, 3766.534048885106, 3786.2163685262194, 3810.0084182918063, 3832.2558703124514, 3848.807432335614, 3856.467838603257, 3868.421506601571, 3886.992434221505, 3910.6458404123773, 3916.0364081084717, 3924.479542618989, 3948.052084952592, 3965.9731878101816]</t>
+          <t>[0, 20.94838137626647, 37.86827862262725, 68.84434530735011, 88.3769857645034, 111.38113472461693, 120.26923496723168, 151.44865448474877, 165.68899009227746, 165.68899009227746, 173.1965965151786, 190.07912498712534, 210.56480461359018, 234.53328498601908, 258.24021219015117, 278.0261492609977, 285.6531633138656, 301.53262031078333, 319.3243479490279, 323.57468707561486, 328.8373303890228, 330.0661803007125, 347.6745431661605, 368.45238251686084, 380.44088864326466, 403.5909836769103, 430.25708055496204, 452.4888862609862, 470.9557453393935, 504.06571543216694, 511.44077390432346, 533.002044570446, 550.1760919690131, 575.7720352292059, 598.5524795174597, 621.0671784996985, 629.116778719425, 657.9341210007666, 671.329938828945, 671.329938828945, 680.2326883912085, 702.1969492793082, 710.4299257755279, 734.791520667076, 757.1053204298018, 780.1072858572005, 798.0015001058578, 816.0142006635665, 831.1916751384734, 831.6113751411438, 852.9892364501952, 869.969591641426, 890.053591275215, 915.137187719345, 937.8175618648528, 959.2839057683943, 966.3952809095381, 988.5223430156706, 1007.8021259546277, 1016.7750641107557, 1022.2834043622015, 1028.7689185798167, 1041.4303469359875, 1060.4999218404294, 1074.1493154466152, 1097.2933992803096, 1129.4973952710627, 1150.3574513375759, 1175.5532232463358, 1191.103638356924, 1198.097789210081, 1222.0049897849558, 1236.1576389968393, 1249.646829551458, 1266.5339320123192, 1288.0697310388084, 1298.467131322622, 1324.6283689439294, 1348.041295355558, 1352.7018030345437, 1364.4532529532905, 1377.2860516965386, 1400.2378447949884, 1417.166729325056, 1443.107578152418, 1459.1133173406122, 1473.3949964165686, 1485.8883960962294, 1510.8325513362884, 1532.8556291818618, 1543.5104196667671, 1566.7556317448616, 1587.2413113713264, 1610.8146250367165, 1633.9078453183174, 1648.7331379294396, 1655.9760522007944, 1669.595164191723, 1692.7338927865028, 1715.8746280312537, 1721.5854018330572, 1741.4888986229894, 1758.7428303360937, 1780.4298200964924, 1803.2805759787557, 1821.8414904952047, 1829.384497606754, 1842.8361958861346, 1863.4321860909458, 1890.8232604622838, 1896.1736346364019, 1920.590983355045, 1934.5915146231648, 1946.3211920857427, 1961.836307263374, 1983.3721062898633, 1992.7215057611463, 2019.2736495733259, 2034.8020498037336, 2050.1321751117703, 2061.714764344692, 2080.545077061653, 2090.0839441776275, 2101.0756527662274, 2114.9996343016624, 2137.0248833060264, 2146.018483066559, 2171.695253324509, 2187.2984606266023, 2202.6357926368714, 2213.6514168977737, 2234.2649420022963, 2245.9708020687103, 2267.039430642128, 2289.7003558397296, 2312.2920226335527, 2329.217069888115, 2347.6486704587937, 2363.2067907571795, 2363.6264907598497, 2384.6455909490587, 2402.5189052820206, 2419.1514694213865, 2436.992452216148, 2457.4483613729476, 2479.9630603551864, 2488.851160597801, 2516.7236719846724, 2530.6790741205214, 2530.6790741205214, 2539.6215738773344, 2552.988441908359, 2577.5038859486576, 2595.8768394112585, 2621.328238260746, 2635.0502817273136, 2653.438048869371, 2669.0467810213563, 2691.252425819635, 2712.5331527531143, 2720.998829132318, 2739.2113985359665, 2758.892844229936, 2784.0227156460282, 2806.75547016263, 2820.9776100456716, 2828.5042167961597, 2841.2134296953677, 2859.2865359842776, 2882.290008884668, 2887.642730718851, 2901.19847176671, 2917.3891015589234, 2939.687564474344, 2960.6083806574343, 2981.654729706049, 2990.375129944086, 3017.302810436487, 3030.095259910822, 3030.095259910822, 3039.932009643316, 3057.5088177144526, 3077.191137355566, 3100.3453096091744, 3123.3785753905768, 3139.356833809614, 3147.5357822358606, 3166.220611685514, 3185.1811392962927, 3208.3218745410436, 3213.5161012828344, 3221.844010227918, 3234.5035788714877, 3257.757969802617, 3271.052690857648, 3293.7303117930883, 3323.1623081386083, 3345.6107776343815, 3365.0028963029376, 3380.7382735013953, 3387.5088189840308, 3395.10243051052, 3412.710793375968, 3432.6903927087774, 3443.3430585622777, 3465.5482423067083, 3493.0991887807836, 3514.9321553945533, 3539.3069040060036, 3563.846300959586, 3570.495934009551, 3583.4259964346875, 3606.998539340495, 3625.9034600138652, 3650.375958907603, 3664.233376777171, 3686.4520217597474, 3696.1008934795846, 3720.3386621057975, 3740.877038127183, 3749.3171520650376, 3766.534048885106, 3786.2163685262194, 3810.0084182918063, 3832.2558703124514, 3848.807432335614, 3856.467838603257, 3868.421506601571, 3886.992434221505, 3910.6458404123773, 3916.0364081084717, 3924.479542618989, 3948.052084952592, 3965.9731878101816, 3990.4456867039194, 4008.1640532791603, 4019.72312812209, 4035.9870682179917, 4059.853705805539, 4082.1242339551436, 4105.6523724973185]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[0, 7.95, 15.84, 21.21, 29.81, 37.63, 45.43, 54.63, 63.52, 71.21, 78.72, 87.67, 96.79, 106.28, 115.54, 124.09, 134.24, 144.33, 154.95, 164.15, 175.1, 185.88, 195.86, 204.91, 215.02, 225.37, 235.32, 245.07, 255.22, 266.26, 276.25, 285.41, 295.41, 306.57, 316.74, 325.67, 335.52, 346.01, 355.32, 364.14, 374.97, 385.83, 395.72, 405.09, 414.99, 425.24, 434.51, 443.64, 452.92, 463.83, 473.99, 484.51, 495.62, 507.69, 519.26, 530.15, 541.63, 554.53, 566.85, 578.09, 590.56, 603.23, 615.03, 627.65, 641.53, 653.84, 666.39, 679.3, 692.18, 703.85, 716.77, 730.84, 744.07, 756.77, 771.04, 783.18, 797.52, 811.33, 825.76, 839.68, 853.89, 867.32, 881.76, 897.2, 910.85, 924.26, 940.78, 954.92, 970.86, 984.94, 999.15, 1013.36, 1027.88, 1042.13, 1057.36, 1072.97, 1085.74, 1101.76, 1116.26, 1130.1, 1144.98, 1160.48, 1176.3, 1191.79, 1206.03, 1220.52, 1236.1, 1250.07, 1265.29, 1279.47, 1295.93, 1311.16, 1326.1, 1340.36, 1355.7, 1370.36, 1385.59, 1401.53, 1417.01, 1431.89, 1447.8, 1461.17, 1476.9, 1491.42, 1507.08, 1522.5, 1536.52, 1551.37, 1566.78, 1581.72, 1594.85, 1609.85, 1623.14, 1637.47, 1652.26, 1664.95, 1678.45, 1692.67, 1706.16, 1720.92, 1734.93, 1750.18, 1764.29, 1777.9, 1792.63, 1807.85, 1823.21, 1838.34, 1853.52, 1868.82, 1884.1, 1898.77, 1913.29, 1931.16, 1945.61, 1959.57, 1974.97, 1990.41, 2005.3, 2020.58, 2036.05, 2050.5, 2066.68, 2081.93, 2098.69, 2113.2, 2128.19, 2145.16, 2160.59, 2175.89, 2191.47, 2206.84, 2223.09, 2239.57, 2253.37, 2269.09, 2286.65, 2303.51, 2318.95, 2335.67, 2353.39, 2370.31, 2388.67, 2407.32, 2426.21, 2444.57, 2464.68, 2483.82, 2504.03, 2523.45, 2542.97, 2564.36, 2585.04, 2605.23, 2623.83, 2646.26, 2666.44, 2686.07, 2708.09, 2728.48, 2749.14, 2768.9, 2790.93, 2811.97, 2833.05, 2853.57, 2873.33, 2893.48, 2913.26, 2934.33, 2954.0, 2973.81, 2994.28, 3014.15, 3032.79, 3052.36, 3070.68, 3088.29, 3106.75, 3125.14, 3143.35, 3160.18, 3176.54, 3194.75, 3212.24, 3229.5, 3245.49, 3263.67, 3281.58, 3300.18, 3319.38, 3339.61, 3358.84, 3379.17]</t>
+          <t>[0, 7.95, 15.84, 21.21, 29.81, 37.63, 45.43, 54.63, 63.52, 71.21, 78.72, 87.67, 96.79, 106.28, 115.54, 124.09, 134.24, 144.33, 154.95, 164.15, 175.1, 185.88, 195.86, 204.91, 215.02, 225.37, 235.32, 245.07, 255.22, 266.26, 276.25, 285.41, 295.41, 306.57, 316.74, 325.67, 335.52, 346.01, 355.32, 364.14, 374.97, 385.83, 395.72, 405.09, 414.99, 425.24, 434.51, 443.64, 452.92, 463.83, 473.99, 484.51, 495.62, 507.69, 519.26, 530.15, 541.63, 554.53, 566.85, 578.09, 590.56, 603.23, 615.03, 627.65, 641.53, 653.84, 666.39, 679.3, 692.18, 703.85, 716.77, 730.84, 744.07, 756.77, 771.04, 783.18, 797.52, 811.33, 825.76, 839.68, 853.89, 867.32, 881.76, 897.2, 910.85, 924.26, 940.78, 954.92, 970.86, 984.94, 999.15, 1013.36, 1027.88, 1042.13, 1057.36, 1072.97, 1085.74, 1101.76, 1116.26, 1130.1, 1144.98, 1160.48, 1176.3, 1191.79, 1206.03, 1220.52, 1236.1, 1250.07, 1265.29, 1279.47, 1295.93, 1311.16, 1326.1, 1340.36, 1355.7, 1370.36, 1385.59, 1401.53, 1417.01, 1431.89, 1447.8, 1461.17, 1476.9, 1491.42, 1507.08, 1522.5, 1536.52, 1551.37, 1566.78, 1581.72, 1594.85, 1609.85, 1623.14, 1637.47, 1652.26, 1664.95, 1678.45, 1692.67, 1706.16, 1720.92, 1734.93, 1750.18, 1764.29, 1777.9, 1792.63, 1807.85, 1823.21, 1838.34, 1853.52, 1868.82, 1884.1, 1898.77, 1913.29, 1931.16, 1945.61, 1959.57, 1974.97, 1990.41, 2005.3, 2020.58, 2036.05, 2050.5, 2066.68, 2081.93, 2098.69, 2113.2, 2128.19, 2145.16, 2160.59, 2175.89, 2191.47, 2206.84, 2223.09, 2239.57, 2253.37, 2269.09, 2286.65, 2303.51, 2318.95, 2335.67, 2353.39, 2370.31, 2388.67, 2407.32, 2426.21, 2444.57, 2464.68, 2483.82, 2504.03, 2523.45, 2542.97, 2564.36, 2585.04, 2605.23, 2623.83, 2646.26, 2666.44, 2686.07, 2708.09, 2728.48, 2749.14, 2768.9, 2790.93, 2811.97, 2833.05, 2853.57, 2873.33, 2893.48, 2913.26, 2934.33, 2954.0, 2973.81, 2994.28, 3014.15, 3032.79, 3052.36, 3070.68, 3088.29, 3106.75, 3125.14, 3143.35, 3160.18, 3176.54, 3194.75, 3212.24, 3229.5, 3245.49, 3263.67, 3281.58, 3300.18, 3319.38, 3339.61, 3358.84, 3379.17, 3400.63, 3421.79, 3443.4, 3464.26, 3485.33, 3503.98, 3524.03]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[0, 0, 0, -10, 0, 0, -10, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, -10, 0, -20, -20, 0, -10, 0, 0, 0, -20, 0, 0, -10, -10, -10, 0, -10, -10, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, 0, -10, -20, -10, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, -10, 0, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, 0, -10, -10, 0, -10, -10, 0, -10, 0, 0, -20, 0, 0, 0, -10, -10, -10, 0, -20, 0, -10]</t>
+          <t>[0, 0, 0, 0, 0, 0, -20, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, -10, 0, -20, -20, 0, -10, 0, 0, 0, -20, 0, 0, -10, -10, -10, 0, -10, -10, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, 0, -10, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, -10, 0, -20, -20, -20, 0, -20, -20, -20, -20, -20, 0, -10, -10, -10, 0, -10, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -20, 0, -10]</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -954,37 +954,37 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[100, 105, 107, 107, 117, 166, 171, 171, 171, 171, 219, 261, 261, 267, 268, 311, 369, 418, 419, 429, 434, 468, 468, 483, 486, 530, 584, 639, 662, 681, 684, 696, 700, 700, 720, 767, 799, 799, 799, 799, 810, 822, 843, 843, 843, 875, 875, 920, 925, 925, 937, 951, 955, 956, 959, 1002, 1027, 1027, 1027, 1027, 1054, 1054, 1058, 1058, 1110, 1114, 1114, 1145, 1156, 1156, 1156, 1156, 1160, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1218, 1218, 1218, 1218, 1218, 1236, 1281, 1341, 1341, 1348, 1367, 1367, 1377, 1377, 1424, 1484, 1540, 1544, 1551, 1557, 1557, 1593, 1610, 1610, 1610, 1610, 1610, 1612, 1612, 1612, 1647, 1647, 1647, 1647, 1647, 1663, 1710, 1770, 1770, 1795, 1833, 1833, 1861, 1861, 1905, 1958, 2010, 2011, 2017, 2028, 2060, 2061, 2069, 2070, 2113, 2171, 2224, 2235, 2271, 2276, 2307, 2307, 2310, 2317, 2360, 2419, 2473, 2521, 2524, 2528, 2566, 2566, 2595, 2598, 2639, 2694, 2741, 2742, 2752, 2759, 2764, 2818, 2848, 2848, 2882, 2882, 2884, 2887, 2887, 2903, 2915, 2920, 2920, 2950, 2998, 3026, 3026, 3026, 3026, 3052, 3093, 3093, 3129, 3131, 3172, 3228, 3282, 3284, 3287, 3292, 3324, 3324, 3324, 3324, 3335, 3335, 3375, 3435, 3435, 3459, 3459, 3459, 3459, 3459, 3460, 3466, 3476, 3506, 3506, 3506, 3541, 3546, 3549, 3587, 3629, 3659, 3659, 3659, 3659, 3685, 3686, 3686, 3692, 3731, 3732, 3732, 3759, 3786]</t>
+          <t>[100, 105, 107, 107, 117, 166, 171, 171, 171, 171, 219, 261, 261, 267, 268, 311, 369, 418, 419, 429, 434, 468, 468, 483, 486, 530, 584, 639, 662, 681, 684, 696, 700, 700, 720, 767, 799, 799, 799, 799, 810, 822, 843, 843, 843, 875, 875, 920, 925, 925, 937, 951, 955, 956, 959, 1002, 1027, 1027, 1027, 1027, 1054, 1054, 1058, 1058, 1110, 1114, 1114, 1145, 1156, 1156, 1156, 1156, 1160, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1218, 1218, 1218, 1218, 1218, 1236, 1281, 1341, 1341, 1348, 1367, 1367, 1377, 1377, 1424, 1484, 1540, 1544, 1551, 1557, 1557, 1593, 1610, 1610, 1610, 1610, 1610, 1612, 1612, 1612, 1647, 1647, 1647, 1647, 1647, 1663, 1710, 1770, 1770, 1795, 1833, 1833, 1861, 1861, 1905, 1958, 2010, 2011, 2017, 2028, 2060, 2061, 2069, 2070, 2113, 2171, 2224, 2235, 2271, 2276, 2307, 2307, 2310, 2317, 2360, 2419, 2473, 2521, 2524, 2528, 2566, 2566, 2595, 2598, 2639, 2694, 2741, 2742, 2752, 2759, 2764, 2818, 2848, 2848, 2882, 2882, 2884, 2887, 2887, 2903, 2915, 2920, 2920, 2950, 2998, 3026, 3026, 3026, 3026, 3052, 3093, 3093, 3129, 3131, 3172, 3228, 3282, 3284, 3287, 3292, 3324, 3324, 3324, 3324, 3335, 3335, 3375, 3435, 3435, 3459, 3459, 3459, 3459, 3459, 3460, 3466, 3476, 3506, 3506, 3506, 3541, 3546, 3549, 3587, 3629, 3659, 3659, 3659, 3659, 3685, 3686, 3686, 3692, 3731, 3732, 3732, 3759, 3786, 3786, 3787, 3788, 3793, 3793, 3793, 3795, 3795, 3821, 3836, 3836, 3836]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[0.012, 0.011, 0.011, 0.011, 0.014, 0.017, 0.017, 0.017, 0.017, 0.017, 0.032, 0.032, 0.032, 0.032, 0.07, 0.07, 0.058, 0.056, 0.054, 0.057, 0.058, 0.058, 0.058, 0.059, 0.059, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.057, 0.057, 0.057, 0.057, 0.057, 0.057, 0.058, 0.063, 0.062, 0.062, 0.062, 0.059, 0.059, 0.058, 0.058, 0.058, 0.057, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.069, 0.069, 0.069, 0.079, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.074, 0.074, 0.074, 0.074, 0.074, 0.074, 0.078, 0.075, 0.075, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.08, 0.08, 0.08, 0.079, 0.079, 0.079, 0.079, 0.079, 0.079, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.083, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.085, 0.085, 0.085, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.085, 0.085, 0.085, 0.086, 0.086, 0.087, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.094, 0.094]</t>
+          <t>[0.012, 0.011, 0.011, 0.011, 0.014, 0.017, 0.017, 0.017, 0.017, 0.017, 0.032, 0.032, 0.032, 0.032, 0.07, 0.07, 0.058, 0.056, 0.054, 0.057, 0.058, 0.058, 0.058, 0.059, 0.059, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.057, 0.057, 0.057, 0.057, 0.057, 0.057, 0.058, 0.063, 0.062, 0.062, 0.062, 0.059, 0.059, 0.058, 0.058, 0.058, 0.057, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.069, 0.069, 0.069, 0.079, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.074, 0.074, 0.074, 0.074, 0.074, 0.074, 0.078, 0.075, 0.075, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.08, 0.08, 0.08, 0.079, 0.079, 0.079, 0.079, 0.079, 0.079, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.083, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.085, 0.085, 0.085, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.085, 0.085, 0.085, 0.086, 0.086, 0.087, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.095, 0.095, 0.095, 0.095]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0, 21.16186676025392, 36.72277810573579, 56.94529085159304, 79.72573513984685, 103.70878405570988, 112.26148428916936, 138.71663265228275, 152.41597809791568, 152.41597809791568, 160.06300541162494, 184.973167192936, 197.96647180914886, 209.2832266092301, 223.27966049909597, 244.32600954771047, 254.0526098132134, 279.1009604811669, 294.66811519861227, 311.9207994103432, 326.9293015956879, 350.3675949573517, 364.2795100450516, 376.8464415431023, 393.5559995174408, 415.09179854393005, 424.14759879112245, 450.79330377578736, 471.3555914640427, 489.61807602643967, 502.33812617063523, 521.3382888197899, 536.678233063221, 556.3268146872521, 577.7125378966332, 600.7166868567467, 609.7657746553422, 637.6382860422135, 651.1261005640031, 651.1261005640031, 660.5256499171257, 674.2465579986573, 689.5033848226071, 712.2787541091443, 737.7301529586316, 752.5622446238996, 778.1277649462224, 797.4378912270071, 821.7501311123373, 843.278308349848, 852.7292621433737, 871.7888380587103, 890.7638057053091, 915.0096615612508, 937.7901058495046, 958.8364548981191, 968.2276551544668, 996.1001665413381, 1010.1814715206625, 1010.1814715206625, 1020.3759212434294, 1039.9954868972304, 1060.8305591046812, 1083.631165879965, 1109.026061910391, 1125.1711227118972, 1133.1886658608917, 1146.691684240103, 1164.7756079137328, 1189.8053827703002, 1195.2674369037154, 1201.308799928427, 1213.2539064347748, 1236.1549016892914, 1247.0678261697296, 1271.1628212392334, 1296.5385690629487, 1319.0601756513124, 1338.856477874518, 1372.9124471127993, 1380.1666137158877, 1401.6985900104053, 1413.0781632006176, 1435.9811740696439, 1460.7734295904645, 1484.6433937132367, 1502.0440962374219, 1520.8945968210705, 1536.7114157259473, 1537.1311157286175, 1558.1589677870281, 1582.5277974188336, 1599.5142960131177, 1612.4868573486813, 1628.443686753512, 1651.4478357136256, 1661.4157842218883, 1688.5459565699107, 1704.9358608782297, 1709.8124074518687, 1722.7487576186663, 1723.5971576392658, 1743.1091273009783, 1766.4362760007389, 1780.0190654218204, 1804.1140602529056, 1835.3940563619144, 1860.4742394387729, 1877.3417837440975, 1901.44318240285, 1908.0928252875813, 1930.2550711810597, 1946.8430572807797, 1968.717985779048, 1989.625202947856, 2012.6721683084975, 2029.996668201686, 2049.6849688112743, 2065.501787716151, 2065.921487718821, 2087.323537832499, 2111.2271080553537, 2123.5954993009573, 2133.373823982478, 2147.7210646450526, 2169.256863671542, 2178.1449639141565, 2203.3370411694054, 2218.651046544314, 2229.2213003933434, 2240.640740376711, 2263.1209444820884, 2277.403354007006, 2290.5267367661, 2307.604490226507, 2328.6508392751216, 2338.3774395406244, 2364.0542097985744, 2381.7841083467006, 2408.6155038058755, 2420.3895539343353, 2443.7829354345795, 2457.111530691385, 2469.3909273743625, 2479.9789607882494, 2501.025309836864, 2510.9196101069447, 2537.080847728252, 2560.108259832859, 2586.673153603077, 2596.6735713481903, 2622.066362285614, 2635.060991871357, 2649.133898437023, 2664.793541121483, 2684.860990214348, 2694.084490466118, 2718.9924993753434, 2735.427259874344, 2770.8471182346348, 2781.624965834618, 2797.5780378699305, 2818.187024486065, 2830.7813456416134, 2856.2327444911007, 2871.751000773907, 2886.125026547909, 2896.109538078308, 2918.45036239624, 2939.9785396337506, 2948.1529974937434, 2967.1179034948345, 2981.359488177299, 3003.9469164609905, 3024.40282561779, 3047.896424555778, 3057.3986247777934, 3077.7990578651425, 3092.361895227432, 3092.361895227432, 3102.1986449599262, 3126.633247220516, 3138.6881412148473, 3148.828865253925, 3165.7252097129817, 3185.7926588058467, 3195.0584567070005, 3221.219694328308, 3235.492852306366, 3236.8910046100614, 3256.993000745773, 3277.877238130569, 3294.95566163063, 3316.264074993133, 3341.7620636701577, 3365.8907305479042, 3385.00500485897, 3401.761005377769, 3417.5778242826455, 3417.9975242853156, 3439.3788348436346, 3453.5635355472555, 3472.844175195693, 3495.131491279601, 3518.8452538490287, 3534.1279953002922, 3542.256594169139, 3555.4990251898757, 3574.9194974541656, 3599.949272310733, 3605.796128129958, 3619.6636209487906, 3636.0752178907387, 3657.9082200288767, 3679.2939432382577, 3699.8508423089975, 3708.724317598342, 3736.1244135379784, 3748.650148987769, 3748.650148987769, 3758.3080487251273, 3777.4740511894215, 3797.5580508232106, 3819.7338001966464, 3843.1354709386815, 3860.657929444312, 3867.4394894480693, 3885.9671506524073, 3905.176588928698]</t>
+          <t>[0, 21.16186676025392, 36.72277810573579, 56.94529085159304, 79.72573513984685, 103.70878405570988, 112.26148428916936, 138.71663265228275, 152.41597809791568, 152.41597809791568, 160.06300541162494, 184.973167192936, 197.96647180914886, 209.2832266092301, 223.27966049909597, 244.32600954771047, 254.0526098132134, 279.1009604811669, 294.66811519861227, 311.9207994103432, 326.9293015956879, 350.3675949573517, 364.2795100450516, 376.8464415431023, 393.5559995174408, 415.09179854393005, 424.14759879112245, 450.79330377578736, 471.3555914640427, 489.61807602643967, 502.33812617063523, 521.3382888197899, 536.678233063221, 556.3268146872521, 577.7125378966332, 600.7166868567467, 609.7657746553422, 637.6382860422135, 651.1261005640031, 651.1261005640031, 660.5256499171257, 674.2465579986573, 689.5033848226071, 712.2787541091443, 737.7301529586316, 752.5622446238996, 778.1277649462224, 797.4378912270071, 821.7501311123373, 843.278308349848, 852.7292621433737, 871.7888380587103, 890.7638057053091, 915.0096615612508, 937.7901058495046, 958.8364548981191, 968.2276551544668, 996.1001665413381, 1010.1814715206625, 1010.1814715206625, 1020.3759212434294, 1039.9954868972304, 1060.8305591046812, 1083.631165879965, 1109.026061910391, 1125.1711227118972, 1133.1886658608917, 1146.691684240103, 1164.7756079137328, 1189.8053827703002, 1195.2674369037154, 1201.308799928427, 1213.2539064347748, 1236.1549016892914, 1247.0678261697296, 1271.1628212392334, 1296.5385690629487, 1319.0601756513124, 1338.856477874518, 1372.9124471127993, 1380.1666137158877, 1401.6985900104053, 1413.0781632006176, 1435.9811740696439, 1460.7734295904645, 1484.6433937132367, 1502.0440962374219, 1520.8945968210705, 1536.7114157259473, 1537.1311157286175, 1558.1589677870281, 1582.5277974188336, 1599.5142960131177, 1612.4868573486813, 1628.443686753512, 1651.4478357136256, 1661.4157842218883, 1688.5459565699107, 1704.9358608782297, 1709.8124074518687, 1722.7487576186663, 1723.5971576392658, 1743.1091273009783, 1766.4362760007389, 1780.0190654218204, 1804.1140602529056, 1835.3940563619144, 1860.4742394387729, 1877.3417837440975, 1901.44318240285, 1908.0928252875813, 1930.2550711810597, 1946.8430572807797, 1968.717985779048, 1989.625202947856, 2012.6721683084975, 2029.996668201686, 2049.6849688112743, 2065.501787716151, 2065.921487718821, 2087.323537832499, 2111.2271080553537, 2123.5954993009573, 2133.373823982478, 2147.7210646450526, 2169.256863671542, 2178.1449639141565, 2203.3370411694054, 2218.651046544314, 2229.2213003933434, 2240.640740376711, 2263.1209444820884, 2277.403354007006, 2290.5267367661, 2307.604490226507, 2328.6508392751216, 2338.3774395406244, 2364.0542097985744, 2381.7841083467006, 2408.6155038058755, 2420.3895539343353, 2443.7829354345795, 2457.111530691385, 2469.3909273743625, 2479.9789607882494, 2501.025309836864, 2510.9196101069447, 2537.080847728252, 2560.108259832859, 2586.673153603077, 2596.6735713481903, 2622.066362285614, 2635.060991871357, 2649.133898437023, 2664.793541121483, 2684.860990214348, 2694.084490466118, 2718.9924993753434, 2735.427259874344, 2770.8471182346348, 2781.624965834618, 2797.5780378699305, 2818.187024486065, 2830.7813456416134, 2856.2327444911007, 2871.751000773907, 2886.125026547909, 2896.109538078308, 2918.45036239624, 2939.9785396337506, 2948.1529974937434, 2967.1179034948345, 2981.359488177299, 3003.9469164609905, 3024.40282561779, 3047.896424555778, 3057.3986247777934, 3077.7990578651425, 3092.361895227432, 3092.361895227432, 3102.1986449599262, 3126.633247220516, 3138.6881412148473, 3148.828865253925, 3165.7252097129817, 3185.7926588058467, 3195.0584567070005, 3221.219694328308, 3235.492852306366, 3236.8910046100614, 3256.993000745773, 3277.877238130569, 3294.95566163063, 3316.264074993133, 3341.7620636701577, 3365.8907305479042, 3385.00500485897, 3401.761005377769, 3417.5778242826455, 3417.9975242853156, 3439.3788348436346, 3453.5635355472555, 3472.844175195693, 3495.131491279601, 3518.8452538490287, 3534.1279953002922, 3542.256594169139, 3555.4990251898757, 3574.9194974541656, 3599.949272310733, 3605.796128129958, 3619.6636209487906, 3636.0752178907387, 3657.9082200288767, 3679.2939432382577, 3699.8508423089975, 3708.724317598342, 3736.1244135379784, 3748.650148987769, 3748.650148987769, 3758.3080487251273, 3777.4740511894215, 3797.5580508232106, 3819.7338001966464, 3843.1354709386815, 3860.657929444312, 3867.4394894480693, 3885.9671506524073, 3905.176588928698, 3924.066985046862, 3929.7777588486656, 3946.907900869845, 3966.9844308733927, 3991.351018178462, 4015.0231685042368, 4031.6916040778146, 4039.611602854727, 4055.6891433238966, 4076.064312291144, 4104.872166371344, 4110.702961468695]</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>[0, 6.07, 12.81, 18.89, 25.59, 32.96, 40.58, 46.83, 53.38, 60.59, 69.27, 78.23, 86.85, 95.69, 105.25, 114.97, 124.99, 136.04, 146.36, 156.51, 167.47, 177.53, 187.88, 198.29, 208.36, 218.61, 229.96, 241.69, 252.83, 263.25, 274.5, 286.06, 297.03, 307.19, 318.58, 330.76, 342.05, 353.73, 364.73, 375.28, 386.82, 398.54, 409.32, 420.76, 430.92, 441.74, 453.06, 464.86, 475.98, 487.04, 499.49, 510.28, 520.94, 532.94, 545.56, 556.76, 569.14, 582.8, 594.12, 607.2, 620.33, 630.76, 642.27, 654.94, 666.87, 678.84, 690.89, 705.94, 718.33, 731.27, 745.18, 757.75, 771.24, 785.09, 797.88, 811.68, 826.05, 839.01, 852.59, 866.25, 878.16, 891.48, 906.02, 920.48, 934.42, 949.49, 961.94, 975.0, 989.46, 1001.44, 1015.38, 1030.41, 1044.16, 1058.57, 1072.63, 1085.74, 1100.65, 1115.27, 1128.77, 1144.46, 1158.92, 1172.12, 1186.13, 1202.61, 1215.79, 1230.64, 1245.42, 1259.34, 1274.53, 1288.02, 1302.5, 1317.23, 1330.69, 1344.43, 1359.1, 1372.43, 1387.4, 1401.71, 1414.84, 1428.69, 1444.05, 1458.21, 1473.49, 1487.65, 1501.94, 1516.32, 1529.38, 1543.52, 1558.48, 1572.29, 1586.1, 1599.64, 1613.88, 1627.58, 1640.66, 1654.14, 1667.86, 1682.99, 1696.94, 1711.91, 1726.32, 1740.0, 1755.62, 1770.29, 1784.76, 1799.76, 1814.48, 1829.26, 1844.03, 1858.51, 1873.7, 1890.08, 1905.17, 1921.24, 1936.21, 1952.45, 1967.39, 1983.57, 2000.04, 2014.26, 2029.94, 2045.98, 2060.43, 2075.13, 2091.72, 2106.67, 2123.53, 2139.26, 2154.72, 2171.5, 2187.46, 2202.85, 2220.42, 2238.07, 2257.09, 2274.6, 2291.52, 2310.39, 2330.02, 2348.29, 2366.08, 2387.14, 2407.77, 2426.96, 2445.07, 2466.03, 2487.2, 2507.62, 2526.41, 2546.88, 2567.26, 2587.31, 2607.08, 2628.27, 2649.39, 2669.73, 2691.52, 2712.7, 2735.05, 2754.89, 2776.13, 2797.12, 2818.74, 2841.44, 2865.17, 2886.82, 2908.33, 2930.87, 2952.3, 2973.69, 2995.18, 3015.6, 3037.32, 3056.85, 3077.01, 3096.83, 3117.33, 3136.0, 3157.76, 3177.26, 3195.8, 3213.57, 3232.85, 3252.26, 3270.86, 3289.55, 3309.68, 3329.49, 3351.89]</t>
+          <t>[0, 6.07, 12.81, 18.89, 25.59, 32.96, 40.58, 46.83, 53.38, 60.59, 69.27, 78.23, 86.85, 95.69, 105.25, 114.97, 124.99, 136.04, 146.36, 156.51, 167.47, 177.53, 187.88, 198.29, 208.36, 218.61, 229.96, 241.69, 252.83, 263.25, 274.5, 286.06, 297.03, 307.19, 318.58, 330.76, 342.05, 353.73, 364.73, 375.28, 386.82, 398.54, 409.32, 420.76, 430.92, 441.74, 453.06, 464.86, 475.98, 487.04, 499.49, 510.28, 520.94, 532.94, 545.56, 556.76, 569.14, 582.8, 594.12, 607.2, 620.33, 630.76, 642.27, 654.94, 666.87, 678.84, 690.89, 705.94, 718.33, 731.27, 745.18, 757.75, 771.24, 785.09, 797.88, 811.68, 826.05, 839.01, 852.59, 866.25, 878.16, 891.48, 906.02, 920.48, 934.42, 949.49, 961.94, 975.0, 989.46, 1001.44, 1015.38, 1030.41, 1044.16, 1058.57, 1072.63, 1085.74, 1100.65, 1115.27, 1128.77, 1144.46, 1158.92, 1172.12, 1186.13, 1202.61, 1215.79, 1230.64, 1245.42, 1259.34, 1274.53, 1288.02, 1302.5, 1317.23, 1330.69, 1344.43, 1359.1, 1372.43, 1387.4, 1401.71, 1414.84, 1428.69, 1444.05, 1458.21, 1473.49, 1487.65, 1501.94, 1516.32, 1529.38, 1543.52, 1558.48, 1572.29, 1586.1, 1599.64, 1613.88, 1627.58, 1640.66, 1654.14, 1667.86, 1682.99, 1696.94, 1711.91, 1726.32, 1740.0, 1755.62, 1770.29, 1784.76, 1799.76, 1814.48, 1829.26, 1844.03, 1858.51, 1873.7, 1890.08, 1905.17, 1921.24, 1936.21, 1952.45, 1967.39, 1983.57, 2000.04, 2014.26, 2029.94, 2045.98, 2060.43, 2075.13, 2091.72, 2106.67, 2123.53, 2139.26, 2154.72, 2171.5, 2187.46, 2202.85, 2220.42, 2238.07, 2257.09, 2274.6, 2291.52, 2310.39, 2330.02, 2348.29, 2366.08, 2387.14, 2407.77, 2426.96, 2445.07, 2466.03, 2487.2, 2507.62, 2526.41, 2546.88, 2567.26, 2587.31, 2607.08, 2628.27, 2649.39, 2669.73, 2691.52, 2712.7, 2735.05, 2754.89, 2776.13, 2797.12, 2818.74, 2841.44, 2865.17, 2886.82, 2908.33, 2930.87, 2952.3, 2973.69, 2995.18, 3015.6, 3037.32, 3056.85, 3077.01, 3096.83, 3117.33, 3136.0, 3157.76, 3177.26, 3195.8, 3213.57, 3232.85, 3252.26, 3270.86, 3289.55, 3309.68, 3329.49, 3351.89, 3374.36, 3395.14, 3417.47, 3437.68, 3460.75, 3481.32, 3503.36, 3519.28, 3537.28, 3551.88, 3568.76, 3585.45]</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>[-20, -20, 0, 0, -20, 0, 0, 0, 0, 0, -10, -10, 0, -20, 0, -20, 0, -10, -20, -20, 0, 0, -10, -10, 0, 0, 0, -20, 0, -20, -20, -10, 0, -10, -10, -20, 0, -10, 0, -20, 0, 0, -20, -10, -20, -20, 0, 0, -10, -10, -20, -10, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, -20, -10, -10, 0, -10, 0, 0, 0, -20, 0, -20, 0, 0, 0, -10, -10, -10, 0, 0, -20, -10, 0, 0, -10, -10, -10, 0, 0, 0, -20, -20, -10, 0, -10, 0]</t>
+          <t>[-10, -20, -20, -10, -10, 0, 0, 0, 0, 0, 0, 0, 0, -20, 0, -10, 0, -20, -10, 0, -20, -10, 0, -20, 0, -20, -10, -20, -20, 0, 0, -20, 0, 0, -20, -20, -10, -20, 0, -10, 0, -20, 0, 0, -20, -10, -20, 0, -20, -10, -10, -10, 0, -10, 0, 0, -10, 0, 0, 0, 0, -10, 0, -20, 0, -10, -20, 0, -10, -10, 0, -20, -10, 0, 0, 0, -20, 0, 0, 0, 0, 0, -20, 0, 0, 0, -10, -20, -20, 0, -10, 0, -10, 0, 0, 0, -10, -10, -20, 0]</t>
         </is>
       </c>
     </row>
@@ -1092,37 +1092,37 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717]</t>
+          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717, 717, 717, 717, 729, 731, 731, 746, 746, 764, 780, 780, 780, 780, 781, 784, 784, 784, 784, 784, 806, 806, 877, 914, 963, 967, 1020, 1020]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008]</t>
+          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202]</t>
+          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202, 1403.931123274565, 1428.6690860927106, 1448.1900470912458, 1467.8783477008344, 1483.9538652122021, 1484.3735652148723, 1506.9493923842906, 1515.1948925733566, 1532.8032554388046, 1555.7160943984986, 1570.0211973667147, 1597.4233472347262, 1624.2882991790775, 1652.2686135768895, 1662.2393829345708, 1680.4487084865575, 1688.0655608892446, 1719.679908251763, 1738.130481910706, 1754.6876864671713, 1776.087821722031, 1810.8387701511388, 1823.2067697048192, 1859.0573545932775, 1880.4394360303884, 1913.9950913190846, 1930.8942358016973]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08]</t>
+          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08, 83.84, 84.86, 86.16, 87.47, 88.45, 89.97, 91.31, 92.71, 94.08, 95.33, 96.47, 97.48, 98.4, 99.55, 100.75, 102.05, 102.8, 103.57, 104.24, 105.15, 106.1, 107.24, 108.28, 109.65, 110.74, 111.91, 113.33]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[-10, -10, -10, 0, -10, 0, -10, -10, 0, -20, -20, 0, 0, 0, 0, 0, 0, -20, -20, -20, -10, 0, -20, 0, -20, 0, -20, -20, -20, 0, 0, -20, 0, -20, -10, 0, -20, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, 0, 0, -20, -20, -10, 0, -20, 0, -10, 0, -10, 0, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, -10, 0, -10, 0, -10, 0, -10, 0, 0, 0]</t>
+          <t>[0, -10, -10, -10, -10, 0, -10, -10, 0, -20, -20, 0, 0, -10, 0, 0, 0, -20, -20, -20, 0, 0, -10, 0, -20, 0, -20, -20, -20, 0, 0, -20, -10, -20, -10, 0, -20, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, 0, 0, -20, -10, -20, 0, -20, 0, -10, 0, -20, -10, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1161,37 +1161,37 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400, 421, 424, 479, 479, 479, 479, 479, 493, 500, 501, 507, 507, 555, 592, 642, 643, 699, 706, 706, 706, 706, 706, 728, 728, 733, 751, 751, 751, 751, 755, 759, 759, 759, 759, 759, 805, 805, 805, 805, 841]</t>
+          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400, 421, 424, 479, 479, 479, 479, 479, 493, 500, 501, 507, 507, 555, 592, 642, 643, 699, 706, 706, 706, 706, 706, 728, 728, 733, 751, 751, 751, 751, 755, 759, 759, 759, 759, 759, 805, 805, 805, 805, 841, 868, 868, 899, 899, 899, 899, 907, 907, 907, 908, 916, 916, 951, 951, 951, 951, 954, 954, 962, 966, 993, 1019, 1048, 1058, 1058, 1058, 1058, 1089]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363, 0.382, 0.38, 0.387, 0.387, 0.387, 0.387, 0.387, 0.38, 0.389, 0.387, 0.387, 0.387, 0.389, 0.395, 0.4, 0.406, 0.414, 0.419, 0.419, 0.419, 0.419, 0.419, 0.421, 0.421, 0.429, 0.43, 0.43, 0.43, 0.43, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.444, 0.444, 0.444, 0.444, 0.442]</t>
+          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363, 0.382, 0.38, 0.387, 0.387, 0.387, 0.387, 0.387, 0.38, 0.389, 0.387, 0.387, 0.387, 0.389, 0.395, 0.4, 0.406, 0.414, 0.419, 0.419, 0.419, 0.419, 0.419, 0.421, 0.421, 0.429, 0.43, 0.43, 0.43, 0.43, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.444, 0.444, 0.444, 0.444, 0.442, 0.442, 0.442, 0.453, 0.453, 0.453, 0.453, 0.459, 0.459, 0.459, 0.459, 0.459, 0.459, 0.457, 0.457, 0.457, 0.457, 0.464, 0.464, 0.468, 0.47, 0.474, 0.483, 0.483, 0.483, 0.483, 0.483, 0.483, 0.485]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643, 602.1897409915923, 625.435092306137, 652.3548410892486, 660.7398413181304, 688.1398109436034, 702.1122611522674, 702.1122611522674, 711.7701608896255, 728.6085087299346, 742.128211545944, 756.5295929431913, 774.572093605995, 800.0234924554823, 810.2014386177061, 838.7850130558012, 854.3543200492857, 881.385264587402, 891.896761012077, 910.8810156822202, 921.7189058542249, 944.7476429224012, 967.0159010648724, 979.950374627113, 987.8648782014843, 1000.8310764789578, 1019.0124041080471, 1048.2925180912014, 1052.162108814716, 1067.9028018355366, 1082.8718317866321, 1104.7385104298587, 1118.2000647425648, 1143.7124028563496, 1177.3129985213277, 1199.2163547396658, 1225.8960048556326, 1251.7422035098073, 1258.8754462361333, 1266.270257747173, 1283.4027189135547]</t>
+          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643, 602.1897409915923, 625.435092306137, 652.3548410892486, 660.7398413181304, 688.1398109436034, 702.1122611522674, 702.1122611522674, 711.7701608896255, 728.6085087299346, 742.128211545944, 756.5295929431913, 774.572093605995, 800.0234924554823, 810.2014386177061, 838.7850130558012, 854.3543200492857, 881.385264587402, 891.896761012077, 910.8810156822202, 921.7189058542249, 944.7476429224012, 967.0159010648724, 979.950374627113, 987.8648782014843, 1000.8310764789578, 1019.0124041080471, 1048.2925180912014, 1052.162108814716, 1067.9028018355366, 1082.8718317866321, 1104.7385104298587, 1118.2000647425648, 1143.7124028563496, 1177.3129985213277, 1199.2163547396658, 1225.8960048556326, 1251.7422035098073, 1258.8754462361333, 1266.270257747173, 1283.4027189135547, 1307.785366427898, 1319.8159505248066, 1343.91093724966, 1370.119533860683, 1393.4137344717976, 1413.2146315455434, 1429.5828926920888, 1436.8988103151319, 1462.691160702705, 1477.5622464418407, 1492.3783710062498, 1511.6511549770826, 1541.5076036274427, 1552.1196532428257, 1581.672162407636, 1603.1054525077336, 1619.4347624957554, 1636.1285126388066, 1658.1463709533207, 1680.491656535863, 1712.441027301549, 1741.7301699578752, 1775.0127684533586, 1787.4713563263406, 1823.8471533596505, 1841.6069319307794, 1841.6069319307794, 1854.1264315903177]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99, 2.09, 2.16, 2.21, 2.32, 2.39, 2.47, 2.55, 2.64, 2.7, 2.8, 2.88, 2.95, 3.06, 3.16, 3.26, 3.32, 3.41, 3.48, 3.58, 3.68, 3.75, 3.82, 3.93, 4.02, 4.09, 4.18, 4.29, 4.36, 4.5, 4.6, 4.68, 4.78, 4.87, 4.94, 5.06, 5.18, 5.25, 5.38, 5.52, 5.62]</t>
+          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99, 2.09, 2.16, 2.21, 2.32, 2.39, 2.47, 2.55, 2.64, 2.7, 2.8, 2.88, 2.95, 3.06, 3.16, 3.26, 3.32, 3.41, 3.48, 3.58, 3.68, 3.75, 3.82, 3.93, 4.02, 4.09, 4.18, 4.29, 4.36, 4.5, 4.6, 4.68, 4.78, 4.87, 4.94, 5.06, 5.18, 5.25, 5.38, 5.52, 5.62, 5.71, 5.82, 5.94, 6.03, 6.17, 6.24, 6.35, 6.46, 6.55, 6.71, 6.8, 6.88, 6.97, 7.06, 7.17, 7.28, 7.36, 7.44, 7.53, 7.62, 7.71, 7.8, 7.9, 8.0, 8.09, 8.18, 8.25, 8.36]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[0, -10, -10, -20, -20, 0, -20, -10, 0, -10, -10, 0, 0, -10, 0, 0, 0, -10, -20, 0, -10, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, 0, -20, 0, 0, -20, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, 0, -10, -20, -10, 0, 0, -10, -10, -10, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0]</t>
+          <t>[0, -10, 0, -20, -20, 0, -20, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, 0, -20, 0, -20, 0, 0, -20, -10, -20, -10, 0, -20, -10, 0, -10, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, 0, -10, 0, -20, -10, 0, -10, -10, -10, 0, -10, -10, 0, 0, -10, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0]</t>
         </is>
       </c>
     </row>

--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -1092,32 +1092,32 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717, 717, 717, 717, 729, 731, 731, 746, 746, 764, 780, 780, 780, 780, 781, 784, 784, 784, 784, 784, 806, 806, 877, 914, 963, 967, 1020, 1020]</t>
+          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717, 717, 717, 717, 729, 731, 731, 746, 746, 764, 780, 780, 780, 780, 781, 784, 784, 784, 784, 784, 806, 806, 877, 914, 963, 967, 1020, 1020, 1020]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03]</t>
+          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202, 1403.931123274565, 1428.6690860927106, 1448.1900470912458, 1467.8783477008344, 1483.9538652122021, 1484.3735652148723, 1506.9493923842906, 1515.1948925733566, 1532.8032554388046, 1555.7160943984986, 1570.0211973667147, 1597.4233472347262, 1624.2882991790775, 1652.2686135768895, 1662.2393829345708, 1680.4487084865575, 1688.0655608892446, 1719.679908251763, 1738.130481910706, 1754.6876864671713, 1776.087821722031, 1810.8387701511388, 1823.2067697048192, 1859.0573545932775, 1880.4394360303884, 1913.9950913190846, 1930.8942358016973]</t>
+          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202, 1403.931123274565, 1428.6690860927106, 1448.1900470912458, 1467.8783477008344, 1483.9538652122021, 1484.3735652148723, 1506.9493923842906, 1515.1948925733566, 1532.8032554388046, 1555.7160943984986, 1570.0211973667147, 1597.4233472347262, 1624.2882991790775, 1652.2686135768895, 1662.2393829345708, 1680.4487084865575, 1688.0655608892446, 1719.679908251763, 1738.130481910706, 1754.6876864671713, 1776.087821722031, 1810.8387701511388, 1823.2067697048192, 1859.0573545932775, 1880.4394360303884, 1913.9950913190846, 1930.8942358016973, 1938.6047527551657]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08, 83.84, 84.86, 86.16, 87.47, 88.45, 89.97, 91.31, 92.71, 94.08, 95.33, 96.47, 97.48, 98.4, 99.55, 100.75, 102.05, 102.8, 103.57, 104.24, 105.15, 106.1, 107.24, 108.28, 109.65, 110.74, 111.91, 113.33]</t>
+          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08, 83.84, 84.86, 86.16, 87.47, 88.45, 89.97, 91.31, 92.71, 94.08, 95.33, 96.47, 97.48, 98.4, 99.55, 100.75, 102.05, 102.8, 103.57, 104.24, 105.15, 106.1, 107.24, 108.28, 109.65, 110.74, 111.91, 113.33, 114.48]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">

--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1092,37 +1092,37 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717, 717, 717, 717, 729, 731, 731, 746, 746, 764, 780, 780, 780, 780, 781, 784, 784, 784, 784, 784, 806, 806, 877, 914, 963, 967, 1020, 1020, 1020]</t>
+          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717, 717, 717, 717, 729, 731, 731, 746, 746, 764, 780, 780, 780, 780, 781, 784, 784, 784, 784, 784, 806, 806, 877, 914, 963, 967, 1020, 1020, 1020, 1020, 1020, 1021, 1056, 1056, 1056, 1060, 1060, 1060, 1060, 1067, 1067, 1069, 1073, 1073, 1073, 1075, 1075, 1075]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03]</t>
+          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202, 1403.931123274565, 1428.6690860927106, 1448.1900470912458, 1467.8783477008344, 1483.9538652122021, 1484.3735652148723, 1506.9493923842906, 1515.1948925733566, 1532.8032554388046, 1555.7160943984986, 1570.0211973667147, 1597.4233472347262, 1624.2882991790775, 1652.2686135768895, 1662.2393829345708, 1680.4487084865575, 1688.0655608892446, 1719.679908251763, 1738.130481910706, 1754.6876864671713, 1776.087821722031, 1810.8387701511388, 1823.2067697048192, 1859.0573545932775, 1880.4394360303884, 1913.9950913190846, 1930.8942358016973, 1938.6047527551657]</t>
+          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202, 1403.931123274565, 1428.6690860927106, 1448.1900470912458, 1467.8783477008344, 1483.9538652122021, 1484.3735652148723, 1506.9493923842906, 1515.1948925733566, 1532.8032554388046, 1555.7160943984986, 1570.0211973667147, 1597.4233472347262, 1624.2882991790775, 1652.2686135768895, 1662.2393829345708, 1680.4487084865575, 1688.0655608892446, 1719.679908251763, 1738.130481910706, 1754.6876864671713, 1776.087821722031, 1810.8387701511388, 1823.2067697048192, 1859.0573545932775, 1880.4394360303884, 1913.9950913190846, 1930.8942358016973, 1938.6047527551657, 1940.096498215199, 1969.932142102719, 1993.9904564023022, 2025.172182476521, 2063.4597235798838, 2097.9038564324383, 2129.7088746190075, 2150.393532907963, 2159.703032946587, 2167.2014510869985, 2191.4724377393727, 2221.6745343446737, 2239.3847460031516, 2270.089547514916, 2311.4568422555926, 2343.7865431547166, 2370.9861174583434, 2412.1370802879333, 2421.2073788642883]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08, 83.84, 84.86, 86.16, 87.47, 88.45, 89.97, 91.31, 92.71, 94.08, 95.33, 96.47, 97.48, 98.4, 99.55, 100.75, 102.05, 102.8, 103.57, 104.24, 105.15, 106.1, 107.24, 108.28, 109.65, 110.74, 111.91, 113.33, 114.48]</t>
+          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08, 83.84, 84.86, 86.16, 87.47, 88.45, 89.97, 91.31, 92.71, 94.08, 95.33, 96.47, 97.48, 98.4, 99.55, 100.75, 102.05, 102.8, 103.57, 104.24, 105.15, 106.1, 107.24, 108.28, 109.65, 110.74, 111.91, 113.33, 114.48, 115.76, 117.2, 118.3, 119.32, 120.37, 121.54, 122.96, 124.18, 125.4, 126.55, 127.7, 128.91, 130.0, 131.12, 132.27, 133.41, 134.59, 136.19, 136.95]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[0, -10, -10, -10, -10, 0, -10, -10, 0, -20, -20, 0, 0, -10, 0, 0, 0, -20, -20, -20, 0, 0, -10, 0, -20, 0, -20, -20, -20, 0, 0, -20, -10, -20, -10, 0, -20, 0, 0, 0, -20, -20, -20, 0, 0, -20, 0, 0, 0, -20, -10, -20, 0, -20, 0, -10, 0, -20, -10, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0]</t>
+          <t>[0, -10, -10, -10, -10, 0, -10, -10, 0, -10, -20, 0, 0, 0, 0, 0, 0, -20, -20, -20, -10, 0, -10, 0, -20, 0, -20, -20, -20, 0, 0, -20, -10, -20, -10, 0, -20, -10, 0, 0, -20, -20, -20, 0, 0, -20, 0, 0, 0, -20, -20, -10, 0, -20, 0, -20, 0, -20, 0, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1161,37 +1161,37 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400, 421, 424, 479, 479, 479, 479, 479, 493, 500, 501, 507, 507, 555, 592, 642, 643, 699, 706, 706, 706, 706, 706, 728, 728, 733, 751, 751, 751, 751, 755, 759, 759, 759, 759, 759, 805, 805, 805, 805, 841, 868, 868, 899, 899, 899, 899, 907, 907, 907, 908, 916, 916, 951, 951, 951, 951, 954, 954, 962, 966, 993, 1019, 1048, 1058, 1058, 1058, 1058, 1089]</t>
+          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400, 421, 424, 479, 479, 479, 479, 479, 493, 500, 501, 507, 507, 555, 592, 642, 643, 699, 706, 706, 706, 706, 706, 728, 728, 733, 751, 751, 751, 751, 755, 759, 759, 759, 759, 759, 805, 805, 805, 805, 841, 868, 868, 899, 899, 899, 899, 907, 907, 907, 908, 916, 916, 951, 951, 951, 951, 954, 954, 962, 966, 993, 1019, 1048, 1058, 1058, 1058, 1058, 1089, 1089, 1089, 1089, 1089, 1089, 1089, 1110, 1112, 1112, 1124, 1137, 1146, 1146, 1146, 1153, 1153, 1153, 1153, 1153, 1164]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363, 0.382, 0.38, 0.387, 0.387, 0.387, 0.387, 0.387, 0.38, 0.389, 0.387, 0.387, 0.387, 0.389, 0.395, 0.4, 0.406, 0.414, 0.419, 0.419, 0.419, 0.419, 0.419, 0.421, 0.421, 0.429, 0.43, 0.43, 0.43, 0.43, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.444, 0.444, 0.444, 0.444, 0.442, 0.442, 0.442, 0.453, 0.453, 0.453, 0.453, 0.459, 0.459, 0.459, 0.459, 0.459, 0.459, 0.457, 0.457, 0.457, 0.457, 0.464, 0.464, 0.468, 0.47, 0.474, 0.483, 0.483, 0.483, 0.483, 0.483, 0.483, 0.485]</t>
+          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363, 0.382, 0.38, 0.387, 0.387, 0.387, 0.387, 0.387, 0.38, 0.389, 0.387, 0.387, 0.387, 0.389, 0.395, 0.4, 0.406, 0.414, 0.419, 0.419, 0.419, 0.419, 0.419, 0.421, 0.421, 0.429, 0.43, 0.43, 0.43, 0.43, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.444, 0.444, 0.444, 0.444, 0.442, 0.442, 0.442, 0.453, 0.453, 0.453, 0.453, 0.459, 0.459, 0.459, 0.459, 0.459, 0.459, 0.457, 0.457, 0.457, 0.457, 0.464, 0.464, 0.468, 0.47, 0.474, 0.483, 0.483, 0.483, 0.483, 0.483, 0.483, 0.485, 0.485, 0.485, 0.485, 0.485, 0.485, 0.485, 0.485, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643, 602.1897409915923, 625.435092306137, 652.3548410892486, 660.7398413181304, 688.1398109436034, 702.1122611522674, 702.1122611522674, 711.7701608896255, 728.6085087299346, 742.128211545944, 756.5295929431913, 774.572093605995, 800.0234924554823, 810.2014386177061, 838.7850130558012, 854.3543200492857, 881.385264587402, 891.896761012077, 910.8810156822202, 921.7189058542249, 944.7476429224012, 967.0159010648724, 979.950374627113, 987.8648782014843, 1000.8310764789578, 1019.0124041080471, 1048.2925180912014, 1052.162108814716, 1067.9028018355366, 1082.8718317866321, 1104.7385104298587, 1118.2000647425648, 1143.7124028563496, 1177.3129985213277, 1199.2163547396658, 1225.8960048556326, 1251.7422035098073, 1258.8754462361333, 1266.270257747173, 1283.4027189135547, 1307.785366427898, 1319.8159505248066, 1343.91093724966, 1370.119533860683, 1393.4137344717976, 1413.2146315455434, 1429.5828926920888, 1436.8988103151319, 1462.691160702705, 1477.5622464418407, 1492.3783710062498, 1511.6511549770826, 1541.5076036274427, 1552.1196532428257, 1581.672162407636, 1603.1054525077336, 1619.4347624957554, 1636.1285126388066, 1658.1463709533207, 1680.491656535863, 1712.441027301549, 1741.7301699578752, 1775.0127684533586, 1787.4713563263406, 1823.8471533596505, 1841.6069319307794, 1841.6069319307794, 1854.1264315903177]</t>
+          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643, 602.1897409915923, 625.435092306137, 652.3548410892486, 660.7398413181304, 688.1398109436034, 702.1122611522674, 702.1122611522674, 711.7701608896255, 728.6085087299346, 742.128211545944, 756.5295929431913, 774.572093605995, 800.0234924554823, 810.2014386177061, 838.7850130558012, 854.3543200492857, 881.385264587402, 891.896761012077, 910.8810156822202, 921.7189058542249, 944.7476429224012, 967.0159010648724, 979.950374627113, 987.8648782014843, 1000.8310764789578, 1019.0124041080471, 1048.2925180912014, 1052.162108814716, 1067.9028018355366, 1082.8718317866321, 1104.7385104298587, 1118.2000647425648, 1143.7124028563496, 1177.3129985213277, 1199.2163547396658, 1225.8960048556326, 1251.7422035098073, 1258.8754462361333, 1266.270257747173, 1283.4027189135547, 1307.785366427898, 1319.8159505248066, 1343.91093724966, 1370.119533860683, 1393.4137344717976, 1413.2146315455434, 1429.5828926920888, 1436.8988103151319, 1462.691160702705, 1477.5622464418407, 1492.3783710062498, 1511.6511549770826, 1541.5076036274427, 1552.1196532428257, 1581.672162407636, 1603.1054525077336, 1619.4347624957554, 1636.1285126388066, 1658.1463709533207, 1680.491656535863, 1712.441027301549, 1741.7301699578752, 1775.0127684533586, 1787.4713563263406, 1823.8471533596505, 1841.6069319307794, 1841.6069319307794, 1854.1264315903177, 1881.8166159450998, 1905.7264088451852, 1937.5768245279778, 1972.250650292634, 2004.4566018879405, 2028.4511164486398, 2054.841817265748, 2076.3500055134286, 2076.769705516099, 2105.886058551072, 2108.058223313092, 2122.5802497565737, 2149.0463144719592, 2183.797262901067, 2202.4138742625705, 2232.9579567551605, 2248.1732144474977, 2276.880769336223, 2303.357952797412, 2314.7494320392602]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99, 2.09, 2.16, 2.21, 2.32, 2.39, 2.47, 2.55, 2.64, 2.7, 2.8, 2.88, 2.95, 3.06, 3.16, 3.26, 3.32, 3.41, 3.48, 3.58, 3.68, 3.75, 3.82, 3.93, 4.02, 4.09, 4.18, 4.29, 4.36, 4.5, 4.6, 4.68, 4.78, 4.87, 4.94, 5.06, 5.18, 5.25, 5.38, 5.52, 5.62, 5.71, 5.82, 5.94, 6.03, 6.17, 6.24, 6.35, 6.46, 6.55, 6.71, 6.8, 6.88, 6.97, 7.06, 7.17, 7.28, 7.36, 7.44, 7.53, 7.62, 7.71, 7.8, 7.9, 8.0, 8.09, 8.18, 8.25, 8.36]</t>
+          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99, 2.09, 2.16, 2.21, 2.32, 2.39, 2.47, 2.55, 2.64, 2.7, 2.8, 2.88, 2.95, 3.06, 3.16, 3.26, 3.32, 3.41, 3.48, 3.58, 3.68, 3.75, 3.82, 3.93, 4.02, 4.09, 4.18, 4.29, 4.36, 4.5, 4.6, 4.68, 4.78, 4.87, 4.94, 5.06, 5.18, 5.25, 5.38, 5.52, 5.62, 5.71, 5.82, 5.94, 6.03, 6.17, 6.24, 6.35, 6.46, 6.55, 6.71, 6.8, 6.88, 6.97, 7.06, 7.17, 7.28, 7.36, 7.44, 7.53, 7.62, 7.71, 7.8, 7.9, 8.0, 8.09, 8.18, 8.25, 8.36, 8.46, 8.53, 8.6, 8.69, 8.79, 8.91, 8.99, 9.08, 9.17, 9.3, 9.4, 9.47, 9.54, 9.63, 9.76, 9.83, 9.92, 10.03, 10.2, 10.34]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[0, -10, 0, -20, -20, 0, -20, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, 0, -20, 0, -20, 0, 0, -20, -10, -20, -10, 0, -20, -10, 0, -10, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, 0, -10, 0, -20, -10, 0, -10, -10, -10, 0, -10, -10, 0, 0, -10, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0]</t>
+          <t>[0, -10, -10, -20, -20, 0, -20, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, 0, -20, 0, -20, 0, 0, -20, -10, -20, -10, 0, -20, -10, 0, -10, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, 0, -10, 0, -20, -10, 0, -10, -10, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0]</t>
         </is>
       </c>
     </row>

--- a/results/0926/2022-0926_resnet34_malmotest.xlsx
+++ b/results/0926/2022-0926_resnet34_malmotest.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -540,37 +540,37 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[81, 93, 103, 114, 148, 194, 197, 197, 197, 197, 218, 220, 222, 240, 242, 293, 319, 319, 319, 319, 342, 342, 342, 342, 367, 368, 368, 372, 389, 389, 392, 435, 435, 443, 443, 469, 506, 559, 560, 572, 572, 572, 608, 608, 608, 650, 650, 650, 684, 684, 684, 684, 710, 711, 711, 711, 711, 711, 735, 735, 735, 738, 740, 747, 750, 776, 806, 806, 806, 806, 813, 813, 848, 848, 848, 853, 853, 896, 943, 943, 966, 986, 989, 989, 993, 997, 1015, 1015, 1015, 1015, 1015, 1015, 1015, 1027, 1027, 1029, 1029, 1029, 1030, 1033, 1035, 1035, 1035, 1052, 1052, 1052, 1052, 1090, 1101, 1101, 1101, 1101, 1101, 1101, 1101, 1126, 1126, 1126, 1127, 1145, 1145]</t>
+          <t>[81, 93, 103, 114, 148, 194]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[0.086, 0.086, 0.098, 0.096, 0.094, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.09, 0.09, 0.09, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.103, 0.103, 0.103, 0.103, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.113, 0.113, 0.113, 0.115, 0.115, 0.115, 0.115, 0.111, 0.111, 0.111, 0.109, 0.109, 0.109, 0.115, 0.115, 0.115, 0.115, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.109, 0.111, 0.105, 0.105, 0.105, 0.105, 0.102, 0.102, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.126, 0.126, 0.126, 0.126, 0.126, 0.126, 0.126, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.122, 0.126, 0.126]</t>
+          <t>[0.086, 0.086, 0.098, 0.096, 0.094, 0.092]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
+          <t>[0, 30, 60, 90, 120, 150]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0, 16.097865295410166, 38.60830733776093, 61.87577478885649, 83.7264050245285, 106.24110400676727, 113.78760421276093, 138.82562291622162, 151.63454074859618, 151.63454074859618, 160.57704050540923, 182.825630068779, 197.69045696258544, 219.51761140823365, 241.83314867019655, 267.2845475196839, 276.6690353274346, 303.59656013250355, 315.9621186614037, 315.9621186614037, 325.26231840848925, 341.6749031186104, 364.0942864060402, 386.598593890667, 408.8596516013146, 425.50935934782035, 432.8658711194993, 445.8320693969727, 466.3834649562836, 474.41188330650334, 479.90337737798694, 504.76876419782644, 518.3052086412907, 531.8957420408726, 548.7454952299595, 574.6863440573215, 584.4343415796757, 610.595579200983, 624.801557713747, 645.4291497051715, 659.8410017073154, 688.0824453413486, 705.2149065077305, 728.5272542536259, 740.2577149927616, 762.4628855288029, 789.5447821676731, 811.0099832594395, 833.4865846455098, 857.5879833042621, 864.4794313848018, 883.2089762866497, 903.8113812625407, 924.4910115659236, 939.3404891192912, 962.4905800044536, 995.156575936079, 1019.1847219645977, 1044.3929084718227, 1068.967306703329, 1075.858764976263, 1099.9523440301418, 1117.0932084739209, 1138.762059992552, 1161.5425042808058, 1186.9939031302931, 1196.720503395796, 1221.3034187018873, 1234.2965358436109, 1234.2965358436109, 1243.0519914925098, 1264.778136140108, 1287.6549610912798, 1306.8438269436358, 1330.5222463667392, 1353.1508631765842, 1371.4517641127109, 1389.4644646704196, 1404.7638863623142, 1405.1835863649844, 1425.3446514189243, 1446.7646264135838, 1461.6294520199299, 1486.682997304201, 1509.463441592455, 1534.4253904640675, 1543.4811907112598, 1570.408871203661, 1583.6954383432865, 1583.6954383432865, 1593.5321880757808, 1617.4323915421962, 1632.9036948919295, 1644.9180322647094, 1661.6039410352705, 1687.5447898626326, 1696.9781384825706, 1722.654678761959, 1736.571455347538, 1737.9696076512337, 1752.3324326634406, 1770.482197010517, 1792.128098833561, 1814.892968571186, 1838.4610882878303, 1855.048903286457, 1862.2950120568275, 1877.732782280445, 1896.276650607586, 1925.5567645907402, 1930.798429751396, 1953.726536488533, 1966.7133737325667, 1973.6909948408602, 1990.1237473070619, 2015.5751461565492, 2024.1278463900087, 2055.1337576448914, 2071.7815620481965, 2087.918250674009, 2098.6463561236856]</t>
+          <t>[0, 16.097865295410166, 38.60830733776093, 61.87577478885649, 83.7264050245285, 106.24110400676727]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0, 0.36, 0.86, 1.36, 1.93, 2.48, 3.06, 3.49, 3.98, 4.68, 5.11, 5.64, 6.21, 6.7, 7.61, 8.55, 9.45, 10.34, 11.35, 12.34, 13.03, 13.94, 14.77, 15.79, 16.76, 17.7, 18.69, 19.48, 20.56, 21.56, 22.51, 23.61, 24.59, 25.5, 26.54, 27.54, 28.55, 29.67, 30.72, 31.8, 32.91, 34.0, 34.97, 35.94, 37.47, 38.16, 38.88, 39.7, 40.5, 41.87, 43.24, 44.53, 45.53, 46.6, 47.57, 48.83, 49.96, 50.94, 52.12, 53.39, 54.78, 56.15, 57.42, 58.47, 59.53, 60.94, 62.74, 64.05, 65.44, 66.44, 67.62, 68.64, 69.83, 71.0, 72.2, 73.57, 74.52, 75.82, 76.75, 77.96, 78.79, 79.77, 81.1, 82.6, 84.22, 86.14, 88.23, 89.87, 91.36, 92.87, 94.68, 96.46, 98.08, 99.48, 100.99, 102.68, 104.39, 106.06, 107.44, 108.64, 109.99, 111.47, 112.67, 114.14, 115.37, 117.0, 119.3, 121.16, 122.69, 124.24, 126.01, 127.62, 129.41, 131.02, 132.64, 134.43, 136.38, 137.89, 139.69, 141.58, 142.68]</t>
+          <t>[0, 0.36, 0.86, 1.36, 1.93, 2.48]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[0, -10, 0, 0, 0, -20, 0, -20, 0, -10, -10, 0, -10, -20, 0, -20, 0, -20, -20, 0, -20, 0, -20, 0, -20, 0, -10, 0, -10, 0, -10, -10, -20, -20, -20, -10, -20, 0, 0, 0, -20, -20, -10, 0, 0, -10, 0, 0, 0, 0, -20, -20, 0, -20, 0, -10, 0, 0, -20, 0, -20, -10, 0, 0, -10, -10, 0, -10, -10, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0]</t>
+          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, 0, 0, 0, -10, -10, -10, -10, -20, -20, 0, -20, 0, -20, 0, -20, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, -20, -20, -20, -10, -20, 0, -10, 0, 0, 0, 0, 0, 0, 0, -10, 0, 0, -10, 0, 0, -10, 0, 0, 0, -10, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0, 0, -20]</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -609,37 +609,37 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[81, 85, 100, 113, 143, 192, 213, 213, 213, 213, 237, 241, 244, 250, 275, 324, 347, 347, 347, 347, 393, 436, 438, 444, 485, 510, 516, 516, 516, 516, 530, 542, 545, 549, 566, 573, 585, 585, 585, 585, 596, 596, 600, 638, 638, 638, 638, 638, 688, 688, 688, 699, 705, 707, 737, 738, 759, 759, 759, 759, 759, 769, 780, 791, 795, 817, 825, 825, 825, 825, 825, 844, 848, 851, 853, 857, 862, 862, 862, 862, 862, 867, 867, 892, 892, 913, 943, 996, 998, 1054, 1054, 1054, 1054, 1054, 1054, 1054, 1061, 1061, 1061, 1061, 1061, 1063, 1064, 1064, 1064, 1103, 1103, 1104, 1104, 1104, 1123, 1131, 1134, 1150, 1160, 1160, 1177, 1177, 1177, 1177, 1177]</t>
+          <t>[81, 85, 100, 113, 143, 192]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.342, 0.352, 0.374, 0.37, 0.382, 0.382, 0.397, 0.397, 0.397, 0.397, 0.393, 0.398, 0.4, 0.4, 0.404, 0.404, 0.402, 0.402, 0.402, 0.402, 0.4, 0.417, 0.417, 0.417, 0.421, 0.423, 0.421, 0.421, 0.421, 0.421, 0.421, 0.43, 0.43, 0.43, 0.434, 0.434, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.436, 0.444, 0.444, 0.444, 0.444, 0.444, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.449, 0.449, 0.449, 0.449, 0.449, 0.449, 0.449, 0.451, 0.449, 0.447, 0.447, 0.447, 0.447, 0.447, 0.447, 0.445, 0.445, 0.445, 0.447, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.445, 0.444, 0.445, 0.449, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.457, 0.459, 0.459, 0.459, 0.464, 0.464, 0.468, 0.468, 0.468, 0.47, 0.468, 0.468, 0.468, 0.476, 0.476, 0.476, 0.476, 0.476, 0.476, 0.476]</t>
+          <t>[0.342, 0.352, 0.374, 0.37, 0.382, 0.382]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
+          <t>[0, 30, 60, 90, 120, 150]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0, 14.544830417633067, 38.229873919487005, 60.96841380596162, 81.42432296276094, 105.40737187862398, 113.79237210750581, 134.84594135284428, 148.3509757995606, 148.3509757995606, 157.65117554664616, 178.0573615074158, 194.24799129962923, 219.1670227766037, 241.4825600385666, 266.9339588880539, 275.9897591352463, 302.9174396276474, 315.51484246253966, 315.51484246253966, 322.91660974025723, 336.58976995944977, 352.84676575660706, 375.6698457241058, 396.590661907196, 421.0631608009338, 429.1321083784103, 456.05965898036953, 470.33910803794856, 470.33910803794856, 480.625443470478, 498.82815853357306, 514.4006196856498, 538.591753566265, 561.3721978545187, 586.823596704006, 595.5439969420431, 622.4716774344442, 635.4650004982947, 635.4650004982947, 643.8200047850607, 669.6037485957145, 671.9832570910453, 694.9651938319205, 707.9594090580939, 731.1094996094703, 762.8514956593513, 785.198996412754, 810.7085737347602, 835.0657711148261, 841.982572710514, 863.7270668625831, 881.0888984084129, 903.6812110781669, 925.531841313839, 950.0043402075768, 959.0601404547691, 987.8774827361107, 1001.9727324843407, 1001.9727324843407, 1011.809482216835, 1028.2562283277512, 1046.9770457744598, 1070.547294664383, 1093.3277389526368, 1119.2685877799988, 1127.988988018036, 1156.8063302993776, 1167.9950829982758, 1167.9950829982758, 1184.2720499515535, 1200.6263053655625, 1215.3051104545593, 1237.8314777374267, 1259.6821079730987, 1284.6440568447113, 1295.2929042577744, 1321.7481693029404, 1335.1782771348953, 1335.1782771348953, 1344.6573268771172, 1368.609326684475, 1384.539324963093, 1391.6235386490823, 1406.403608942032, 1432.344457769394, 1441.9937555909157, 1468.1549932122232, 1482.8317199349406, 1508.9305629372598, 1519.938471889496, 1542.8665977954865, 1557.5157050549985, 1571.1496268987657, 1587.5823793649674, 1613.0337782144547, 1621.9218784570694, 1647.5986487150192, 1663.4075754642486, 1668.248233962059, 1677.896377658844, 1693.7895969629287, 1710.756401914358, 1733.043935149908, 1757.5164340436459, 1777.9098646104335, 1792.2909696042536, 1806.2059710919855, 1831.1528196036813, 1852.1860963761803, 1867.4556170642372, 1887.8500645816323, 1904.328027528524, 1927.6251449525353, 1949.0108681619163, 1974.4622670114036, 1982.3441672265526, 2008.8313424527641, 2022.2783242881294, 2022.2783242881294, 2032.1150740206238]</t>
+          <t>[0, 14.544830417633067, 38.229873919487005, 60.96841380596162, 81.42432296276094, 105.40737187862398]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0, 0.03, 0.08, 0.11, 0.16, 0.23, 0.28, 0.34, 0.39, 0.44, 0.5, 0.56, 0.63, 0.68, 0.75, 0.81, 0.9, 0.95, 1.01, 1.08, 1.14, 1.2, 1.27, 1.34, 1.42, 1.51, 1.58, 1.65, 1.71, 1.81, 1.86, 1.95, 2.01, 2.05, 2.1, 2.15, 2.2, 2.27, 2.31, 2.38, 2.44, 2.48, 2.55, 2.6, 2.66, 2.73, 2.79, 2.87, 2.97, 3.04, 3.14, 3.21, 3.28, 3.34, 3.41, 3.49, 3.57, 3.68, 3.76, 3.82, 3.91, 3.97, 4.05, 4.1, 4.21, 4.3, 4.39, 4.47, 4.53, 4.62, 4.68, 4.77, 4.86, 4.93, 5.0, 5.08, 5.17, 5.25, 5.33, 5.45, 5.54, 5.68, 5.78, 5.87, 5.93, 6.04, 6.09, 6.19, 6.28, 6.37, 6.47, 6.56, 6.64, 6.72, 6.82, 6.89, 6.99, 7.05, 7.1, 7.2, 7.26, 7.38, 7.46, 7.54, 7.64, 7.76, 7.84, 7.94, 8.02, 8.1, 8.2, 8.28, 8.37, 8.47, 8.53, 8.61, 8.73, 8.87, 8.97, 9.09, 9.18]</t>
+          <t>[0, 0.03, 0.08, 0.11, 0.16, 0.23]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[0, 0, -20, 0, -20, -20, -20, 0, 0, -10, 0, 0, -10, -10, -10, -10, 0, -20, -20, 0, 0, 0, -10, -10, -20, -20, -10, 0, -10, 0, 0, 0, -20, -20, -20, 0, -20, 0, 0, 0, -20, -20, -20, -20, 0, -10, -20, -20, 0, 0, -20, -10, 0, -20, 0, 0, 0, 0, -10, 0, -10, -10, 0, 0, -10, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, 0, 0, 0, 0]</t>
+          <t>[0, -10, -10, 0, -10, -10, -10, -10, -10, -10, 0, 0, 0, -10, -10, -10, -20, -20, -20, 0, 0, 0, -20, 0, -20, -20, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, -20, 0, 0, -20, -10, -20, -20, -20, -20, -20, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, 0, -10, 0, -10, 0, -10, 0, 0, -10, 0, 0, 0, 0, 0, -20]</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -678,37 +678,37 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[81, 84, 94, 102, 142, 189, 190, 190, 190, 190, 210, 210, 210, 210, 210, 215, 218, 259, 306, 306, 329, 329, 333, 352, 352, 352, 352, 352, 366, 366, 366, 373, 382, 385, 429, 479, 505, 505, 505, 505, 526, 526, 557, 557, 557, 557, 557, 582, 585, 585, 608, 608, 608, 608, 608, 608, 608, 630, 633, 633, 655, 664, 684, 684, 684, 717, 728, 731, 738, 738, 752, 760, 765, 776, 779, 794, 822, 822, 822, 822, 822, 835, 842, 842, 842, 877, 877, 878, 878, 878, 906, 906, 906, 906, 906, 911, 911, 919, 921, 921, 924, 924, 924, 924, 924, 924, 924, 936, 941, 941, 948, 962, 964, 967, 986, 992, 993, 993, 993, 993, 1020]</t>
+          <t>[81, 84, 94, 102, 142, 189]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.086, 0.086, 0.092, 0.092, 0.094, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.109, 0.107, 0.107, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.105, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.105, 0.103, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.107, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.103, 0.102, 0.102, 0.1, 0.1, 0.1, 0.088, 0.088, 0.088, 0.086, 0.086, 0.085, 0.086, 0.086, 0.086, 0.086, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.085, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083, 0.083]</t>
+          <t>[0.086, 0.086, 0.092, 0.092, 0.094, 0.103]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
+          <t>[0, 30, 60, 90, 120, 150]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0, 15.530802631378185, 37.09476878643035, 57.24029161930084, 77.69620077610017, 100.7003497362137, 107.74374992847444, 132.30935318470003, 145.43205032348635, 145.43205032348635, 154.19570008516314, 175.495841896534, 192.57426539659502, 211.8608514428139, 235.58418039083483, 258.6813417553902, 275.4413020730019, 292.6162026047707, 307.3982270836831, 307.8179270863534, 328.02542659044275, 333.77383996248255, 345.32567032575616, 366.01958228349696, 377.4649223923684, 400.14256793260586, 425.88916460275664, 447.7968892693521, 468.67260071039215, 483.9889479517938, 490.69578653574007, 512.1112002491952, 536.8406274676324, 557.8598783850671, 579.7105086207391, 605.1619074702264, 613.7078952550889, 641.5804066419603, 655.3990803956987, 655.3990803956987, 665.0569801330568, 685.9311191082002, 707.7229402542115, 729.8588322877885, 753.9268400669099, 776.9288054943086, 796.0430798053742, 814.4746803760529, 830.169552063942, 830.5892520666123, 852.8245030164719, 875.402653336525, 892.8226453065872, 915.6333984375, 940.9323959827423, 965.670358800888, 983.5645730495453, 1002.415073633194, 1018.109945321083, 1018.5296453237534, 1039.9595469236374, 1048.001937186718, 1073.4602835059165, 1091.226575243473, 1116.6779740929603, 1129.8062728762627, 1141.3574543058874, 1154.200163704157, 1172.7101219236852, 1193.7433979570867, 1202.9223736941815, 1223.5761274039746, 1246.186118453741, 1268.4146609723568, 1290.2652912080289, 1314.7377901017667, 1324.1265902459622, 1350.109347766638, 1363.4435758292677, 1363.4435758292677, 1372.564925581217, 1380.7881621778013, 1393.8958366334439, 1414.2605222165585, 1440.6908210217953, 1455.9143591821194, 1477.865371721983, 1489.4082822859286, 1511.2359145224093, 1532.5166414558885, 1541.4740246117112, 1563.626172095537, 1586.443196517229, 1608.2957175314425, 1633.6835506021976, 1658.183164602518, 1674.5606462538242, 1692.992246824503, 1702.7380624353884, 1703.1577624380586, 1724.1090838491914, 1745.4092256605622, 1766.6016256868836, 1789.9541789829727, 1815.0119692146775, 1838.447933989763, 1857.9688949882982, 1877.2382955849168, 1893.4760685265062, 1893.8957685291764, 1915.3181685268876, 1933.499191766977, 1948.3640186607834, 1971.502316409349, 1993.817853671312, 2019.2692525207992, 2026.9834527313706, 2059.1075433075425, 2073.74882851243, 2073.74882851243, 2082.4316443264483]</t>
+          <t>[0, 15.530802631378185, 37.09476878643035, 57.24029161930084, 77.69620077610017, 100.7003497362137]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0, 0.31, 0.67, 1.23, 2.04, 2.73, 3.32, 3.81, 4.39, 4.78, 5.2, 5.58, 6.0, 6.52, 7.09, 7.61, 8.33, 9.29, 10.2, 11.25, 12.3, 13.37, 14.19, 14.95, 16.07, 17.14, 18.41, 19.41, 20.4, 21.22, 22.23, 23.0, 24.09, 24.94, 25.77, 26.83, 28.06, 29.02, 30.15, 31.22, 32.35, 33.32, 34.62, 35.74, 36.78, 37.52, 38.2, 38.81, 39.61, 40.8, 42.07, 43.09, 44.02, 45.23, 46.48, 47.83, 48.94, 50.19, 51.35, 52.62, 53.76, 55.2, 56.63, 58.09, 59.75, 60.92, 62.54, 63.82, 65.08, 66.46, 67.81, 69.15, 70.19, 71.18, 72.53, 73.43, 74.72, 76.14, 76.99, 77.87, 78.56, 79.48, 80.49, 82.05, 83.52, 85.07, 86.67, 88.15, 89.77, 91.23, 92.6, 93.82, 95.3, 96.87, 98.37, 99.73, 101.16, 102.64, 104.09, 105.47, 107.01, 108.05, 110.05, 111.39, 112.79, 113.75, 115.24, 116.95, 118.23, 119.68, 121.27, 122.98, 124.6, 126.26, 128.04, 129.7, 131.14, 132.16, 133.67, 135.64, 137.07]</t>
+          <t>[0, 0.31, 0.67, 1.23, 2.04, 2.73]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[-20, -20, -20, 0, 0, 0, 0, -20, 0, -20, 0, 0, 0, 0, 0, -20, 0, 0, 0, 0, -10, 0, 0, -20, -10, 0, -10, -20, 0, -10, 0, 0, -10, 0, 0, 0, 0, -20, -10, 0, -20, -20, -20, -10, -20, 0, -20, -20, 0, -20, -10, 0, -10, -20, -10, 0, 0, 0, 0, 0, -10, 0, 0, -20, -10, -10, 0, -10, 0, -20, 0, -10, -10, -10, 0, -10, 0, -10, -10, -20, 0]</t>
+          <t>[0, 0, 0, -10, -10, 0, 0, 0, 0, -10, -20, 0, 0, 0, -10, -10, 0, -10, 0, 0, -20, -10, -20, 0, 0, 0, -20, -20, -20, -10, 0, 0, -10, -20, -10, -10, -20, 0, -20, 0, -20, -20, -10, 0, -20, 0, 0, 0, -20, -20, 0, -10, -20, 0, 0, -20, 0, 0, 0, -20, 0, 0, 0, -10, 0, 0, 0, -10, 0, 0, -10, -20, -10, -10, 0, 0, 0, -20, -10, -20, -10]</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -747,37 +747,37 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[81, 87, 98, 104, 144, 192, 214, 214, 214, 214, 223, 223, 227, 250, 252, 252, 252, 252, 252, 252, 252, 258, 264, 266, 276, 326, 343, 343, 343, 343, 365, 373, 373, 383, 383, 417, 454, 506, 507, 521, 524, 527, 578, 578, 578, 618, 618, 619, 619, 619, 639, 641, 641, 641, 641, 643, 643, 646, 676, 676, 694, 699, 717, 717, 717, 750, 760, 764, 764, 764, 764, 771, 771, 786, 786, 811, 811, 812, 848, 855, 855, 855, 857, 857, 857, 857, 857, 857, 868, 868, 868, 868, 868, 868, 868, 875, 875, 908, 914, 914, 915, 915, 915, 933, 933, 964, 964, 964, 964, 964, 964, 972, 1010, 1019, 1038, 1055, 1055, 1055, 1055, 1055, 1096]</t>
+          <t>[81, 87, 98, 104, 144, 192]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.342, 0.365, 0.389, 0.385, 0.383, 0.383, 0.393, 0.393, 0.393, 0.393, 0.397, 0.397, 0.404, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.41, 0.414, 0.417, 0.417, 0.421, 0.419, 0.421, 0.421, 0.421, 0.421, 0.423, 0.423, 0.423, 0.425, 0.425, 0.423, 0.421, 0.421, 0.425, 0.429, 0.429, 0.427, 0.427, 0.427, 0.427, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.436, 0.436, 0.44, 0.447, 0.447, 0.457, 0.459, 0.481, 0.481, 0.481, 0.487, 0.489, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.492, 0.492, 0.485, 0.485, 0.485, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.489, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.492, 0.502, 0.502, 0.502, 0.502, 0.502, 0.502, 0.502, 0.502, 0.508, 0.508, 0.508, 0.508, 0.508, 0.508, 0.519, 0.509, 0.509, 0.508, 0.508, 0.508, 0.508, 0.508, 0.508, 0.509]</t>
+          <t>[0.342, 0.365, 0.389, 0.385, 0.383, 0.383]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
+          <t>[0, 30, 60, 90, 120, 150]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0, 16.67876248359681, 38.05118577480316, 60.16182434558867, 80.61773350238799, 104.11133244037627, 112.49633266925811, 138.0067668199539, 151.75726034641264, 151.75726034641264, 173.77884027361867, 201.77658314108845, 213.1931896626949, 237.1615375936031, 250.92134079337117, 273.1265073239803, 299.4534540593624, 320.50671071410176, 340.2187743127346, 361.99377297759054, 368.4016011893749, 389.2156914412975, 407.7155417859554, 428.7532924115657, 450.13901562094685, 474.61151451468464, 482.9965147435665, 509.9241952359676, 523.6543435275554, 523.6543435275554, 533.1333932697772, 553.1178356945514, 565.0579701125622, 578.1125098884106, 594.7984186589719, 620.7392674863339, 630.1304677426816, 655.3225449979307, 669.8177254378796, 694.0096665799618, 725.4660280764103, 741.4413865268231, 766.4282831370831, 785.702042144537, 810.6639910161496, 828.0889454782009, 850.2107903242111, 863.8050360798835, 885.4974887967109, 906.53076556921, 915.1152194619178, 931.5780190348625, 957.9792682051658, 979.6008283495902, 1006.031127154827, 1027.7107909083365, 1039.6278876245021, 1054.2410572111605, 1074.6776830494402, 1095.4635093748568, 1105.7190733015536, 1121.9179038941859, 1141.6050114512443, 1161.3707981705666, 1186.332747042179, 1200.734891474247, 1213.0448680222034, 1224.5770055234432, 1246.276339739561, 1267.0621660649776, 1275.1779445827008, 1297.6201649844647, 1311.272395581007, 1323.9526855409144, 1339.5025817096232, 1363.975080603361, 1373.7016808688638, 1398.8939837634562, 1421.7369865834712, 1447.8358295857906, 1461.9382488310337, 1470.1216062366962, 1471.5493113338946, 1492.4865577518938, 1503.751848131418, 1526.90194311738, 1558.1819392263887, 1580.501608330011, 1604.3451701700685, 1636.5091411173341, 1643.521491795778, 1660.5731296598908, 1681.4231411278245, 1703.1259258091447, 1725.9210986912249, 1744.0805311501024, 1752.422813671827, 1769.1850875079629, 1791.533727830648, 1816.0912427842613, 1821.4566142380233, 1845.4086922466752, 1858.5552846729752, 1870.4968313515183, 1886.6147338211533, 1911.5766826927659, 1920.8904313027856, 1947.051668924093, 1964.3538425862787, 1970.41250256896, 1980.2426720201968, 2000.2373452246188, 2021.5172655642032, 2045.5955810129642, 2066.9813042223454, 2093.4116030275823, 2102.6074029505253, 2130.9523297846317, 2144.511811691523, 2144.511811691523, 2152.9570227682593]</t>
+          <t>[0, 16.67876248359681, 38.05118577480316, 60.16182434558867, 80.61773350238799, 104.11133244037627]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0, 0.04, 0.07, 0.1, 0.13, 0.18, 0.23, 0.29, 0.35, 0.42, 0.46, 0.51, 0.6, 0.69, 0.75, 0.81, 0.86, 0.91, 0.97, 1.06, 1.13, 1.17, 1.22, 1.27, 1.33, 1.44, 1.49, 1.54, 1.64, 1.68, 1.78, 1.84, 1.93, 1.98, 2.04, 2.08, 2.14, 2.22, 2.29, 2.34, 2.43, 2.51, 2.59, 2.66, 2.73, 2.81, 2.86, 2.94, 2.99, 3.05, 3.12, 3.2, 3.28, 3.34, 3.42, 3.48, 3.57, 3.64, 3.73, 3.81, 3.89, 3.98, 4.12, 4.2, 4.3, 4.38, 4.52, 4.61, 4.68, 4.78, 4.84, 4.9, 4.97, 5.06, 5.2, 5.28, 5.36, 5.5, 5.57, 5.66, 5.75, 5.84, 5.93, 6.05, 6.15, 6.28, 6.38, 6.5, 6.6, 6.69, 6.76, 6.84, 6.95, 7.04, 7.12, 7.2, 7.3, 7.37, 7.45, 7.55, 7.61, 7.67, 7.78, 7.88, 7.99, 8.07, 8.16, 8.26, 8.35, 8.43, 8.57, 8.69, 8.79, 8.88, 9.02, 9.1, 9.2, 9.3, 9.41, 9.52, 9.68]</t>
+          <t>[0, 0.04, 0.07, 0.1, 0.13, 0.18]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[-20, 0, -20, 0, -10, 0, 0, 0, 0, -20, 0, -10, 0, -20, -10, 0, 0, -10, 0, 0, 0, 0, -20, 0, 0, -20, -10, 0, 0, 0, -10, -20, -20, 0, -20, 0, -10, 0, -10, 0, 0, -10, -20, -20, 0, 0, -10, -10, -10, -20, -20, -20, -20, 0, 0, -10, 0, -20, 0, 0, 0, 0, -10, 0, 0, 0, 0, -20, -10, 0, -20, -10, -10, 0, -10, -10, 0, -10, -20, -20, 0]</t>
+          <t>[0, 0, 0, -10, -10, 0, 0, 0, 0, -10, -20, 0, 0, 0, -10, -10, 0, -10, 0, 0, -20, -10, -20, 0, 0, 0, -20, -20, -20, -10, 0, 0, -10, -20, -10, -10, -20, 0, -20, 0, -20, -20, -10, 0, -20, 0, 0, 0, -20, -20, 0, -10, -20, 0, 0, -20, 0, 0, 0, -20, 0, 0, 0, -10, 0, 0, 0, -10, 0, 0, -10, -20, -10, -10, 0, 0, 0, -20, -10, -20, -10]</t>
         </is>
       </c>
     </row>
@@ -785,415 +785,115 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>cifar</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>classWt</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WVS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[100, 110, 117, 127, 167, 214, 233, 233, 233, 233, 272, 272, 272, 272, 306, 324, 324, 356, 381, 381, 381, 381, 418, 433, 433, 433, 433, 433, 433, 433, 433, 443, 445, 445, 447, 493, 516, 516, 516, 516, 528, 555, 555, 555, 555, 555, 555, 598, 655, 655, 680, 680, 680, 680, 680, 710, 710, 723, 751, 751, 751, 751, 754, 780, 780, 780, 780, 780, 826, 843, 843, 881, 881, 887, 887, 931, 993, 1047, 1089, 1098, 1104, 1115, 1161, 1163, 1163, 1200, 1200, 1200, 1204, 1204, 1237, 1237, 1237, 1238, 1238, 1241, 1241, 1259, 1307, 1307, 1307, 1308, 1308, 1308, 1334, 1353, 1357, 1371, 1404, 1404, 1405, 1444, 1444, 1450, 1453, 1497, 1553, 1601, 1602, 1616, 1625, 1647, 1647, 1666, 1669, 1714, 1767, 1820, 1821, 1831, 1840, 1862, 1862, 1862, 1862, 1862, 1875, 1919, 1978, 1978, 2000, 2004, 2008, 2008, 2023, 2069, 2093, 2093, 2093, 2093, 2096, 2111, 2154, 2156, 2156, 2193, 2193, 2193, 2204, 2204, 2222, 2222, 2222, 2222, 2222, 2224, 2224, 2266, 2294, 2294, 2294, 2297, 2301, 2301, 2340, 2383, 2406, 2406, 2406, 2406, 2428, 2429, 2429, 2429, 2447, 2448, 2448, 2496, 2524, 2524, 2524, 2524, 2528, 2558, 2563, 2602, 2602, 2602, 2604, 2604, 2604, 2604, 2641, 2650, 2650, 2650, 2650, 2650, 2693, 2693, 2693, 2708, 2712, 2712, 2712, 2743, 2743, 2745, 2761, 2761, 2774, 2778, 2778, 2778, 2778, 2778, 2778, 2813, 2840, 2840, 2840, 2855, 2863, 2863, 2863, 2904, 2925, 2940, 2945, 2945, 2947]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[0.012, 0.011, 0.011, 0.008, 0.008, 0.009, 0.009, 0.009, 0.009, 0.009, 0.038, 0.038, 0.038, 0.038, 0.043, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.037, 0.037, 0.037, 0.037, 0.038, 0.038, 0.038, 0.038, 0.038, 0.038, 0.043, 0.043, 0.043, 0.043, 0.043, 0.043, 0.038, 0.036, 0.036, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.033, 0.033, 0.033, 0.033, 0.033, 0.033, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.035, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.034, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.087, 0.088, 0.087, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.089, 0.09, 0.09, 0.09, 0.09, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.088, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.09, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.091, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.092, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[0, 20.94838137626647, 37.86827862262725, 68.84434530735011, 88.3769857645034, 111.38113472461693, 120.26923496723168, 151.44865448474877, 165.68899009227746, 165.68899009227746, 173.1965965151786, 190.07912498712534, 210.56480461359018, 234.53328498601908, 258.24021219015117, 278.0261492609977, 285.6531633138656, 301.53262031078333, 319.3243479490279, 323.57468707561486, 328.8373303890228, 330.0661803007125, 347.6745431661605, 368.45238251686084, 380.44088864326466, 403.5909836769103, 430.25708055496204, 452.4888862609862, 470.9557453393935, 504.06571543216694, 511.44077390432346, 533.002044570446, 550.1760919690131, 575.7720352292059, 598.5524795174597, 621.0671784996985, 629.116778719425, 657.9341210007666, 671.329938828945, 671.329938828945, 680.2326883912085, 702.1969492793082, 710.4299257755279, 734.791520667076, 757.1053204298018, 780.1072858572005, 798.0015001058578, 816.0142006635665, 831.1916751384734, 831.6113751411438, 852.9892364501952, 869.969591641426, 890.053591275215, 915.137187719345, 937.8175618648528, 959.2839057683943, 966.3952809095381, 988.5223430156706, 1007.8021259546277, 1016.7750641107557, 1022.2834043622015, 1028.7689185798167, 1041.4303469359875, 1060.4999218404294, 1074.1493154466152, 1097.2933992803096, 1129.4973952710627, 1150.3574513375759, 1175.5532232463358, 1191.103638356924, 1198.097789210081, 1222.0049897849558, 1236.1576389968393, 1249.646829551458, 1266.5339320123192, 1288.0697310388084, 1298.467131322622, 1324.6283689439294, 1348.041295355558, 1352.7018030345437, 1364.4532529532905, 1377.2860516965386, 1400.2378447949884, 1417.166729325056, 1443.107578152418, 1459.1133173406122, 1473.3949964165686, 1485.8883960962294, 1510.8325513362884, 1532.8556291818618, 1543.5104196667671, 1566.7556317448616, 1587.2413113713264, 1610.8146250367165, 1633.9078453183174, 1648.7331379294396, 1655.9760522007944, 1669.595164191723, 1692.7338927865028, 1715.8746280312537, 1721.5854018330572, 1741.4888986229894, 1758.7428303360937, 1780.4298200964924, 1803.2805759787557, 1821.8414904952047, 1829.384497606754, 1842.8361958861346, 1863.4321860909458, 1890.8232604622838, 1896.1736346364019, 1920.590983355045, 1934.5915146231648, 1946.3211920857427, 1961.836307263374, 1983.3721062898633, 1992.7215057611463, 2019.2736495733259, 2034.8020498037336, 2050.1321751117703, 2061.714764344692, 2080.545077061653, 2090.0839441776275, 2101.0756527662274, 2114.9996343016624, 2137.0248833060264, 2146.018483066559, 2171.695253324509, 2187.2984606266023, 2202.6357926368714, 2213.6514168977737, 2234.2649420022963, 2245.9708020687103, 2267.039430642128, 2289.7003558397296, 2312.2920226335527, 2329.217069888115, 2347.6486704587937, 2363.2067907571795, 2363.6264907598497, 2384.6455909490587, 2402.5189052820206, 2419.1514694213865, 2436.992452216148, 2457.4483613729476, 2479.9630603551864, 2488.851160597801, 2516.7236719846724, 2530.6790741205214, 2530.6790741205214, 2539.6215738773344, 2552.988441908359, 2577.5038859486576, 2595.8768394112585, 2621.328238260746, 2635.0502817273136, 2653.438048869371, 2669.0467810213563, 2691.252425819635, 2712.5331527531143, 2720.998829132318, 2739.2113985359665, 2758.892844229936, 2784.0227156460282, 2806.75547016263, 2820.9776100456716, 2828.5042167961597, 2841.2134296953677, 2859.2865359842776, 2882.290008884668, 2887.642730718851, 2901.19847176671, 2917.3891015589234, 2939.687564474344, 2960.6083806574343, 2981.654729706049, 2990.375129944086, 3017.302810436487, 3030.095259910822, 3030.095259910822, 3039.932009643316, 3057.5088177144526, 3077.191137355566, 3100.3453096091744, 3123.3785753905768, 3139.356833809614, 3147.5357822358606, 3166.220611685514, 3185.1811392962927, 3208.3218745410436, 3213.5161012828344, 3221.844010227918, 3234.5035788714877, 3257.757969802617, 3271.052690857648, 3293.7303117930883, 3323.1623081386083, 3345.6107776343815, 3365.0028963029376, 3380.7382735013953, 3387.5088189840308, 3395.10243051052, 3412.710793375968, 3432.6903927087774, 3443.3430585622777, 3465.5482423067083, 3493.0991887807836, 3514.9321553945533, 3539.3069040060036, 3563.846300959586, 3570.495934009551, 3583.4259964346875, 3606.998539340495, 3625.9034600138652, 3650.375958907603, 3664.233376777171, 3686.4520217597474, 3696.1008934795846, 3720.3386621057975, 3740.877038127183, 3749.3171520650376, 3766.534048885106, 3786.2163685262194, 3810.0084182918063, 3832.2558703124514, 3848.807432335614, 3856.467838603257, 3868.421506601571, 3886.992434221505, 3910.6458404123773, 3916.0364081084717, 3924.479542618989, 3948.052084952592, 3965.9731878101816, 3990.4456867039194, 4008.1640532791603, 4019.72312812209, 4035.9870682179917, 4059.853705805539, 4082.1242339551436, 4105.6523724973185]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[0, 7.95, 15.84, 21.21, 29.81, 37.63, 45.43, 54.63, 63.52, 71.21, 78.72, 87.67, 96.79, 106.28, 115.54, 124.09, 134.24, 144.33, 154.95, 164.15, 175.1, 185.88, 195.86, 204.91, 215.02, 225.37, 235.32, 245.07, 255.22, 266.26, 276.25, 285.41, 295.41, 306.57, 316.74, 325.67, 335.52, 346.01, 355.32, 364.14, 374.97, 385.83, 395.72, 405.09, 414.99, 425.24, 434.51, 443.64, 452.92, 463.83, 473.99, 484.51, 495.62, 507.69, 519.26, 530.15, 541.63, 554.53, 566.85, 578.09, 590.56, 603.23, 615.03, 627.65, 641.53, 653.84, 666.39, 679.3, 692.18, 703.85, 716.77, 730.84, 744.07, 756.77, 771.04, 783.18, 797.52, 811.33, 825.76, 839.68, 853.89, 867.32, 881.76, 897.2, 910.85, 924.26, 940.78, 954.92, 970.86, 984.94, 999.15, 1013.36, 1027.88, 1042.13, 1057.36, 1072.97, 1085.74, 1101.76, 1116.26, 1130.1, 1144.98, 1160.48, 1176.3, 1191.79, 1206.03, 1220.52, 1236.1, 1250.07, 1265.29, 1279.47, 1295.93, 1311.16, 1326.1, 1340.36, 1355.7, 1370.36, 1385.59, 1401.53, 1417.01, 1431.89, 1447.8, 1461.17, 1476.9, 1491.42, 1507.08, 1522.5, 1536.52, 1551.37, 1566.78, 1581.72, 1594.85, 1609.85, 1623.14, 1637.47, 1652.26, 1664.95, 1678.45, 1692.67, 1706.16, 1720.92, 1734.93, 1750.18, 1764.29, 1777.9, 1792.63, 1807.85, 1823.21, 1838.34, 1853.52, 1868.82, 1884.1, 1898.77, 1913.29, 1931.16, 1945.61, 1959.57, 1974.97, 1990.41, 2005.3, 2020.58, 2036.05, 2050.5, 2066.68, 2081.93, 2098.69, 2113.2, 2128.19, 2145.16, 2160.59, 2175.89, 2191.47, 2206.84, 2223.09, 2239.57, 2253.37, 2269.09, 2286.65, 2303.51, 2318.95, 2335.67, 2353.39, 2370.31, 2388.67, 2407.32, 2426.21, 2444.57, 2464.68, 2483.82, 2504.03, 2523.45, 2542.97, 2564.36, 2585.04, 2605.23, 2623.83, 2646.26, 2666.44, 2686.07, 2708.09, 2728.48, 2749.14, 2768.9, 2790.93, 2811.97, 2833.05, 2853.57, 2873.33, 2893.48, 2913.26, 2934.33, 2954.0, 2973.81, 2994.28, 3014.15, 3032.79, 3052.36, 3070.68, 3088.29, 3106.75, 3125.14, 3143.35, 3160.18, 3176.54, 3194.75, 3212.24, 3229.5, 3245.49, 3263.67, 3281.58, 3300.18, 3319.38, 3339.61, 3358.84, 3379.17, 3400.63, 3421.79, 3443.4, 3464.26, 3485.33, 3503.98, 3524.03]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, -20, 0, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, -20, 0, -20, 0, -10, 0, -20, -20, 0, -10, 0, 0, 0, -20, 0, 0, -10, -10, -10, 0, -10, -10, 0, -10, -20, -20, 0, 0, 0, 0, 0, 0, 0, -10, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, 0, -20, -10, 0, -20, -20, -20, 0, -20, -20, -20, -20, -20, 0, -10, -10, -10, 0, -10, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -20, 0, -10]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>cifar</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>classWt</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[100, 109, 115, 148, 197, 244, 245, 245, 245, 245, 254, 266, 266, 266, 266, 277, 277, 323, 380, 380, 405, 414, 414, 414, 414, 414, 414, 463, 525, 525, 551, 595, 595, 614, 614, 658, 720, 777, 778, 801, 813, 819, 824, 824, 858, 905, 935, 935, 935, 935, 946, 987, 987, 999, 1003, 1049, 1107, 1164, 1191, 1204, 1210, 1210, 1220, 1226, 1226, 1249, 1249, 1249, 1249, 1249, 1249, 1261, 1261, 1261, 1261, 1261, 1261, 1306, 1368, 1368, 1394, 1394, 1399, 1427, 1429, 1429, 1429, 1429, 1429, 1429, 1429, 1429, 1469, 1497, 1497, 1518, 1518, 1518, 1518, 1518, 1518, 1518, 1556, 1591, 1591, 1591, 1591, 1591, 1627, 1627, 1627, 1636, 1695, 1713, 1713, 1750, 1750, 1754, 1773, 1773, 1809, 1838, 1838, 1876, 1880, 1930, 1987, 2044, 2048, 2108, 2116, 2159, 2159, 2165, 2170, 2220, 2284, 2338, 2361, 2374, 2378, 2400, 2420, 2459, 2459, 2500, 2500, 2507, 2509, 2509, 2533, 2542, 2600, 2600, 2600, 2642, 2642, 2644, 2663, 2663, 2668, 2668, 2668, 2668, 2668, 2669, 2669, 2673, 2700, 2700, 2700, 2700, 2737, 2766, 2768, 2768, 2768, 2768, 2768, 2792, 2792, 2809, 2809, 2809, 2809, 2809, 2809, 2859, 2887, 2887, 2905, 2911, 2918, 2918, 2921, 2971, 2985, 2985, 2985, 2985, 2990, 2992, 3036, 3076, 3076, 3116, 3128, 3150, 3188, 3188, 3211, 3217, 3217, 3217, 3217, 3217, 3217, 3267, 3329, 3329, 3333, 3335, 3385, 3385, 3385, 3423, 3423, 3430, 3433, 3433, 3439, 3439, 3439, 3456, 3508, 3509, 3509, 3561, 3585, 3585, 3585]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[0.198, 0.196, 0.196, 0.185, 0.181, 0.186, 0.188, 0.188, 0.188, 0.188, 0.198, 0.198, 0.198, 0.198, 0.198, 0.204, 0.204, 0.205, 0.207, 0.207, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.212, 0.215, 0.215, 0.215, 0.214, 0.217, 0.217, 0.224, 0.226, 0.225, 0.226, 0.226, 0.235, 0.233, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.24, 0.242, 0.242, 0.242, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.255, 0.256, 0.257, 0.257, 0.258, 0.258, 0.257, 0.257, 0.258, 0.258, 0.258, 0.258, 0.258, 0.258, 0.258, 0.258, 0.259, 0.259, 0.259, 0.26, 0.26, 0.26, 0.26, 0.26, 0.26, 0.26, 0.259, 0.26, 0.26, 0.26, 0.26, 0.26, 0.262, 0.262, 0.262, 0.266, 0.268, 0.273, 0.273, 0.283, 0.283, 0.284, 0.284, 0.284, 0.285, 0.284, 0.284, 0.284, 0.285, 0.287, 0.287, 0.286, 0.287, 0.287, 0.287, 0.287, 0.287, 0.287, 0.288, 0.288, 0.288, 0.287, 0.288, 0.288, 0.288, 0.288, 0.289, 0.291, 0.291, 0.292, 0.292, 0.292, 0.292, 0.292, 0.293, 0.293, 0.294, 0.294, 0.294, 0.294, 0.294, 0.294, 0.293, 0.293, 0.297, 0.297, 0.297, 0.297, 0.297, 0.296, 0.296, 0.298, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.303, 0.303, 0.303, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.303, 0.303, 0.303, 0.302, 0.308, 0.308, 0.312, 0.312, 0.313, 0.313, 0.313, 0.313, 0.313, 0.313, 0.313, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.317, 0.318, 0.318, 0.318, 0.318, 0.318, 0.318, 0.319, 0.324, 0.324, 0.324, 0.334, 0.334, 0.334, 0.334]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[0, 19.851722431182875, 41.86516726017, 67.06764404773713, 94.03225157260898, 117.03640053272251, 125.13367618322377, 153.95088561773304, 167.65370229482653, 167.65370229482653, 177.31160203218462, 198.86353749036792, 216.6250979304314, 238.16524511575702, 262.94071282148366, 288.3218811869622, 307.8428421854973, 327.11224278211597, 342.2897172570229, 342.7094172596932, 364.50627280473714, 386.10061186552053, 403.17903536558157, 423.35381659269336, 446.5289892315865, 470.8329527020455, 491.1672870755196, 511.69338771104816, 528.0276038289071, 528.4473038315774, 551.0253199219704, 576.897262632847, 578.7002112627031, 590.930007338524, 607.5797124385834, 629.1155114650727, 639.5129117488862, 667.1275514602662, 681.82017660141, 708.7379229307176, 722.3984356284143, 743.8502886652948, 762.4496879696848, 785.1968250393869, 807.6059982419016, 830.6101472020151, 840.839847481251, 870.601876652241, 884.0488425612452, 884.0488425612452, 905.4471397638324, 932.2669197797778, 946.9304267168048, 959.331942367554, 975.906967544556, 998.4216665267948, 1008.1482667922977, 1035.7626591682438, 1057.412105250359, 1073.7234842777257, 1088.4368018388752, 1111.6896003961567, 1126.2258671045308, 1143.2239989042287, 1156.7321008920674, 1181.299525713921, 1216.2755213499072, 1238.5498850107197, 1258.3602281093602, 1291.4701982021336, 1298.4780091166501, 1320.4221970677381, 1338.2798393368726, 1362.8186445117, 1384.8888084053997, 1408.0577260136608, 1428.7986741185193, 1447.649174702168, 1464.1201422095303, 1464.5398422122005, 1487.5481490015986, 1493.2206018567088, 1505.377360069752, 1527.4817518115046, 1546.462516510487, 1570.083556568623, 1601.825552618504, 1626.3797171711926, 1648.6671287894253, 1666.6294555544857, 1673.883611428738, 1679.7195250391965, 1698.755593001843, 1725.9553903460508, 1737.878436172009, 1761.399547040463, 1788.9941434741024, 1813.151548993588, 1831.1778957962995, 1846.326624834538, 1853.0971703171735, 1880.7249708533293, 1898.8092354178434, 1922.5622346282012, 1934.4198201537138, 1960.4046183466917, 1993.0706142783172, 2020.5828618407256, 2045.115963232518, 2079.644932043553, 2086.657272350789, 2101.414345824719, 2123.7827017664913, 2139.4534588158135, 2164.415407687426, 2178.943814450503, 2196.1865702927116, 2212.1608761370185, 2237.7961599648, 2259.0768868982796, 2269.1037780821325, 2294.41016817689, 2308.062398773432, 2315.8388677239423, 2328.9133498787883, 2353.385848772526, 2362.9447490334514, 2390.5593887448313, 2407.7273471951485, 2435.690393269062, 2446.758218562603, 2473.0921299815177, 2486.1614607691763, 2499.0352598845957, 2509.244352644682, 2533.7168515384196, 2544.6069016397, 2570.7681392610075, 2590.2958337724212, 2599.330949181319, 2611.810099154711, 2620.778953492642, 2636.2846205532555, 2651.824445635081, 2678.7441944181924, 2696.501058918238, 2724.251555937529, 2738.157973212004, 2760.627095526457, 2781.9078224599366, 2791.057043987513, 2807.34040439725, 2829.479372769595, 2849.0191790163526, 2874.9600278437147, 2892.912276393176, 2906.505329644681, 2918.78836747408, 2942.19563971758, 2965.208518779279, 2974.027163398267, 2993.1310860514654, 3014.6500041604054, 3041.0630717873587, 3063.8166324257863, 3081.1725644230855, 3089.7170078635227, 3104.3824561476717, 3123.835396397115, 3128.0857355237017, 3134.2481741070756, 3140.6395380854615, 3158.2479009509093, 3181.9129400372512, 3198.8019067883497, 3224.314254057408, 3253.158850443364, 3279.1383478760727, 3300.902255952359, 3319.9578473448764, 3326.970187652112, 3348.2584587454808, 3367.044724595548, 3394.481433928014, 3417.115234768392, 3439.6832008481038, 3461.6442819714557, 3482.5892826199542, 3494.8352326333534, 3495.2549326360236, 3519.919984573127, 3540.9933283269415, 3560.6643804252158, 3583.745836752654, 3609.3157231986534, 3633.788222092391, 3642.785971659423, 3671.6033139407646, 3687.2651745259773, 3687.2651745259773, 3699.192214924098, 3716.7941750347627, 3740.949083787204, 3752.9261613428603, 3778.3775601923476, 3794.5777831852447, 3809.5887206733237, 3829.40087144971, 3847.8005212366593, 3871.3083009064208, 3881.5391331851492, 3902.5835096538076, 3920.6866385638723, 3945.197686833144, 3973.556149524451, 3995.6901162564764, 4016.8378240048896, 4037.782824653388, 4054.117040771247, 4054.5367407739172, 4077.996894353629, 4096.7380150020135, 4117.213513821364, 4138.4215853154665, 4167.788583987952, 4183.518433254958, 4202.858987414837, 4215.953475368024, 4240.967913615705, 4262.7435405612005, 4279.526803112031, 4299.917195987703, 4320.790170431139, 4342.3324625015275, 4368.380578899385, 4384.774762558938, 4392.26121621132, 4405.7914602041255, 4426.840448474885, 4433.924347019197, 4438.935334050657]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[0, 0.34, 0.8, 1.11, 1.48, 1.79, 2.18, 2.53, 2.97, 3.33, 3.93, 4.34, 4.67, 5.05, 5.39, 5.76, 6.14, 6.52, 7.0, 7.39, 7.88, 8.31, 8.75, 9.08, 9.47, 10.04, 10.48, 10.86, 11.22, 11.6, 12.12, 12.5, 13.05, 13.58, 14.05, 14.63, 15.21, 15.63, 16.06, 16.48, 17.0, 17.41, 17.84, 18.38, 18.83, 19.47, 19.97, 20.47, 20.9, 21.38, 21.88, 22.49, 22.95, 23.45, 24.03, 24.59, 25.1, 25.65, 26.17, 26.81, 27.39, 27.87, 28.4, 28.98, 29.57, 30.14, 30.67, 31.16, 31.71, 32.36, 33.04, 33.67, 34.13, 34.8, 35.39, 35.9, 36.43, 36.97, 37.68, 38.18, 38.85, 39.38, 40.08, 40.71, 41.49, 42.16, 42.91, 43.55, 44.19, 44.72, 45.32, 46.06, 46.87, 47.43, 48.08, 48.68, 49.29, 50.08, 50.68, 51.27, 51.81, 52.36, 53.04, 53.61, 54.21, 54.94, 55.83, 56.38, 57.32, 57.96, 58.49, 59.19, 59.79, 60.3, 60.87, 61.59, 62.16, 62.62, 63.21, 63.83, 64.4, 65.04, 65.73, 66.41, 67.03, 67.83, 68.64, 69.37, 70.25, 70.99, 71.83, 72.64, 73.45, 74.31, 75.08, 75.89, 76.74, 77.57, 78.64, 79.35, 80.04, 80.91, 81.73, 82.6, 83.35, 84.2, 84.95, 85.62, 86.38, 87.36, 88.31, 89.15, 89.8, 90.63, 91.39, 92.24, 93.07, 93.99, 94.86, 95.58, 96.24, 97.13, 98.03, 98.98, 99.61, 100.46, 101.63, 102.31, 103.1, 103.88, 104.8, 105.55, 106.22, 107.29, 108.15, 108.87, 109.63, 110.39, 111.27, 112.0, 112.64, 113.48, 114.42, 115.11, 115.89, 116.68, 117.5, 118.24, 118.85, 119.66, 120.52, 121.33, 121.98, 122.82, 123.65, 124.48, 125.12, 125.84, 126.69, 127.41, 128.29, 129.27, 130.32, 130.96, 131.92, 132.78, 133.59, 134.21, 135.17, 136.2, 136.91, 137.59, 138.4, 139.35, 140.21, 141.15, 142.03, 142.95, 143.66, 144.56, 145.61, 146.63, 147.36, 148.34, 149.25, 150.1, 151.0, 151.92, 152.75, 153.63, 154.62, 155.56, 156.33, 157.1, 157.88, 158.88, 159.61, 160.52, 161.42, 162.35, 163.09]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, -20, 0, -10, 0, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -20, 0, 0, 0, -10, 0, -20, -20, 0, -20, 0, 0, 0, -10, 0, 0, -20, -20, -20, 0, -10, -10, 0, -10, -10, -20, 0, 0, 0, 0, 0, 0, 0, 0, -20, -20, 0, -20, 0, 0, 0, 0, 0, -20, -20, -10, -20, -10, 0, -20, -20, -20, -20, -20, -20, -10, -20, -20, 0, -10, -20, -10, 0, -10, -10, 0, -10, 0, -10, -10, 0, 0, 0, -10, -10, -10, 0, -20, -10, -10]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>cifar</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>WVS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[100, 105, 107, 107, 117, 166, 171, 171, 171, 171, 219, 261, 261, 267, 268, 311, 369, 418, 419, 429, 434, 468, 468, 483, 486, 530, 584, 639, 662, 681, 684, 696, 700, 700, 720, 767, 799, 799, 799, 799, 810, 822, 843, 843, 843, 875, 875, 920, 925, 925, 937, 951, 955, 956, 959, 1002, 1027, 1027, 1027, 1027, 1054, 1054, 1058, 1058, 1110, 1114, 1114, 1145, 1156, 1156, 1156, 1156, 1160, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1199, 1218, 1218, 1218, 1218, 1218, 1236, 1281, 1341, 1341, 1348, 1367, 1367, 1377, 1377, 1424, 1484, 1540, 1544, 1551, 1557, 1557, 1593, 1610, 1610, 1610, 1610, 1610, 1612, 1612, 1612, 1647, 1647, 1647, 1647, 1647, 1663, 1710, 1770, 1770, 1795, 1833, 1833, 1861, 1861, 1905, 1958, 2010, 2011, 2017, 2028, 2060, 2061, 2069, 2070, 2113, 2171, 2224, 2235, 2271, 2276, 2307, 2307, 2310, 2317, 2360, 2419, 2473, 2521, 2524, 2528, 2566, 2566, 2595, 2598, 2639, 2694, 2741, 2742, 2752, 2759, 2764, 2818, 2848, 2848, 2882, 2882, 2884, 2887, 2887, 2903, 2915, 2920, 2920, 2950, 2998, 3026, 3026, 3026, 3026, 3052, 3093, 3093, 3129, 3131, 3172, 3228, 3282, 3284, 3287, 3292, 3324, 3324, 3324, 3324, 3335, 3335, 3375, 3435, 3435, 3459, 3459, 3459, 3459, 3459, 3460, 3466, 3476, 3506, 3506, 3506, 3541, 3546, 3549, 3587, 3629, 3659, 3659, 3659, 3659, 3685, 3686, 3686, 3692, 3731, 3732, 3732, 3759, 3786, 3786, 3787, 3788, 3793, 3793, 3793, 3795, 3795, 3821, 3836, 3836, 3836]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[0.012, 0.011, 0.011, 0.011, 0.014, 0.017, 0.017, 0.017, 0.017, 0.017, 0.032, 0.032, 0.032, 0.032, 0.07, 0.07, 0.058, 0.056, 0.054, 0.057, 0.058, 0.058, 0.058, 0.059, 0.059, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.058, 0.057, 0.057, 0.057, 0.057, 0.057, 0.057, 0.058, 0.063, 0.062, 0.062, 0.062, 0.059, 0.059, 0.058, 0.058, 0.058, 0.057, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.06, 0.069, 0.069, 0.069, 0.079, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.074, 0.074, 0.074, 0.074, 0.074, 0.074, 0.078, 0.075, 0.075, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.076, 0.077, 0.077, 0.077, 0.077, 0.077, 0.076, 0.076, 0.076, 0.076, 0.08, 0.08, 0.08, 0.079, 0.079, 0.079, 0.079, 0.079, 0.079, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.082, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.081, 0.082, 0.082, 0.083, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.084, 0.085, 0.085, 0.085, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.086, 0.085, 0.085, 0.085, 0.086, 0.086, 0.087, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.093, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.094, 0.095, 0.095, 0.095, 0.095]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[0, 21.16186676025392, 36.72277810573579, 56.94529085159304, 79.72573513984685, 103.70878405570988, 112.26148428916936, 138.71663265228275, 152.41597809791568, 152.41597809791568, 160.06300541162494, 184.973167192936, 197.96647180914886, 209.2832266092301, 223.27966049909597, 244.32600954771047, 254.0526098132134, 279.1009604811669, 294.66811519861227, 311.9207994103432, 326.9293015956879, 350.3675949573517, 364.2795100450516, 376.8464415431023, 393.5559995174408, 415.09179854393005, 424.14759879112245, 450.79330377578736, 471.3555914640427, 489.61807602643967, 502.33812617063523, 521.3382888197899, 536.678233063221, 556.3268146872521, 577.7125378966332, 600.7166868567467, 609.7657746553422, 637.6382860422135, 651.1261005640031, 651.1261005640031, 660.5256499171257, 674.2465579986573, 689.5033848226071, 712.2787541091443, 737.7301529586316, 752.5622446238996, 778.1277649462224, 797.4378912270071, 821.7501311123373, 843.278308349848, 852.7292621433737, 871.7888380587103, 890.7638057053091, 915.0096615612508, 937.7901058495046, 958.8364548981191, 968.2276551544668, 996.1001665413381, 1010.1814715206625, 1010.1814715206625, 1020.3759212434294, 1039.9954868972304, 1060.8305591046812, 1083.631165879965, 1109.026061910391, 1125.1711227118972, 1133.1886658608917, 1146.691684240103, 1164.7756079137328, 1189.8053827703002, 1195.2674369037154, 1201.308799928427, 1213.2539064347748, 1236.1549016892914, 1247.0678261697296, 1271.1628212392334, 1296.5385690629487, 1319.0601756513124, 1338.856477874518, 1372.9124471127993, 1380.1666137158877, 1401.6985900104053, 1413.0781632006176, 1435.9811740696439, 1460.7734295904645, 1484.6433937132367, 1502.0440962374219, 1520.8945968210705, 1536.7114157259473, 1537.1311157286175, 1558.1589677870281, 1582.5277974188336, 1599.5142960131177, 1612.4868573486813, 1628.443686753512, 1651.4478357136256, 1661.4157842218883, 1688.5459565699107, 1704.9358608782297, 1709.8124074518687, 1722.7487576186663, 1723.5971576392658, 1743.1091273009783, 1766.4362760007389, 1780.0190654218204, 1804.1140602529056, 1835.3940563619144, 1860.4742394387729, 1877.3417837440975, 1901.44318240285, 1908.0928252875813, 1930.2550711810597, 1946.8430572807797, 1968.717985779048, 1989.625202947856, 2012.6721683084975, 2029.996668201686, 2049.6849688112743, 2065.501787716151, 2065.921487718821, 2087.323537832499, 2111.2271080553537, 2123.5954993009573, 2133.373823982478, 2147.7210646450526, 2169.256863671542, 2178.1449639141565, 2203.3370411694054, 2218.651046544314, 2229.2213003933434, 2240.640740376711, 2263.1209444820884, 2277.403354007006, 2290.5267367661, 2307.604490226507, 2328.6508392751216, 2338.3774395406244, 2364.0542097985744, 2381.7841083467006, 2408.6155038058755, 2420.3895539343353, 2443.7829354345795, 2457.111530691385, 2469.3909273743625, 2479.9789607882494, 2501.025309836864, 2510.9196101069447, 2537.080847728252, 2560.108259832859, 2586.673153603077, 2596.6735713481903, 2622.066362285614, 2635.060991871357, 2649.133898437023, 2664.793541121483, 2684.860990214348, 2694.084490466118, 2718.9924993753434, 2735.427259874344, 2770.8471182346348, 2781.624965834618, 2797.5780378699305, 2818.187024486065, 2830.7813456416134, 2856.2327444911007, 2871.751000773907, 2886.125026547909, 2896.109538078308, 2918.45036239624, 2939.9785396337506, 2948.1529974937434, 2967.1179034948345, 2981.359488177299, 3003.9469164609905, 3024.40282561779, 3047.896424555778, 3057.3986247777934, 3077.7990578651425, 3092.361895227432, 3092.361895227432, 3102.1986449599262, 3126.633247220516, 3138.6881412148473, 3148.828865253925, 3165.7252097129817, 3185.7926588058467, 3195.0584567070005, 3221.219694328308, 3235.492852306366, 3236.8910046100614, 3256.993000745773, 3277.877238130569, 3294.95566163063, 3316.264074993133, 3341.7620636701577, 3365.8907305479042, 3385.00500485897, 3401.761005377769, 3417.5778242826455, 3417.9975242853156, 3439.3788348436346, 3453.5635355472555, 3472.844175195693, 3495.131491279601, 3518.8452538490287, 3534.1279953002922, 3542.256594169139, 3555.4990251898757, 3574.9194974541656, 3599.949272310733, 3605.796128129958, 3619.6636209487906, 3636.0752178907387, 3657.9082200288767, 3679.2939432382577, 3699.8508423089975, 3708.724317598342, 3736.1244135379784, 3748.650148987769, 3748.650148987769, 3758.3080487251273, 3777.4740511894215, 3797.5580508232106, 3819.7338001966464, 3843.1354709386815, 3860.657929444312, 3867.4394894480693, 3885.9671506524073, 3905.176588928698, 3924.066985046862, 3929.7777588486656, 3946.907900869845, 3966.9844308733927, 3991.351018178462, 4015.0231685042368, 4031.6916040778146, 4039.611602854727, 4055.6891433238966, 4076.064312291144, 4104.872166371344, 4110.702961468695]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[0, 6.07, 12.81, 18.89, 25.59, 32.96, 40.58, 46.83, 53.38, 60.59, 69.27, 78.23, 86.85, 95.69, 105.25, 114.97, 124.99, 136.04, 146.36, 156.51, 167.47, 177.53, 187.88, 198.29, 208.36, 218.61, 229.96, 241.69, 252.83, 263.25, 274.5, 286.06, 297.03, 307.19, 318.58, 330.76, 342.05, 353.73, 364.73, 375.28, 386.82, 398.54, 409.32, 420.76, 430.92, 441.74, 453.06, 464.86, 475.98, 487.04, 499.49, 510.28, 520.94, 532.94, 545.56, 556.76, 569.14, 582.8, 594.12, 607.2, 620.33, 630.76, 642.27, 654.94, 666.87, 678.84, 690.89, 705.94, 718.33, 731.27, 745.18, 757.75, 771.24, 785.09, 797.88, 811.68, 826.05, 839.01, 852.59, 866.25, 878.16, 891.48, 906.02, 920.48, 934.42, 949.49, 961.94, 975.0, 989.46, 1001.44, 1015.38, 1030.41, 1044.16, 1058.57, 1072.63, 1085.74, 1100.65, 1115.27, 1128.77, 1144.46, 1158.92, 1172.12, 1186.13, 1202.61, 1215.79, 1230.64, 1245.42, 1259.34, 1274.53, 1288.02, 1302.5, 1317.23, 1330.69, 1344.43, 1359.1, 1372.43, 1387.4, 1401.71, 1414.84, 1428.69, 1444.05, 1458.21, 1473.49, 1487.65, 1501.94, 1516.32, 1529.38, 1543.52, 1558.48, 1572.29, 1586.1, 1599.64, 1613.88, 1627.58, 1640.66, 1654.14, 1667.86, 1682.99, 1696.94, 1711.91, 1726.32, 1740.0, 1755.62, 1770.29, 1784.76, 1799.76, 1814.48, 1829.26, 1844.03, 1858.51, 1873.7, 1890.08, 1905.17, 1921.24, 1936.21, 1952.45, 1967.39, 1983.57, 2000.04, 2014.26, 2029.94, 2045.98, 2060.43, 2075.13, 2091.72, 2106.67, 2123.53, 2139.26, 2154.72, 2171.5, 2187.46, 2202.85, 2220.42, 2238.07, 2257.09, 2274.6, 2291.52, 2310.39, 2330.02, 2348.29, 2366.08, 2387.14, 2407.77, 2426.96, 2445.07, 2466.03, 2487.2, 2507.62, 2526.41, 2546.88, 2567.26, 2587.31, 2607.08, 2628.27, 2649.39, 2669.73, 2691.52, 2712.7, 2735.05, 2754.89, 2776.13, 2797.12, 2818.74, 2841.44, 2865.17, 2886.82, 2908.33, 2930.87, 2952.3, 2973.69, 2995.18, 3015.6, 3037.32, 3056.85, 3077.01, 3096.83, 3117.33, 3136.0, 3157.76, 3177.26, 3195.8, 3213.57, 3232.85, 3252.26, 3270.86, 3289.55, 3309.68, 3329.49, 3351.89, 3374.36, 3395.14, 3417.47, 3437.68, 3460.75, 3481.32, 3503.36, 3519.28, 3537.28, 3551.88, 3568.76, 3585.45]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[-10, -20, -20, -10, -10, 0, 0, 0, 0, 0, 0, 0, 0, -20, 0, -10, 0, -20, -10, 0, -20, -10, 0, -20, 0, -20, -10, -20, -20, 0, 0, -20, 0, 0, -20, -20, -10, -20, 0, -10, 0, -20, 0, 0, -20, -10, -20, 0, -20, -10, -10, -10, 0, -10, 0, 0, -10, 0, 0, 0, 0, -10, 0, -20, 0, -10, -20, 0, -10, -10, 0, -20, -10, 0, 0, 0, -20, 0, 0, 0, 0, 0, -20, 0, 0, 0, -10, -20, -20, 0, -10, 0, -10, 0, 0, 0, -10, -10, -20, 0]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>cifar</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[100, 110, 114, 114, 117, 163, 192, 192, 192, 192, 198, 203, 248, 255, 255, 286, 286, 288, 318, 318, 341, 341, 346, 385, 385, 424, 424, 424, 470, 522, 522, 530, 530, 530, 530, 530, 556, 603, 665, 665, 670, 670, 670, 670, 670, 671, 671, 679, 702, 702, 702, 708, 714, 714, 739, 788, 810, 810, 810, 810, 838, 844, 848, 848, 851, 898, 904, 904, 904, 904, 923, 952, 958, 959, 959, 1002, 1004, 1010, 1021, 1021, 1033, 1039, 1098, 1108, 1108, 1148, 1148, 1162, 1222, 1222, 1254, 1272, 1280, 1286, 1326, 1374, 1398, 1398, 1398, 1398, 1428, 1428, 1432, 1458, 1458, 1458, 1458, 1458, 1486, 1486, 1486, 1486, 1489, 1516, 1516, 1526, 1526, 1526, 1526, 1526, 1526, 1534, 1594, 1594, 1594, 1632, 1632, 1632, 1645, 1645, 1664, 1675, 1681, 1692, 1696, 1747, 1771, 1771, 1771, 1771, 1812, 1812, 1816, 1836, 1837, 1837, 1837, 1837, 1869, 1869, 1869, 1900, 1900, 1900, 1900, 1903, 1903, 1954, 2020, 2020, 2032, 2037, 2041, 2041, 2055, 2103, 2133, 2133, 2133, 2133, 2153, 2153, 2192, 2198, 2198, 2198, 2198, 2198, 2235, 2235, 2238, 2246, 2296, 2303, 2303, 2353, 2353, 2357, 2362, 2362, 2388, 2388, 2430, 2458, 2458, 2458, 2458, 2458, 2458, 2458, 2458, 2476, 2530, 2530, 2530, 2570, 2570, 2577, 2579, 2579, 2599, 2613, 2613, 2613, 2613, 2613, 2616, 2662, 2727, 2727, 2752, 2759, 2810, 2810, 2810, 2848, 2848, 2853, 2905, 2905, 2919, 2925, 2969, 2995, 2995, 3024, 3024, 3030, 3056, 3056, 3072]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[0.198, 0.196, 0.195, 0.195, 0.198, 0.196, 0.201, 0.201, 0.201, 0.201, 0.21, 0.208, 0.209, 0.206, 0.206, 0.214, 0.214, 0.214, 0.223, 0.223, 0.222, 0.222, 0.23, 0.229, 0.229, 0.241, 0.241, 0.241, 0.24, 0.241, 0.241, 0.242, 0.242, 0.242, 0.242, 0.242, 0.244, 0.247, 0.251, 0.251, 0.255, 0.255, 0.255, 0.255, 0.255, 0.256, 0.256, 0.259, 0.259, 0.259, 0.259, 0.26, 0.26, 0.26, 0.265, 0.265, 0.265, 0.265, 0.265, 0.265, 0.265, 0.264, 0.264, 0.264, 0.263, 0.264, 0.264, 0.264, 0.264, 0.264, 0.264, 0.264, 0.265, 0.265, 0.265, 0.269, 0.269, 0.273, 0.273, 0.273, 0.276, 0.276, 0.276, 0.278, 0.278, 0.277, 0.277, 0.278, 0.278, 0.278, 0.278, 0.278, 0.277, 0.282, 0.284, 0.284, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.282, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.283, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.284, 0.289, 0.289, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.29, 0.291, 0.291, 0.291, 0.291, 0.291, 0.291, 0.292, 0.292, 0.292, 0.298, 0.299, 0.299, 0.299, 0.3, 0.3, 0.3, 0.3, 0.3, 0.3, 0.3, 0.3, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.304, 0.303, 0.302, 0.303, 0.303, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.302, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.302, 0.303, 0.303, 0.303, 0.303, 0.304, 0.304, 0.304, 0.303, 0.303, 0.303, 0.302, 0.302, 0.302, 0.302, 0.301, 0.301, 0.301, 0.301, 0.301, 0.301, 0.303, 0.303, 0.304]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600, 3630, 3660, 3690, 3720, 3750, 3780, 3810, 3840, 3870, 3900, 3930, 3960, 3990, 4020, 4050, 4080, 4110, 4140, 4170, 4200, 4230, 4260, 4290, 4320, 4350, 4380, 4410, 4440, 4470, 4500, 4530, 4560, 4590, 4620, 4650, 4680, 4710, 4740, 4770, 4800, 4830, 4860, 4890, 4920, 4950, 4980, 5010, 5040, 5070, 5100, 5130, 5160, 5190, 5220, 5250, 5280, 5310, 5340, 5370, 5400, 5430, 5460, 5490, 5520, 5550, 5580, 5610, 5640, 5670, 5700, 5730, 5760, 5790, 5820, 5850, 5880, 5910, 5940, 5970, 6000, 6030, 6060, 6090, 6120, 6150, 6180, 6210, 6240, 6270, 6300, 6330, 6360, 6390, 6420, 6450, 6480, 6510, 6540, 6570, 6600, 6630, 6660, 6690, 6720, 6750, 6780, 6810, 6840, 6870, 6900, 6930, 6960, 6990, 7020, 7050, 7080, 7110, 7140, 7170, 7200]</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[0, 19.884428024292003, 36.837508273124705, 60.8735184431076, 85.51359083652497, 108.02828981876374, 118.09029009342194, 145.49038603305817, 158.52108647823334, 158.52108647823334, 168.17898621559144, 185.03960641622544, 207.02308539152148, 225.57887974977496, 250.05137864351275, 265.6599106907845, 281.9029305636883, 293.53224155306816, 311.57645520567894, 332.60973183512687, 340.7227723419666, 351.72602170109747, 363.61852992177006, 388.7605778992176, 399.8022530138492, 423.89722533822055, 451.0298218309879, 473.667582565546, 498.52060447335236, 515.7028830349445, 522.5943311154842, 543.2462585151195, 553.1950052022934, 576.0980160713195, 601.1668903350829, 625.470853805542, 644.8777461051941, 664.5660467147827, 680.9002628326416, 681.3199628353119, 704.3730658054352, 721.2400816202164, 741.7257612466813, 765.1511200189591, 787.935889840126, 805.2448437929154, 812.991553092003, 827.4142513751984, 845.7741450071336, 872.8604582548143, 889.8234971404077, 910.6730403304101, 928.5099892258645, 947.8488179326058, 969.6994481682779, 993.6824970841409, 1002.9059973359109, 1032.1957550644875, 1044.0175012528896, 1044.0175012528896, 1054.569650965929, 1075.5663994371891, 1092.839992839098, 1112.1167039215563, 1134.8971482098102, 1157.9012971699237, 1167.1247974216938, 1196.8869705975055, 1208.4650123417377, 1208.4650123417377, 1218.6594620645046, 1225.431052607298, 1249.9464983642101, 1267.7409225404263, 1294.171221345663, 1315.7673537194728, 1327.6822784900664, 1341.4643979191778, 1364.6826638817786, 1388.1904435515403, 1408.2723745584487, 1423.3873482942581, 1445.9048173189162, 1466.3558090448378, 1493.765007805824, 1508.41120223999, 1523.775095814466, 1538.9481337606903, 1560.207521897554, 1581.983149439096, 1592.4869249284263, 1609.4685331523415, 1628.5125666797157, 1651.74494792819, 1673.595578163862, 1697.0891771018503, 1705.6418773353098, 1733.0418532550334, 1747.1266294658183, 1747.1266294658183, 1757.1795319139956, 1771.0801336586474, 1773.4596421539782, 1795.3136642277238, 1809.624666959047, 1833.2472073376177, 1859.4558039486408, 1881.687609654665, 1905.4177866756916, 1919.5233849346637, 1926.6566382110118, 1932.0508472859858, 1946.1625520169735, 1966.3058966338633, 1979.813998621702, 2004.3693708121775, 2032.382317227125, 2055.3715315520762, 2072.0753479421137, 2095.8859466016293, 2103.381918758154, 2119.1037636220453, 2141.9571294724938, 2160.3695845544335, 2186.7998833596703, 2200.829977148771, 2224.35863571763, 2239.0049971401686, 2265.4100690901273, 2286.938246470689, 2296.272531205415, 2319.885180681943, 2336.1421764791003, 2362.9070720136156, 2388.4769584596147, 2413.4389073312273, 2422.1593075692645, 2450.031715673207, 2465.8529954135406, 2465.8529954135406, 2474.3385560214506, 2481.2587679922567, 2483.7663572132574, 2508.6112094461905, 2524.238300567864, 2548.333291441201, 2583.7712870180594, 2605.5927692472924, 2628.1769182026374, 2653.623716431855, 2661.482396918534, 2685.0337338268746, 2700.2559148252, 2723.109503740071, 2750.1273590028272, 2774.1929736554607, 2791.6805012166483, 2813.044401878117, 2830.41341242194, 2830.83311242461, 2853.074614709614, 2874.8966484487037, 2896.9764700114706, 2920.9029840171315, 2943.6834283053854, 2967.1770272433737, 2976.735927504299, 3004.1360234439353, 3018.221005576847, 3018.221005576847, 3031.7566384017446, 3046.5598886430244, 3065.1200549066048, 3088.046735996006, 3100.470081895588, 3123.1477242887004, 3153.9763203084453, 3178.5866072595104, 3204.807660597561, 3229.164857977627, 3236.4008140265923, 3244.0909711897357, 3266.6228794634326, 3284.900658255814, 3312.3098570168004, 3333.515886956452, 3361.944510680436, 3379.9606113016594, 3403.8272488415228, 3427.829929119347, 3436.9915434300883, 3443.9422043502313, 3463.93007571101, 3487.791328519581, 3501.0492804706078, 3524.199367350338, 3554.1143138587454, 3578.8343064486958, 3597.920234173534, 3623.8400319755056, 3630.9732852518537, 3637.7985826849917, 3658.4128942370394, 3683.9027851223923, 3712.290883839128, 3726.937078273294, 3741.210761106012, 3753.953981041906, 3778.651114988325, 3799.931840085981, 3808.5198160529117, 3832.6896024346333, 3851.1342998146993, 3872.8750823616965, 3899.159000861643, 3925.5517198681814, 3944.2525200486166, 3963.5219206452352, 3980.632232582567, 3981.0519325852374, 4003.2784316658954, 4018.942741727827, 4041.826382768152, 4059.0662903904895, 4084.517689239977, 4098.85583335161, 4114.563679939507, 4126.944039362667, 4145.030384486912, 4168.2907138526425, 4178.777445679902, 4194.560558396576, 4215.168626397846, 4232.177202790974, 4257.628601640461, 4271.822718948124, 4287.955002075432, 4302.060765868424, 4318.150876194237, 4338.689252358673, 4348.324072390793]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[0, 0.36, 0.78, 1.09, 1.41, 1.78, 2.12, 2.42, 2.81, 3.26, 3.64, 4.09, 4.56, 5.12, 5.52, 5.95, 6.42, 6.9, 7.32, 7.9, 8.42, 8.91, 9.36, 9.75, 10.14, 10.63, 11.08, 11.63, 12.1, 12.49, 13.12, 13.59, 14.13, 14.52, 15.11, 15.59, 16.13, 16.71, 17.1, 17.64, 18.16, 18.68, 19.17, 19.67, 20.13, 20.71, 21.19, 21.65, 22.12, 22.57, 23.16, 23.62, 24.06, 24.47, 25.09, 25.69, 26.26, 26.9, 27.38, 27.94, 28.56, 29.17, 29.63, 30.06, 30.77, 31.32, 32.03, 32.57, 33.08, 33.71, 34.34, 34.95, 35.56, 36.16, 36.8, 37.38, 38.04, 38.71, 39.26, 39.95, 40.6, 41.27, 41.97, 42.56, 43.22, 43.92, 44.81, 45.51, 46.09, 46.66, 47.38, 47.95, 48.58, 49.32, 49.83, 50.61, 51.25, 51.84, 52.48, 53.24, 53.9, 54.62, 55.26, 55.96, 56.75, 57.36, 58.06, 58.85, 59.49, 60.13, 60.88, 61.49, 62.05, 62.75, 63.42, 64.19, 64.89, 65.56, 66.14, 66.99, 67.6, 68.12, 69.09, 69.66, 70.21, 70.97, 71.55, 72.17, 72.86, 73.6, 74.3, 75.04, 75.78, 76.57, 77.33, 78.0, 78.79, 79.59, 80.33, 81.08, 81.82, 82.57, 83.38, 84.11, 84.85, 85.66, 86.46, 87.08, 87.82, 88.71, 89.49, 90.14, 90.87, 91.7, 92.27, 92.83, 93.56, 94.31, 94.95, 95.65, 96.43, 97.29, 98.05, 98.67, 99.53, 100.29, 101.05, 101.65, 102.54, 103.34, 104.05, 104.66, 105.42, 106.15, 106.84, 107.39, 108.5, 109.28, 110.1, 110.69, 111.45, 112.23, 112.93, 113.93, 114.68, 115.53, 116.26, 117.03, 117.84, 118.46, 119.2, 119.99, 120.77, 121.44, 122.13, 123.0, 123.94, 124.66, 125.32, 126.05, 126.83, 127.47, 128.32, 129.17, 129.83, 130.47, 131.28, 132.0, 132.72, 133.39, 134.14, 134.96, 135.84, 136.48, 137.33, 138.15, 138.81, 139.58, 140.65, 141.42, 142.02, 143.15, 144.02, 144.69, 145.28, 146.25, 147.1, 147.91, 148.83, 149.56, 150.19, 151.01, 151.9, 152.62, 153.55, 154.5, 155.43, 156.18, 156.96, 157.73, 158.41]</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[-20, 0, 0, 0, -10, -10, 0, -20, -20, -10, 0, 0, 0, 0, -20, -20, -10, 0, -10, 0, 0, -10, 0, 0, -20, 0, -10, -10, 0, -10, 0, -20, -10, 0, 0, -20, -20, 0, 0, 0, 0, 0, 0, -10, -20, 0, -20, -20, 0, 0, 0, 0, 0, 0, -10, 0, 0, -20, 0, 0, -20, 0, 0, -10, -10, 0, -10, 0, -20, -20, -10, 0, -10, -10, 0, -10, -10, -20, -10, -20, 0, -20, -10, 0, 0, -10, -20, 0, -10, 0, 0, 0, 0, -20, -10, -20, -20, 0, -20, -20]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>grocery</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>classWt</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>WVS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[81, 81, 81, 81, 81, 84, 84, 130, 179, 179, 203, 203, 203, 203, 245, 262, 262, 308, 336, 336, 336, 336, 373, 401, 401, 404, 404, 404, 445, 501, 501, 505, 563, 563, 563, 587, 587, 587, 592, 592, 605, 605, 605, 605, 605, 605, 605, 626, 629, 629, 631, 631, 631, 631, 631, 632, 632, 657, 673, 673, 673, 673, 673, 673, 673, 673, 680, 703, 706, 706, 716, 716, 717, 717, 717, 717, 717, 729, 731, 731, 746, 746, 764, 780, 780, 780, 780, 781, 784, 784, 784, 784, 784, 806, 806, 877, 914, 963, 967, 1020, 1020, 1020, 1020, 1020, 1021, 1056, 1056, 1056, 1060, 1060, 1060, 1060, 1067, 1067, 1069, 1073, 1073, 1073, 1075, 1075, 1075]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.013, 0.013, 0.013, 0.036, 0.028, 0.028, 0.028, 0.028, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.036, 0.009, 0.009, 0.013, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.011, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.009, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.008, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.03, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032, 0.032]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>[0, 23.43015599250795, 41.87485337257387, 61.67382328510287, 89.05906536579133, 114.86272971630098, 133.97700402736666, 154.08420464992525, 170.15972216129308, 170.64239776730543, 191.624504929781, 213.81511357426652, 233.80200801491748, 258.8925589144231, 283.6014828264714, 304.60933108925826, 312.22412937283525, 331.44492595791826, 348.809176927805, 373.3666918814183, 379.2269915044309, 385.1808542907239, 402.7892171561719, 425.131786364317, 437.0008742511273, 460.1389768302441, 488.2485724627972, 509.6477523982525, 533.7335247933864, 550.4493852555752, 557.213439744711, 573.9060012280942, 601.2501509606839, 622.1325516164303, 648.5628504216671, 662.5929442107678, 687.862896412611, 697.1986594259739, 720.1740923702716, 742.9395205318926, 753.5421576082705, 775.6943050920962, 794.1390024721621, 817.5800998508929, 841.6481076300142, 866.6107209265231, 886.1316819250583, 904.563282495737, 921.2929486095904, 921.7126486122608, 943.1513020813464, 960.4054139435291, 982.0961335480213, 1003.3475910723209, 1028.0423616945743, 1044.6979124367238, 1051.4405980646611, 1064.6670304954052, 1085.5052133977413, 1107.7442743360996, 1113.1709076583386, 1138.9140111148358, 1158.0418454349042, 1182.098011749983, 1209.3783720433714, 1235.8997336804869, 1253.382396644354, 1273.0706972539426, 1290.8351577937603, 1291.2548577964305, 1313.0918100059032, 1337.373971670866, 1356.601427525282, 1379.102434629202, 1403.931123274565, 1428.6690860927106, 1448.1900470912458, 1467.8783477008344, 1483.9538652122021, 1484.3735652148723, 1506.9493923842906, 1515.1948925733566, 1532.8032554388046, 1555.7160943984986, 1570.0211973667147, 1597.4233472347262, 1624.2882991790775, 1652.2686135768895, 1662.2393829345708, 1680.4487084865575, 1688.0655608892446, 1719.679908251763, 1738.130481910706, 1754.6876864671713, 1776.087821722031, 1810.8387701511388, 1823.2067697048192, 1859.0573545932775, 1880.4394360303884, 1913.9950913190846, 1930.8942358016973, 1938.6047527551657, 1940.096498215199, 1969.932142102719, 1993.9904564023022, 2025.172182476521, 2063.4597235798838, 2097.9038564324383, 2129.7088746190075, 2150.393532907963, 2159.703032946587, 2167.2014510869985, 2191.4724377393727, 2221.6745343446737, 2239.3847460031516, 2270.089547514916, 2311.4568422555926, 2343.7865431547166, 2370.9861174583434, 2412.1370802879333, 2421.2073788642883]</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>[0, 0.59, 0.96, 1.49, 2.05, 2.43, 2.97, 3.78, 4.31, 5.04, 5.87, 6.62, 7.36, 8.26, 8.97, 9.73, 10.73, 11.66, 12.62, 13.55, 14.58, 15.77, 17.3, 18.23, 19.26, 20.06, 20.84, 21.97, 22.92, 23.83, 24.9, 25.88, 26.89, 28.11, 29.14, 30.63, 31.81, 33.34, 34.59, 35.87, 36.88, 38.26, 39.69, 41.02, 42.52, 43.81, 45.0, 46.33, 47.79, 48.97, 50.86, 52.15, 53.14, 54.55, 56.06, 57.41, 58.45, 60.06, 61.4, 62.3, 63.72, 65.32, 66.19, 67.55, 69.23, 70.29, 71.39, 72.99, 74.59, 75.88, 77.76, 79.02, 80.71, 82.08, 83.84, 84.86, 86.16, 87.47, 88.45, 89.97, 91.31, 92.71, 94.08, 95.33, 96.47, 97.48, 98.4, 99.55, 100.75, 102.05, 102.8, 103.57, 104.24, 105.15, 106.1, 107.24, 108.28, 109.65, 110.74, 111.91, 113.33, 114.48, 115.76, 117.2, 118.3, 119.32, 120.37, 121.54, 122.96, 124.18, 125.4, 126.55, 127.7, 128.91, 130.0, 131.12, 132.27, 133.41, 134.59, 136.19, 136.95]</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[0, -10, -10, -10, -10, 0, -10, -10, 0, -10, -20, 0, 0, 0, 0, 0, 0, -20, -20, -20, -10, 0, -10, 0, -20, 0, -20, -20, -20, 0, 0, -20, -10, -20, -10, 0, -20, -10, 0, 0, -20, -20, -20, 0, 0, -20, 0, 0, 0, -20, -20, -10, 0, -20, 0, -20, 0, -20, 0, 0, -10, -10, 0, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, -10, 0, -10, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>grocery</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>classWt</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[81, 81, 81, 81, 81, 94, 94, 136, 185, 185, 206, 229, 278, 278, 278, 305, 305, 305, 307, 307, 328, 330, 356, 356, 356, 370, 371, 372, 373, 373, 388, 398, 400, 421, 424, 479, 479, 479, 479, 479, 493, 500, 501, 507, 507, 555, 592, 642, 643, 699, 706, 706, 706, 706, 706, 728, 728, 733, 751, 751, 751, 751, 755, 759, 759, 759, 759, 759, 805, 805, 805, 805, 841, 868, 868, 899, 899, 899, 899, 907, 907, 907, 908, 916, 916, 951, 951, 951, 951, 954, 954, 962, 966, 993, 1019, 1048, 1058, 1058, 1058, 1058, 1089, 1089, 1089, 1089, 1089, 1089, 1089, 1110, 1112, 1112, 1124, 1137, 1146, 1146, 1146, 1153, 1153, 1153, 1153, 1153, 1164]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[0.34, 0.34, 0.34, 0.34, 0.34, 0.323, 0.323, 0.312, 0.327, 0.327, 0.321, 0.321, 0.301, 0.301, 0.301, 0.308, 0.308, 0.308, 0.308, 0.308, 0.31, 0.31, 0.318, 0.318, 0.318, 0.321, 0.321, 0.32, 0.32, 0.32, 0.327, 0.353, 0.363, 0.382, 0.38, 0.387, 0.387, 0.387, 0.387, 0.387, 0.38, 0.389, 0.387, 0.387, 0.387, 0.389, 0.395, 0.4, 0.406, 0.414, 0.419, 0.419, 0.419, 0.419, 0.419, 0.421, 0.421, 0.429, 0.43, 0.43, 0.43, 0.43, 0.432, 0.432, 0.432, 0.432, 0.432, 0.432, 0.444, 0.444, 0.444, 0.444, 0.442, 0.442, 0.442, 0.453, 0.453, 0.453, 0.453, 0.459, 0.459, 0.459, 0.459, 0.459, 0.459, 0.457, 0.457, 0.457, 0.457, 0.464, 0.464, 0.468, 0.47, 0.474, 0.483, 0.483, 0.483, 0.483, 0.483, 0.483, 0.485, 0.485, 0.485, 0.485, 0.485, 0.485, 0.485, 0.485, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491, 0.491]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[0, 22.578150320053112, 41.36441617012025, 64.79086587429049, 88.24813442230227, 113.14199843406682, 133.06964612007147, 150.66344666481024, 165.96491459012037, 166.38461459279065, 187.80666897892957, 197.7453427255154, 223.20368904471403, 242.70636374354368, 268.15776259303095, 281.4221214950085, 297.52316498160366, 311.25134550929073, 332.3836609065533, 354.6541890561581, 363.07345728278165, 378.94780728220945, 404.4061530292035, 424.02514593005185, 450.45544473528867, 464.61768402457244, 482.76927442550664, 492.82743391990664, 512.6623282909393, 534.6854055404663, 545.4138264894485, 566.465905213356, 581.8354239940643, 602.1897409915923, 625.435092306137, 652.3548410892486, 660.7398413181304, 688.1398109436034, 702.1122611522674, 702.1122611522674, 711.7701608896255, 728.6085087299346, 742.128211545944, 756.5295929431913, 774.572093605995, 800.0234924554823, 810.2014386177061, 838.7850130558012, 854.3543200492857, 881.385264587402, 891.896761012077, 910.8810156822202, 921.7189058542249, 944.7476429224012, 967.0159010648724, 979.950374627113, 987.8648782014843, 1000.8310764789578, 1019.0124041080471, 1048.2925180912014, 1052.162108814716, 1067.9028018355366, 1082.8718317866321, 1104.7385104298587, 1118.2000647425648, 1143.7124028563496, 1177.3129985213277, 1199.2163547396658, 1225.8960048556326, 1251.7422035098073, 1258.8754462361333, 1266.270257747173, 1283.4027189135547, 1307.785366427898, 1319.8159505248066, 1343.91093724966, 1370.119533860683, 1393.4137344717976, 1413.2146315455434, 1429.5828926920888, 1436.8988103151319, 1462.691160702705, 1477.5622464418407, 1492.3783710062498, 1511.6511549770826, 1541.5076036274427, 1552.1196532428257, 1581.672162407636, 1603.1054525077336, 1619.4347624957554, 1636.1285126388066, 1658.1463709533207, 1680.491656535863, 1712.441027301549, 1741.7301699578752, 1775.0127684533586, 1787.4713563263406, 1823.8471533596505, 1841.6069319307794, 1841.6069319307794, 1854.1264315903177, 1881.8166159450998, 1905.7264088451852, 1937.5768245279778, 1972.250650292634, 2004.4566018879405, 2028.4511164486398, 2054.841817265748, 2076.3500055134286, 2076.769705516099, 2105.886058551072, 2108.058223313092, 2122.5802497565737, 2149.0463144719592, 2183.797262901067, 2202.4138742625705, 2232.9579567551605, 2248.1732144474977, 2276.880769336223, 2303.357952797412, 2314.7494320392602]</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>[0, 0.08, 0.12, 0.16, 0.2, 0.23, 0.26, 0.31, 0.38, 0.4, 0.44, 0.5, 0.55, 0.6, 0.68, 0.75, 0.81, 0.88, 0.95, 1.02, 1.11, 1.18, 1.25, 1.32, 1.37, 1.42, 1.48, 1.59, 1.67, 1.72, 1.81, 1.9, 1.99, 2.09, 2.16, 2.21, 2.32, 2.39, 2.47, 2.55, 2.64, 2.7, 2.8, 2.88, 2.95, 3.06, 3.16, 3.26, 3.32, 3.41, 3.48, 3.58, 3.68, 3.75, 3.82, 3.93, 4.02, 4.09, 4.18, 4.29, 4.36, 4.5, 4.6, 4.68, 4.78, 4.87, 4.94, 5.06, 5.18, 5.25, 5.38, 5.52, 5.62, 5.71, 5.82, 5.94, 6.03, 6.17, 6.24, 6.35, 6.46, 6.55, 6.71, 6.8, 6.88, 6.97, 7.06, 7.17, 7.28, 7.36, 7.44, 7.53, 7.62, 7.71, 7.8, 7.9, 8.0, 8.09, 8.18, 8.25, 8.36, 8.46, 8.53, 8.6, 8.69, 8.79, 8.91, 8.99, 9.08, 9.17, 9.3, 9.4, 9.47, 9.54, 9.63, 9.76, 9.83, 9.92, 10.03, 10.2, 10.34]</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[0, -10, -10, -20, -20, 0, -20, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, -20, -20, 0, 0, 0, 0, 0, -20, 0, -20, 0, -20, 0, 0, -20, -10, -20, -10, 0, -20, -10, 0, -10, -20, -20, -20, 0, 0, -20, 0, -20, 0, 0, -20, -20, -20, 0, 0, -10, 0, -20, -10, 0, -10, -10, -10, 0, -10, -10, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, 0, 0, 0, -10, 0]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
